--- a/Doc/DWA_studyarea_Grid.xlsx
+++ b/Doc/DWA_studyarea_Grid.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Envimaster\DWA\Doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DWA\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{157213BE-6665-4C34-BD9B-1BC9DAF6455A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B549A2A-E24A-4BA2-ACB3-DF5B3418F832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5565"/>
+    <workbookView xWindow="-3330" yWindow="1510" windowWidth="14400" windowHeight="7250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DWA_studyarea_Grid" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1808" uniqueCount="897">
   <si>
     <t>romanNr</t>
   </si>
@@ -1076,13 +1076,1648 @@
   </si>
   <si>
     <t>to</t>
+  </si>
+  <si>
+    <t>II_59_0032</t>
+  </si>
+  <si>
+    <t>II_59_0065</t>
+  </si>
+  <si>
+    <t>II_59_0066</t>
+  </si>
+  <si>
+    <t>II_59_0075</t>
+  </si>
+  <si>
+    <t>II_59_0076</t>
+  </si>
+  <si>
+    <t>II_59_0084</t>
+  </si>
+  <si>
+    <t>II_59_0085</t>
+  </si>
+  <si>
+    <t>II_59_0097</t>
+  </si>
+  <si>
+    <t>II_59_0098</t>
+  </si>
+  <si>
+    <t>II_59_0108</t>
+  </si>
+  <si>
+    <t>und II_59_0111</t>
+  </si>
+  <si>
+    <t>II_59_0109</t>
+  </si>
+  <si>
+    <t>II_59_0124</t>
+  </si>
+  <si>
+    <t>ausser II_59_0111</t>
+  </si>
+  <si>
+    <t>II_60_0032</t>
+  </si>
+  <si>
+    <t>II_60_0039</t>
+  </si>
+  <si>
+    <t>II_60_0040</t>
+  </si>
+  <si>
+    <t>II_60_0051</t>
+  </si>
+  <si>
+    <t>II_60_0052</t>
+  </si>
+  <si>
+    <t>II_60_0067</t>
+  </si>
+  <si>
+    <t>II_60_0068</t>
+  </si>
+  <si>
+    <t>II_60_0082</t>
+  </si>
+  <si>
+    <t>II_60_0083</t>
+  </si>
+  <si>
+    <t>II_88_0001</t>
+  </si>
+  <si>
+    <t>II_88_0014</t>
+  </si>
+  <si>
+    <t>II_88_0015</t>
+  </si>
+  <si>
+    <t>II_88_0033</t>
+  </si>
+  <si>
+    <t>II_89_0001</t>
+  </si>
+  <si>
+    <t>II_89_0017</t>
+  </si>
+  <si>
+    <t>II_89_0018</t>
+  </si>
+  <si>
+    <t>II_89_0032</t>
+  </si>
+  <si>
+    <t>II_89_0033</t>
+  </si>
+  <si>
+    <t>II_89_0043</t>
+  </si>
+  <si>
+    <t>II_90_0001</t>
+  </si>
+  <si>
+    <t>II_90_0008</t>
+  </si>
+  <si>
+    <t>II_90_0009</t>
+  </si>
+  <si>
+    <t>II_90_0020</t>
+  </si>
+  <si>
+    <t>II_90_0021</t>
+  </si>
+  <si>
+    <t>II_90_0029</t>
+  </si>
+  <si>
+    <t>II_90_0030</t>
+  </si>
+  <si>
+    <t>II_90_0045</t>
+  </si>
+  <si>
+    <t>II_91_0001</t>
+  </si>
+  <si>
+    <t>II_91_0006</t>
+  </si>
+  <si>
+    <t>II_91_0007</t>
+  </si>
+  <si>
+    <t>II_91_0015</t>
+  </si>
+  <si>
+    <t>II_91_0016</t>
+  </si>
+  <si>
+    <t>II_91_0032</t>
+  </si>
+  <si>
+    <t>II_92_0001</t>
+  </si>
+  <si>
+    <t>II_92_0009</t>
+  </si>
+  <si>
+    <t>II_92_0010</t>
+  </si>
+  <si>
+    <t>II_92_0026</t>
+  </si>
+  <si>
+    <t>II_92_0027</t>
+  </si>
+  <si>
+    <t>II_92_0040</t>
+  </si>
+  <si>
+    <t>II_93_0001</t>
+  </si>
+  <si>
+    <t>II_93_0008</t>
+  </si>
+  <si>
+    <t>II_93_0009</t>
+  </si>
+  <si>
+    <t>II_93_0028</t>
+  </si>
+  <si>
+    <t>III_4_0042</t>
+  </si>
+  <si>
+    <t>III_4_0053</t>
+  </si>
+  <si>
+    <t>III_4_0075</t>
+  </si>
+  <si>
+    <t>III_4_0078</t>
+  </si>
+  <si>
+    <t>III_4_0079</t>
+  </si>
+  <si>
+    <t>III_4_0087</t>
+  </si>
+  <si>
+    <t>III_4_0088</t>
+  </si>
+  <si>
+    <t>III_4_0100</t>
+  </si>
+  <si>
+    <t>III_4_0108</t>
+  </si>
+  <si>
+    <t>III_4_0114</t>
+  </si>
+  <si>
+    <t>III_5_0013</t>
+  </si>
+  <si>
+    <t>III_5_0022</t>
+  </si>
+  <si>
+    <t>III_5_0023</t>
+  </si>
+  <si>
+    <t>III_5_0036</t>
+  </si>
+  <si>
+    <t>III_5_0037</t>
+  </si>
+  <si>
+    <t>III_5_0050</t>
+  </si>
+  <si>
+    <t>III_5_0051</t>
+  </si>
+  <si>
+    <t>III_5_0059</t>
+  </si>
+  <si>
+    <t>III_5_0060</t>
+  </si>
+  <si>
+    <t>III_5_0069</t>
+  </si>
+  <si>
+    <t>III_5_0070</t>
+  </si>
+  <si>
+    <t>III_5_0085</t>
+  </si>
+  <si>
+    <t>III_5_0086</t>
+  </si>
+  <si>
+    <t>III_5_0109</t>
+  </si>
+  <si>
+    <t>III_5_0110</t>
+  </si>
+  <si>
+    <t>III_5_0126</t>
+  </si>
+  <si>
+    <t>III_5_0127</t>
+  </si>
+  <si>
+    <t>III_5_0138</t>
+  </si>
+  <si>
+    <t>III_6_0002</t>
+  </si>
+  <si>
+    <t>III_6_0016</t>
+  </si>
+  <si>
+    <t>III_6_0017</t>
+  </si>
+  <si>
+    <t>III_6_0035</t>
+  </si>
+  <si>
+    <t>III_6_0036</t>
+  </si>
+  <si>
+    <t>III_6_0047</t>
+  </si>
+  <si>
+    <t>III_6_0048</t>
+  </si>
+  <si>
+    <t>III_6_0068</t>
+  </si>
+  <si>
+    <t>III_6_0067</t>
+  </si>
+  <si>
+    <t>III_6_0078</t>
+  </si>
+  <si>
+    <t>III_6_0079</t>
+  </si>
+  <si>
+    <t>III_6_0086</t>
+  </si>
+  <si>
+    <t>III_6_0087</t>
+  </si>
+  <si>
+    <t>III_6_0096</t>
+  </si>
+  <si>
+    <t>III_6_0097</t>
+  </si>
+  <si>
+    <t>III_7_0006</t>
+  </si>
+  <si>
+    <t>III_6_0109</t>
+  </si>
+  <si>
+    <t>III_7_0020</t>
+  </si>
+  <si>
+    <t>III_7_0021</t>
+  </si>
+  <si>
+    <t>III_7_0039</t>
+  </si>
+  <si>
+    <t>III_7_0040</t>
+  </si>
+  <si>
+    <t>III_7_0056</t>
+  </si>
+  <si>
+    <t>III_7_0057</t>
+  </si>
+  <si>
+    <t>III_7_0079</t>
+  </si>
+  <si>
+    <t>III_7_0080</t>
+  </si>
+  <si>
+    <t>III_7_0094</t>
+  </si>
+  <si>
+    <t>III_7_0095</t>
+  </si>
+  <si>
+    <t>III_7_0106</t>
+  </si>
+  <si>
+    <t>III_7_0107</t>
+  </si>
+  <si>
+    <t>III_7_0124</t>
+  </si>
+  <si>
+    <t>III_7_0125</t>
+  </si>
+  <si>
+    <t>III_7_0134</t>
+  </si>
+  <si>
+    <t>III_8_0014</t>
+  </si>
+  <si>
+    <t>III_8_0028</t>
+  </si>
+  <si>
+    <t>III_8_0029</t>
+  </si>
+  <si>
+    <t>III_8_0055</t>
+  </si>
+  <si>
+    <t>III_8_0056</t>
+  </si>
+  <si>
+    <t>III_8_0079</t>
+  </si>
+  <si>
+    <t>III_8_0080</t>
+  </si>
+  <si>
+    <t>III_8_0087</t>
+  </si>
+  <si>
+    <t>III_8_0088</t>
+  </si>
+  <si>
+    <t>III_8_0097</t>
+  </si>
+  <si>
+    <t>III_8_0098</t>
+  </si>
+  <si>
+    <t>III_8_0109</t>
+  </si>
+  <si>
+    <t>III_8_0110</t>
+  </si>
+  <si>
+    <t>III_8_0113</t>
+  </si>
+  <si>
+    <t>III_9_0003</t>
+  </si>
+  <si>
+    <t>III_9_0007</t>
+  </si>
+  <si>
+    <t>III_9_0008</t>
+  </si>
+  <si>
+    <t>III_9_0023</t>
+  </si>
+  <si>
+    <t>III_9_0024</t>
+  </si>
+  <si>
+    <t>III_9_0042</t>
+  </si>
+  <si>
+    <t>III_9_0043</t>
+  </si>
+  <si>
+    <t>III_9_0075</t>
+  </si>
+  <si>
+    <t>III_9_0077</t>
+  </si>
+  <si>
+    <t>III_9_0086</t>
+  </si>
+  <si>
+    <t>III_9_0087</t>
+  </si>
+  <si>
+    <t>III_9_0103</t>
+  </si>
+  <si>
+    <t>III_9_0104</t>
+  </si>
+  <si>
+    <t>III_9_0105</t>
+  </si>
+  <si>
+    <t>III_10_0001</t>
+  </si>
+  <si>
+    <t>III_10_0004</t>
+  </si>
+  <si>
+    <t>III_10_0005</t>
+  </si>
+  <si>
+    <t>III_10_0023</t>
+  </si>
+  <si>
+    <t>III_10_0024</t>
+  </si>
+  <si>
+    <t>III_10_0040</t>
+  </si>
+  <si>
+    <t>III_10_0041</t>
+  </si>
+  <si>
+    <t>III_10_0048</t>
+  </si>
+  <si>
+    <t>III_10_0049</t>
+  </si>
+  <si>
+    <t>III_10_0064</t>
+  </si>
+  <si>
+    <t>III_10_0065</t>
+  </si>
+  <si>
+    <t>III_11_0078</t>
+  </si>
+  <si>
+    <t>III_11_0079</t>
+  </si>
+  <si>
+    <t>III_11_0081</t>
+  </si>
+  <si>
+    <t>III_10_0081</t>
+  </si>
+  <si>
+    <t>III_10_0082</t>
+  </si>
+  <si>
+    <t>III_10_0084</t>
+  </si>
+  <si>
+    <t>III_10_0085</t>
+  </si>
+  <si>
+    <t>III_10_0086</t>
+  </si>
+  <si>
+    <t>III_10_0087</t>
+  </si>
+  <si>
+    <t>III_10_0097</t>
+  </si>
+  <si>
+    <t>III_10_0098</t>
+  </si>
+  <si>
+    <t>III_10_0109</t>
+  </si>
+  <si>
+    <t>III_10_0110</t>
+  </si>
+  <si>
+    <t>III_10_0116</t>
+  </si>
+  <si>
+    <t>III_10_0117</t>
+  </si>
+  <si>
+    <t>III_10_0134</t>
+  </si>
+  <si>
+    <t>III_10_0135</t>
+  </si>
+  <si>
+    <t>III_10_0140</t>
+  </si>
+  <si>
+    <t>III_10_0141</t>
+  </si>
+  <si>
+    <t>III_10_0146</t>
+  </si>
+  <si>
+    <t>III_11_0001</t>
+  </si>
+  <si>
+    <t>III_11_0010</t>
+  </si>
+  <si>
+    <t>III_11_0011</t>
+  </si>
+  <si>
+    <t>III_11_0026</t>
+  </si>
+  <si>
+    <t>III_11_0027</t>
+  </si>
+  <si>
+    <t>III_11_0039</t>
+  </si>
+  <si>
+    <t>III_11_0040</t>
+  </si>
+  <si>
+    <t>III_11_0049</t>
+  </si>
+  <si>
+    <t>III_11_0050</t>
+  </si>
+  <si>
+    <t>III_11_0064</t>
+  </si>
+  <si>
+    <t>III_11_0065</t>
+  </si>
+  <si>
+    <t>III_11_0082</t>
+  </si>
+  <si>
+    <t>III_11_0086</t>
+  </si>
+  <si>
+    <t>III_11_0087</t>
+  </si>
+  <si>
+    <t>III_11_0096</t>
+  </si>
+  <si>
+    <t>III_11_0097</t>
+  </si>
+  <si>
+    <t>III_11_0105</t>
+  </si>
+  <si>
+    <t>III_11_0106</t>
+  </si>
+  <si>
+    <t>III_11_0118</t>
+  </si>
+  <si>
+    <t>III_11_0119</t>
+  </si>
+  <si>
+    <t>III_11_0132</t>
+  </si>
+  <si>
+    <t>III_11_0133</t>
+  </si>
+  <si>
+    <t>III_11_0144</t>
+  </si>
+  <si>
+    <t>III_11_0145</t>
+  </si>
+  <si>
+    <t>III_11_0154</t>
+  </si>
+  <si>
+    <t>III_12_0002</t>
+  </si>
+  <si>
+    <t>III_12_0007</t>
+  </si>
+  <si>
+    <t>III_12_0008</t>
+  </si>
+  <si>
+    <t>III_12_0016</t>
+  </si>
+  <si>
+    <t>III_12_0017</t>
+  </si>
+  <si>
+    <t>III_12_0032</t>
+  </si>
+  <si>
+    <t>III_12_0033</t>
+  </si>
+  <si>
+    <t>III_12_0046</t>
+  </si>
+  <si>
+    <t>III_12_0047</t>
+  </si>
+  <si>
+    <t>III_12_0054</t>
+  </si>
+  <si>
+    <t>III_12_0055</t>
+  </si>
+  <si>
+    <t>III_12_0064</t>
+  </si>
+  <si>
+    <t>III_12_0065</t>
+  </si>
+  <si>
+    <t>III_12_0073</t>
+  </si>
+  <si>
+    <t>III_12_0075</t>
+  </si>
+  <si>
+    <t>III_12_0087</t>
+  </si>
+  <si>
+    <t>III_12_0088</t>
+  </si>
+  <si>
+    <t>III_12_0101</t>
+  </si>
+  <si>
+    <t>III_12_0102</t>
+  </si>
+  <si>
+    <t>III_12_0110</t>
+  </si>
+  <si>
+    <t>III_12_0111</t>
+  </si>
+  <si>
+    <t>III_12_0125</t>
+  </si>
+  <si>
+    <t>III_12_0126</t>
+  </si>
+  <si>
+    <t>III_12_0142</t>
+  </si>
+  <si>
+    <t>III_12_0143</t>
+  </si>
+  <si>
+    <t>III_12_0151</t>
+  </si>
+  <si>
+    <t>III_12_0152</t>
+  </si>
+  <si>
+    <t>III_12_0170</t>
+  </si>
+  <si>
+    <t>III_13_0001</t>
+  </si>
+  <si>
+    <t>III_13_0011</t>
+  </si>
+  <si>
+    <t>III_13_0012</t>
+  </si>
+  <si>
+    <t>III_13_0027</t>
+  </si>
+  <si>
+    <t>III_13_0028</t>
+  </si>
+  <si>
+    <t>III_13_0035</t>
+  </si>
+  <si>
+    <t>III_13_0036</t>
+  </si>
+  <si>
+    <t>III_13_0047</t>
+  </si>
+  <si>
+    <t>III_13_0048</t>
+  </si>
+  <si>
+    <t>III_13_0060</t>
+  </si>
+  <si>
+    <t>III_13_0064</t>
+  </si>
+  <si>
+    <t>Und III_13_0065</t>
+  </si>
+  <si>
+    <t>III_13_0074</t>
+  </si>
+  <si>
+    <t>III_13_0075</t>
+  </si>
+  <si>
+    <t>III_13_0081</t>
+  </si>
+  <si>
+    <t>III_13_0082</t>
+  </si>
+  <si>
+    <t>III_13_0093</t>
+  </si>
+  <si>
+    <t>III_13_0094</t>
+  </si>
+  <si>
+    <t>III_13_0095</t>
+  </si>
+  <si>
+    <t>III_13_0096</t>
+  </si>
+  <si>
+    <t>III_13_0102</t>
+  </si>
+  <si>
+    <t>III_13_0103</t>
+  </si>
+  <si>
+    <t>III_13_0113</t>
+  </si>
+  <si>
+    <t>III_13_0114</t>
+  </si>
+  <si>
+    <t>III_13_0123</t>
+  </si>
+  <si>
+    <t>III_13_0124</t>
+  </si>
+  <si>
+    <t>III_13_0126</t>
+  </si>
+  <si>
+    <t>III_13_0127</t>
+  </si>
+  <si>
+    <t>III_13_0140</t>
+  </si>
+  <si>
+    <t>III_13_0141</t>
+  </si>
+  <si>
+    <t>III_13_0152</t>
+  </si>
+  <si>
+    <t>III_13_0153</t>
+  </si>
+  <si>
+    <t>III_13_0156</t>
+  </si>
+  <si>
+    <t>III_13_0157</t>
+  </si>
+  <si>
+    <t>III_13_0161</t>
+  </si>
+  <si>
+    <t>III_14_0001</t>
+  </si>
+  <si>
+    <t>III_14_0008</t>
+  </si>
+  <si>
+    <t>III_14_0016</t>
+  </si>
+  <si>
+    <t>III_14_0017</t>
+  </si>
+  <si>
+    <t>III_14_0033</t>
+  </si>
+  <si>
+    <t>III_14_0034</t>
+  </si>
+  <si>
+    <t>III_14_0039</t>
+  </si>
+  <si>
+    <t>III_14_0040</t>
+  </si>
+  <si>
+    <t>III_14_0048</t>
+  </si>
+  <si>
+    <t>III_14_0049</t>
+  </si>
+  <si>
+    <t>III_14_0066</t>
+  </si>
+  <si>
+    <t>III_14_0071</t>
+  </si>
+  <si>
+    <t>III_14_0072</t>
+  </si>
+  <si>
+    <t>III_14_0074</t>
+  </si>
+  <si>
+    <t>III_14_0075</t>
+  </si>
+  <si>
+    <t>III_14_0079</t>
+  </si>
+  <si>
+    <t>III_14_0080</t>
+  </si>
+  <si>
+    <t>III_14_0086</t>
+  </si>
+  <si>
+    <t>III_14_0087</t>
+  </si>
+  <si>
+    <t>III_14_0100</t>
+  </si>
+  <si>
+    <t>III_14_0101</t>
+  </si>
+  <si>
+    <t>III_14_0121</t>
+  </si>
+  <si>
+    <t>III_14_0122</t>
+  </si>
+  <si>
+    <t>III_14_0131</t>
+  </si>
+  <si>
+    <t>III_14_0132</t>
+  </si>
+  <si>
+    <t>III_14_0143</t>
+  </si>
+  <si>
+    <t>III_14_0144</t>
+  </si>
+  <si>
+    <t>III_14_0153</t>
+  </si>
+  <si>
+    <t>III_14_0154</t>
+  </si>
+  <si>
+    <t>III_14_0169</t>
+  </si>
+  <si>
+    <t>III_14_0170</t>
+  </si>
+  <si>
+    <t>III_14_0176</t>
+  </si>
+  <si>
+    <t>III_14_0177</t>
+  </si>
+  <si>
+    <t>III_14_0184</t>
+  </si>
+  <si>
+    <t>III_15_0001</t>
+  </si>
+  <si>
+    <t>III_15_0014</t>
+  </si>
+  <si>
+    <t>III_15_0015</t>
+  </si>
+  <si>
+    <t>III_15_0029</t>
+  </si>
+  <si>
+    <t>III_15_0030</t>
+  </si>
+  <si>
+    <t>III_15_0042</t>
+  </si>
+  <si>
+    <t>III_15_0043</t>
+  </si>
+  <si>
+    <t>III_15_0059</t>
+  </si>
+  <si>
+    <t>III_15_0060</t>
+  </si>
+  <si>
+    <t>III_15_0068</t>
+  </si>
+  <si>
+    <t>III_15_0069</t>
+  </si>
+  <si>
+    <t>III_15_0089</t>
+  </si>
+  <si>
+    <t>III_15_0090</t>
+  </si>
+  <si>
+    <t>III_15_0113</t>
+  </si>
+  <si>
+    <t>III_15_0114</t>
+  </si>
+  <si>
+    <t>III_15_0128</t>
+  </si>
+  <si>
+    <t>III_16_0001</t>
+  </si>
+  <si>
+    <t>III_16_0019</t>
+  </si>
+  <si>
+    <t>III_16_0020</t>
+  </si>
+  <si>
+    <t>III_16_0036</t>
+  </si>
+  <si>
+    <t>III_16_0037</t>
+  </si>
+  <si>
+    <t>III_16_0057</t>
+  </si>
+  <si>
+    <t>III_16_0058</t>
+  </si>
+  <si>
+    <t>III_16_0090</t>
+  </si>
+  <si>
+    <t>III_16_0091</t>
+  </si>
+  <si>
+    <t>III_16_0111</t>
+  </si>
+  <si>
+    <t>III_16_0112</t>
+  </si>
+  <si>
+    <t>III_16_0125</t>
+  </si>
+  <si>
+    <t>III_16_0126</t>
+  </si>
+  <si>
+    <t>III_16_0146</t>
+  </si>
+  <si>
+    <t>III_16_0147</t>
+  </si>
+  <si>
+    <t>III_16_0167</t>
+  </si>
+  <si>
+    <t>III_17_0001</t>
+  </si>
+  <si>
+    <t>III_17_0003</t>
+  </si>
+  <si>
+    <t>III_17_0004</t>
+  </si>
+  <si>
+    <t>III_17_0014</t>
+  </si>
+  <si>
+    <t>III_17_0015</t>
+  </si>
+  <si>
+    <t>III_17_0025</t>
+  </si>
+  <si>
+    <t>III_17_0026</t>
+  </si>
+  <si>
+    <t>III_17_0028</t>
+  </si>
+  <si>
+    <t>und</t>
+  </si>
+  <si>
+    <t>III_17_0029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bis </t>
+  </si>
+  <si>
+    <t>III_17_0031</t>
+  </si>
+  <si>
+    <t>III_17_0032</t>
+  </si>
+  <si>
+    <t>III_17_0034</t>
+  </si>
+  <si>
+    <t>III_17_0035</t>
+  </si>
+  <si>
+    <t>III_17_0037</t>
+  </si>
+  <si>
+    <t>III_17_0038</t>
+  </si>
+  <si>
+    <t>III_17_0044</t>
+  </si>
+  <si>
+    <t>III_17_0045</t>
+  </si>
+  <si>
+    <t>III_17_0046</t>
+  </si>
+  <si>
+    <t>ohne Angabe</t>
+  </si>
+  <si>
+    <t>III_17_0047</t>
+  </si>
+  <si>
+    <t>III_17_0057</t>
+  </si>
+  <si>
+    <t>III_17_0058</t>
+  </si>
+  <si>
+    <t>III_17_0062</t>
+  </si>
+  <si>
+    <t>III_17_0063</t>
+  </si>
+  <si>
+    <t>III_17_0070</t>
+  </si>
+  <si>
+    <t>III_17_0071</t>
+  </si>
+  <si>
+    <t>III_17_0077</t>
+  </si>
+  <si>
+    <t>III_18_0001</t>
+  </si>
+  <si>
+    <t>III_18_0014</t>
+  </si>
+  <si>
+    <t>III_18_0015</t>
+  </si>
+  <si>
+    <t>III_18_0021</t>
+  </si>
+  <si>
+    <t>III_18_0022</t>
+  </si>
+  <si>
+    <t>III_18_0036</t>
+  </si>
+  <si>
+    <t>III_18_0037</t>
+  </si>
+  <si>
+    <t>III_18_0056</t>
+  </si>
+  <si>
+    <t>III_18_0057</t>
+  </si>
+  <si>
+    <t>III_18_0069</t>
+  </si>
+  <si>
+    <t>III_18_0070</t>
+  </si>
+  <si>
+    <t>III_18_0079</t>
+  </si>
+  <si>
+    <t>III_18_0080</t>
+  </si>
+  <si>
+    <t>III_18_0088</t>
+  </si>
+  <si>
+    <t>III_19_0001</t>
+  </si>
+  <si>
+    <t>III_19_0012</t>
+  </si>
+  <si>
+    <t>III_19_0013</t>
+  </si>
+  <si>
+    <t>III_19_0021</t>
+  </si>
+  <si>
+    <t>III_19_0022</t>
+  </si>
+  <si>
+    <t>III_19_0036</t>
+  </si>
+  <si>
+    <t>III_19_0037</t>
+  </si>
+  <si>
+    <t>III_19_0051</t>
+  </si>
+  <si>
+    <t>III_19_0052</t>
+  </si>
+  <si>
+    <t>III_19_0063</t>
+  </si>
+  <si>
+    <t>III_20_0001</t>
+  </si>
+  <si>
+    <t>III_20_0010</t>
+  </si>
+  <si>
+    <t>III_20_0011</t>
+  </si>
+  <si>
+    <t>III_20_0027</t>
+  </si>
+  <si>
+    <t>III_20_0028</t>
+  </si>
+  <si>
+    <t>III_20_0040</t>
+  </si>
+  <si>
+    <t>III_20_0041</t>
+  </si>
+  <si>
+    <t>III_20_0059</t>
+  </si>
+  <si>
+    <t>III_20_0060</t>
+  </si>
+  <si>
+    <t>III_20_0073</t>
+  </si>
+  <si>
+    <t>III_21_0001</t>
+  </si>
+  <si>
+    <t>III_21_0008</t>
+  </si>
+  <si>
+    <t>III_21_0009</t>
+  </si>
+  <si>
+    <t>III_21_0021</t>
+  </si>
+  <si>
+    <t>III_21_0022</t>
+  </si>
+  <si>
+    <t>III_21_0032</t>
+  </si>
+  <si>
+    <t>III_21_0033</t>
+  </si>
+  <si>
+    <t>III_21_0044</t>
+  </si>
+  <si>
+    <t>III_22_0001</t>
+  </si>
+  <si>
+    <t>III_22_0009</t>
+  </si>
+  <si>
+    <t>III_22_0010</t>
+  </si>
+  <si>
+    <t>III_22_0025</t>
+  </si>
+  <si>
+    <t>III_22_0026</t>
+  </si>
+  <si>
+    <t>III_22_0039</t>
+  </si>
+  <si>
+    <t>III_23_0001</t>
+  </si>
+  <si>
+    <t>III_23_0013</t>
+  </si>
+  <si>
+    <t>III_23_0014</t>
+  </si>
+  <si>
+    <t>III_23_0028</t>
+  </si>
+  <si>
+    <t>III_23_0029</t>
+  </si>
+  <si>
+    <t>III_23_0059</t>
+  </si>
+  <si>
+    <t>III_24_0001</t>
+  </si>
+  <si>
+    <t>III_24_0010</t>
+  </si>
+  <si>
+    <t>III_24_0020</t>
+  </si>
+  <si>
+    <t>III_24_0040</t>
+  </si>
+  <si>
+    <t>III_24_0058</t>
+  </si>
+  <si>
+    <t>III_24_0069</t>
+  </si>
+  <si>
+    <t>III_24_0103</t>
+  </si>
+  <si>
+    <t>III_24_0116</t>
+  </si>
+  <si>
+    <t>III_25_0001</t>
+  </si>
+  <si>
+    <t>III_25_0011</t>
+  </si>
+  <si>
+    <t>III_25_0038</t>
+  </si>
+  <si>
+    <t>III_25_0050</t>
+  </si>
+  <si>
+    <t>III_26_0001</t>
+  </si>
+  <si>
+    <t>III_26_0008</t>
+  </si>
+  <si>
+    <t>III_26_0027</t>
+  </si>
+  <si>
+    <t>III_26_0041</t>
+  </si>
+  <si>
+    <t>III_26_0060</t>
+  </si>
+  <si>
+    <t>III_26_0078</t>
+  </si>
+  <si>
+    <t>III_26_0079</t>
+  </si>
+  <si>
+    <t>III_26_0091</t>
+  </si>
+  <si>
+    <t>III_29_0001</t>
+  </si>
+  <si>
+    <t>III_29_0012</t>
+  </si>
+  <si>
+    <t>III_30_0001</t>
+  </si>
+  <si>
+    <t>III_30_0010</t>
+  </si>
+  <si>
+    <t>III_31_0001</t>
+  </si>
+  <si>
+    <t>III_31_0011</t>
+  </si>
+  <si>
+    <t>III_32_0001</t>
+  </si>
+  <si>
+    <t>III_32_0009</t>
+  </si>
+  <si>
+    <t>III_32_0010</t>
+  </si>
+  <si>
+    <t>III_32_0018</t>
+  </si>
+  <si>
+    <t>III_32_0032</t>
+  </si>
+  <si>
+    <t>III_32_0041</t>
+  </si>
+  <si>
+    <t>III_32_0042</t>
+  </si>
+  <si>
+    <t>III_32_0050</t>
+  </si>
+  <si>
+    <t>III_33_0001</t>
+  </si>
+  <si>
+    <t>III_33_0010</t>
+  </si>
+  <si>
+    <t>III_33_0011</t>
+  </si>
+  <si>
+    <t>III_33_0018</t>
+  </si>
+  <si>
+    <t>III_33_0032</t>
+  </si>
+  <si>
+    <t>III_33_0041</t>
+  </si>
+  <si>
+    <t>III_33_0042</t>
+  </si>
+  <si>
+    <t>III_33_0051</t>
+  </si>
+  <si>
+    <t>III_33_0052</t>
+  </si>
+  <si>
+    <t>III_33_0061</t>
+  </si>
+  <si>
+    <t>III_33_0069</t>
+  </si>
+  <si>
+    <t>bis</t>
+  </si>
+  <si>
+    <t>III_33_0073</t>
+  </si>
+  <si>
+    <t>III_33_0081</t>
+  </si>
+  <si>
+    <t>III_33_0083</t>
+  </si>
+  <si>
+    <t>dann TIF nicht lesbar</t>
+  </si>
+  <si>
+    <t>III_34_0001</t>
+  </si>
+  <si>
+    <t>III_34_0017</t>
+  </si>
+  <si>
+    <t>III_34_0018</t>
+  </si>
+  <si>
+    <t>III_34_0028</t>
+  </si>
+  <si>
+    <t>III_34_0029</t>
+  </si>
+  <si>
+    <t>III_34_0042</t>
+  </si>
+  <si>
+    <t>III_34_0043</t>
+  </si>
+  <si>
+    <t>III_34_0048</t>
+  </si>
+  <si>
+    <t>III_34_0049</t>
+  </si>
+  <si>
+    <t>III_34_0061</t>
+  </si>
+  <si>
+    <t>III_34_0062</t>
+  </si>
+  <si>
+    <t>III_34_0072</t>
+  </si>
+  <si>
+    <t>III_34_0073</t>
+  </si>
+  <si>
+    <t>III_34_0078</t>
+  </si>
+  <si>
+    <t>III_35_0001</t>
+  </si>
+  <si>
+    <t>III_35_0010</t>
+  </si>
+  <si>
+    <t>III_35_0011</t>
+  </si>
+  <si>
+    <t>III_35_0025</t>
+  </si>
+  <si>
+    <t>III_35_0026</t>
+  </si>
+  <si>
+    <t>III_35_0037</t>
+  </si>
+  <si>
+    <t>III_35_0038</t>
+  </si>
+  <si>
+    <t>III_35_0051</t>
+  </si>
+  <si>
+    <t>III_35_0052</t>
+  </si>
+  <si>
+    <t>III_35_0064</t>
+  </si>
+  <si>
+    <t>III_35_0065</t>
+  </si>
+  <si>
+    <t>III_35_0077</t>
+  </si>
+  <si>
+    <t>III_35_0078</t>
+  </si>
+  <si>
+    <t>III_35_0087</t>
+  </si>
+  <si>
+    <t>III_36_0001</t>
+  </si>
+  <si>
+    <t>III_36_0016</t>
+  </si>
+  <si>
+    <t>III_36_0017</t>
+  </si>
+  <si>
+    <t>III_36_0026</t>
+  </si>
+  <si>
+    <t>III_36_0027</t>
+  </si>
+  <si>
+    <t>III_36_0040</t>
+  </si>
+  <si>
+    <t>III_36_0041</t>
+  </si>
+  <si>
+    <t>III_36_0052</t>
+  </si>
+  <si>
+    <t>III_36_0053</t>
+  </si>
+  <si>
+    <t>III_36_0072</t>
+  </si>
+  <si>
+    <t>III_36_0071</t>
+  </si>
+  <si>
+    <t>III_36_0087</t>
+  </si>
+  <si>
+    <t>III_36_0088</t>
+  </si>
+  <si>
+    <t>III_36_0098</t>
+  </si>
+  <si>
+    <t>III_37_0001</t>
+  </si>
+  <si>
+    <t>III_37_0009</t>
+  </si>
+  <si>
+    <t>III_37_0010</t>
+  </si>
+  <si>
+    <t>III_37_0017</t>
+  </si>
+  <si>
+    <t>III_37_0018</t>
+  </si>
+  <si>
+    <t>III_37_0029</t>
+  </si>
+  <si>
+    <t>III_37_0030</t>
+  </si>
+  <si>
+    <t>III_37_0040</t>
+  </si>
+  <si>
+    <t>III_37_0041</t>
+  </si>
+  <si>
+    <t>III_37_0049</t>
+  </si>
+  <si>
+    <t>III_37_0050</t>
+  </si>
+  <si>
+    <t>III_37_0063</t>
+  </si>
+  <si>
+    <t>III_38_0001</t>
+  </si>
+  <si>
+    <t>III_38_0016</t>
+  </si>
+  <si>
+    <t>III_38_0017</t>
+  </si>
+  <si>
+    <t>III_38_0023</t>
+  </si>
+  <si>
+    <t>III_38_0024</t>
+  </si>
+  <si>
+    <t>III_38_0026</t>
+  </si>
+  <si>
+    <t>III_38_0027</t>
+  </si>
+  <si>
+    <t>III_38_0025</t>
+  </si>
+  <si>
+    <t>III_38_0083</t>
+  </si>
+  <si>
+    <t>III_38_0085</t>
+  </si>
+  <si>
+    <t>II_55_0122</t>
+  </si>
+  <si>
+    <t>II_55_0132</t>
+  </si>
+  <si>
+    <t>II_57_0077</t>
+  </si>
+  <si>
+    <t>II_57_0083</t>
+  </si>
+  <si>
+    <t>II_57_0132</t>
+  </si>
+  <si>
+    <t>II_57_0143</t>
+  </si>
+  <si>
+    <t>II_58_0060</t>
+  </si>
+  <si>
+    <t>II_58_0064</t>
+  </si>
+  <si>
+    <t>ausser II_58_0062</t>
+  </si>
+  <si>
+    <t>II_58_0065</t>
+  </si>
+  <si>
+    <t>II_58_0072</t>
+  </si>
+  <si>
+    <t>II_58_0073</t>
+  </si>
+  <si>
+    <t>II_58_0091</t>
+  </si>
+  <si>
+    <t>II_58_0099</t>
+  </si>
+  <si>
+    <t>II_58_0105</t>
+  </si>
+  <si>
+    <t>II_58_0106</t>
+  </si>
+  <si>
+    <t>II_58_0115</t>
+  </si>
+  <si>
+    <t>und II_58_0062</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1217,8 +2852,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1398,6 +3039,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1559,52 +3206,54 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1620,7 +3269,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1915,16 +3564,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J267"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M267"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1956,27 +3605,33 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>55</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>22</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>879</v>
+      </c>
+      <c r="H2" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1995,8 +3650,14 @@
       <c r="F3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>881</v>
+      </c>
+      <c r="H3" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -2015,108 +3676,150 @@
       <c r="F4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="G4" t="s">
+        <v>883</v>
+      </c>
+      <c r="H4" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>58</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>17</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="G5" t="s">
+        <v>885</v>
+      </c>
+      <c r="H5" t="s">
+        <v>886</v>
+      </c>
+      <c r="I5" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>58</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>18</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="G6" t="s">
+        <v>888</v>
+      </c>
+      <c r="H6" t="s">
+        <v>889</v>
+      </c>
+      <c r="I6" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>58</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>19</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="G7" t="s">
+        <v>890</v>
+      </c>
+      <c r="H7" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>58</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>21</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="G8" t="s">
+        <v>892</v>
+      </c>
+      <c r="H8" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>58</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>22</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>894</v>
+      </c>
+      <c r="H9" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2135,8 +3838,14 @@
       <c r="F10" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>352</v>
+      </c>
+      <c r="H10" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -2155,8 +3864,14 @@
       <c r="F11" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>354</v>
+      </c>
+      <c r="H11" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -2175,8 +3890,14 @@
       <c r="F12" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>356</v>
+      </c>
+      <c r="H12" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -2195,8 +3916,14 @@
       <c r="F13" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>358</v>
+      </c>
+      <c r="H13" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -2215,8 +3942,17 @@
       <c r="F14" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>360</v>
+      </c>
+      <c r="H14" t="s">
+        <v>361</v>
+      </c>
+      <c r="I14" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -2235,108 +3971,147 @@
       <c r="F15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="G15" t="s">
+        <v>363</v>
+      </c>
+      <c r="H15" t="s">
+        <v>364</v>
+      </c>
+      <c r="I15" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <v>60</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="1">
         <v>18</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="G16" t="s">
+        <v>366</v>
+      </c>
+      <c r="H16" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <v>60</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="1">
         <v>19</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="G17" t="s">
+        <v>368</v>
+      </c>
+      <c r="H17" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
         <v>60</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="1">
         <v>20</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="G18" t="s">
+        <v>370</v>
+      </c>
+      <c r="H18" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="1">
         <v>60</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="1">
         <v>21</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="G19" t="s">
+        <v>372</v>
+      </c>
+      <c r="H19" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="1">
         <v>60</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="1">
         <v>22</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>374</v>
+      </c>
+      <c r="H20" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -2355,8 +4130,14 @@
       <c r="F21" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>375</v>
+      </c>
+      <c r="H21" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -2375,68 +4156,92 @@
       <c r="F22" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="G22" t="s">
+        <v>377</v>
+      </c>
+      <c r="H22" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="1">
         <v>89</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="1">
         <v>23</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="G23" t="s">
+        <v>379</v>
+      </c>
+      <c r="H23" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="1">
         <v>89</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="1">
         <v>24</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="G24" t="s">
+        <v>381</v>
+      </c>
+      <c r="H24" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="1">
         <v>89</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="1">
         <v>25</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" t="s">
+        <v>383</v>
+      </c>
+      <c r="H25" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -2455,8 +4260,14 @@
       <c r="F26" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26" t="s">
+        <v>385</v>
+      </c>
+      <c r="H26" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -2475,8 +4286,14 @@
       <c r="F27" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27" t="s">
+        <v>387</v>
+      </c>
+      <c r="H27" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -2495,8 +4312,14 @@
       <c r="F28" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28" t="s">
+        <v>389</v>
+      </c>
+      <c r="H28" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -2515,68 +4338,92 @@
       <c r="F29" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="G29" t="s">
+        <v>391</v>
+      </c>
+      <c r="H29" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="1">
         <v>91</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="1">
         <v>23</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="G30" t="s">
+        <v>393</v>
+      </c>
+      <c r="H30" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="1">
         <v>91</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="1">
         <v>24</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="G31" t="s">
+        <v>395</v>
+      </c>
+      <c r="H31" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="1">
         <v>91</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="1">
         <v>25</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G32" t="s">
+        <v>397</v>
+      </c>
+      <c r="H32" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -2595,8 +4442,14 @@
       <c r="F33" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G33" t="s">
+        <v>399</v>
+      </c>
+      <c r="H33" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -2615,8 +4468,14 @@
       <c r="F34" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G34" t="s">
+        <v>401</v>
+      </c>
+      <c r="H34" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -2635,48 +4494,66 @@
       <c r="F35" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="G35" t="s">
+        <v>403</v>
+      </c>
+      <c r="H35" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="1">
         <v>93</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="1">
         <v>23</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="G36" t="s">
+        <v>405</v>
+      </c>
+      <c r="H36" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="1">
         <v>93</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="1">
         <v>24</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G37" t="s">
+        <v>407</v>
+      </c>
+      <c r="H37" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>62</v>
       </c>
@@ -2695,11 +4572,17 @@
       <c r="F38" t="s">
         <v>65</v>
       </c>
+      <c r="G38" t="s">
+        <v>409</v>
+      </c>
+      <c r="H38" t="s">
+        <v>410</v>
+      </c>
       <c r="I38" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>62</v>
       </c>
@@ -2718,11 +4601,17 @@
       <c r="F39" t="s">
         <v>67</v>
       </c>
+      <c r="G39" t="s">
+        <v>411</v>
+      </c>
+      <c r="H39" t="s">
+        <v>412</v>
+      </c>
       <c r="I39" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>62</v>
       </c>
@@ -2741,11 +4630,17 @@
       <c r="F40" t="s">
         <v>68</v>
       </c>
+      <c r="G40" t="s">
+        <v>413</v>
+      </c>
+      <c r="H40" t="s">
+        <v>414</v>
+      </c>
       <c r="I40" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>62</v>
       </c>
@@ -2764,11 +4659,17 @@
       <c r="F41" t="s">
         <v>69</v>
       </c>
+      <c r="G41" t="s">
+        <v>415</v>
+      </c>
+      <c r="H41" t="s">
+        <v>416</v>
+      </c>
       <c r="I41" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>62</v>
       </c>
@@ -2787,218 +4688,278 @@
       <c r="F42" t="s">
         <v>70</v>
       </c>
+      <c r="G42" t="s">
+        <v>417</v>
+      </c>
+      <c r="H42" t="s">
+        <v>418</v>
+      </c>
       <c r="I42" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>62</v>
-      </c>
-      <c r="B43">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43" s="1">
         <v>5</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="1">
         <v>8</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="G43" t="s">
+        <v>419</v>
+      </c>
+      <c r="H43" t="s">
+        <v>420</v>
+      </c>
       <c r="I43" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>62</v>
-      </c>
-      <c r="B44">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B44" s="1">
         <v>5</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="1">
         <v>9</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="G44" t="s">
+        <v>421</v>
+      </c>
+      <c r="H44" t="s">
+        <v>422</v>
+      </c>
       <c r="I44" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>62</v>
-      </c>
-      <c r="B45">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B45" s="1">
         <v>5</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="1">
         <v>10</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="1" t="s">
         <v>75</v>
       </c>
+      <c r="G45" t="s">
+        <v>423</v>
+      </c>
+      <c r="H45" t="s">
+        <v>424</v>
+      </c>
       <c r="I45" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>62</v>
-      </c>
-      <c r="B46">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B46" s="1">
         <v>5</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="1">
         <v>11</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="1" t="s">
         <v>76</v>
       </c>
+      <c r="G46" t="s">
+        <v>425</v>
+      </c>
+      <c r="H46" t="s">
+        <v>426</v>
+      </c>
       <c r="I46" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>62</v>
-      </c>
-      <c r="B47">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B47" s="1">
         <v>5</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="1">
         <v>12</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" s="1" t="s">
         <v>77</v>
       </c>
+      <c r="G47" t="s">
+        <v>427</v>
+      </c>
+      <c r="H47" t="s">
+        <v>428</v>
+      </c>
       <c r="I47" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>62</v>
-      </c>
-      <c r="B48">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B48" s="1">
         <v>5</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="1">
         <v>13</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="1" t="s">
         <v>78</v>
       </c>
+      <c r="G48" t="s">
+        <v>429</v>
+      </c>
+      <c r="H48" t="s">
+        <v>430</v>
+      </c>
       <c r="I48" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>62</v>
-      </c>
-      <c r="B49">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B49" s="1">
         <v>5</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="1">
         <v>14</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" s="1" t="s">
         <v>79</v>
       </c>
+      <c r="G49" t="s">
+        <v>431</v>
+      </c>
+      <c r="H49" t="s">
+        <v>432</v>
+      </c>
       <c r="I49" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>62</v>
-      </c>
-      <c r="B50">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B50" s="1">
         <v>5</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="1">
         <v>15</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" s="1" t="s">
         <v>80</v>
       </c>
+      <c r="G50" t="s">
+        <v>433</v>
+      </c>
+      <c r="H50" t="s">
+        <v>434</v>
+      </c>
       <c r="I50" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>62</v>
-      </c>
-      <c r="B51">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B51" s="1">
         <v>5</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="1">
         <v>16</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" s="1" t="s">
         <v>81</v>
       </c>
+      <c r="G51" t="s">
+        <v>435</v>
+      </c>
+      <c r="H51" t="s">
+        <v>436</v>
+      </c>
       <c r="I51" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>62</v>
       </c>
@@ -3017,11 +4978,17 @@
       <c r="F52" t="s">
         <v>84</v>
       </c>
+      <c r="G52" t="s">
+        <v>437</v>
+      </c>
+      <c r="H52" t="s">
+        <v>438</v>
+      </c>
       <c r="I52" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>62</v>
       </c>
@@ -3040,11 +5007,17 @@
       <c r="F53" t="s">
         <v>85</v>
       </c>
+      <c r="G53" t="s">
+        <v>439</v>
+      </c>
+      <c r="H53" t="s">
+        <v>440</v>
+      </c>
       <c r="I53" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>62</v>
       </c>
@@ -3063,11 +5036,17 @@
       <c r="F54" t="s">
         <v>86</v>
       </c>
+      <c r="G54" t="s">
+        <v>441</v>
+      </c>
+      <c r="H54" t="s">
+        <v>442</v>
+      </c>
       <c r="I54" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>62</v>
       </c>
@@ -3086,11 +5065,17 @@
       <c r="F55" t="s">
         <v>87</v>
       </c>
+      <c r="G55" t="s">
+        <v>443</v>
+      </c>
+      <c r="H55" t="s">
+        <v>445</v>
+      </c>
       <c r="I55" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>62</v>
       </c>
@@ -3109,11 +5094,17 @@
       <c r="F56" t="s">
         <v>88</v>
       </c>
+      <c r="G56" t="s">
+        <v>444</v>
+      </c>
+      <c r="H56" t="s">
+        <v>446</v>
+      </c>
       <c r="I56" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>62</v>
       </c>
@@ -3132,11 +5123,17 @@
       <c r="F57" t="s">
         <v>89</v>
       </c>
+      <c r="G57" t="s">
+        <v>447</v>
+      </c>
+      <c r="H57" t="s">
+        <v>448</v>
+      </c>
       <c r="I57" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>62</v>
       </c>
@@ -3155,11 +5152,17 @@
       <c r="F58" t="s">
         <v>90</v>
       </c>
+      <c r="G58" t="s">
+        <v>449</v>
+      </c>
+      <c r="H58" t="s">
+        <v>450</v>
+      </c>
       <c r="I58" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>62</v>
       </c>
@@ -3178,195 +5181,249 @@
       <c r="F59" t="s">
         <v>91</v>
       </c>
+      <c r="G59" t="s">
+        <v>451</v>
+      </c>
+      <c r="H59" t="s">
+        <v>453</v>
+      </c>
       <c r="I59" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>62</v>
-      </c>
-      <c r="B60">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B60" s="1">
         <v>7</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="1">
         <v>9</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F60" s="1" t="s">
         <v>94</v>
       </c>
+      <c r="G60" t="s">
+        <v>452</v>
+      </c>
+      <c r="H60" t="s">
+        <v>454</v>
+      </c>
       <c r="I60" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>62</v>
-      </c>
-      <c r="B61">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" s="1">
         <v>7</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="1">
         <v>10</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F61" s="1" t="s">
         <v>95</v>
       </c>
+      <c r="G61" t="s">
+        <v>455</v>
+      </c>
+      <c r="H61" t="s">
+        <v>456</v>
+      </c>
       <c r="I61" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>62</v>
-      </c>
-      <c r="B62">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62" s="1">
         <v>7</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="1">
         <v>11</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F62" s="1" t="s">
         <v>96</v>
       </c>
+      <c r="G62" t="s">
+        <v>457</v>
+      </c>
+      <c r="H62" t="s">
+        <v>458</v>
+      </c>
       <c r="I62" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>62</v>
-      </c>
-      <c r="B63">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1">
         <v>7</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="1">
         <v>12</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F63" s="1" t="s">
         <v>97</v>
       </c>
+      <c r="G63" t="s">
+        <v>459</v>
+      </c>
+      <c r="H63" t="s">
+        <v>460</v>
+      </c>
       <c r="I63" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>62</v>
-      </c>
-      <c r="B64">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A64" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B64" s="1">
         <v>7</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="1">
         <v>13</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F64" s="1" t="s">
         <v>98</v>
       </c>
+      <c r="G64" t="s">
+        <v>461</v>
+      </c>
+      <c r="H64" t="s">
+        <v>462</v>
+      </c>
       <c r="I64" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>62</v>
-      </c>
-      <c r="B65">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B65" s="1">
         <v>7</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="1">
         <v>14</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F65" s="1" t="s">
         <v>99</v>
       </c>
+      <c r="G65" t="s">
+        <v>463</v>
+      </c>
+      <c r="H65" t="s">
+        <v>464</v>
+      </c>
       <c r="I65" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>62</v>
-      </c>
-      <c r="B66">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A66" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B66" s="1">
         <v>7</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="1">
         <v>15</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F66" s="1" t="s">
         <v>100</v>
       </c>
+      <c r="G66" t="s">
+        <v>465</v>
+      </c>
+      <c r="H66" t="s">
+        <v>466</v>
+      </c>
       <c r="I66" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>62</v>
-      </c>
-      <c r="B67">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A67" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B67" s="1">
         <v>7</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="1">
         <v>16</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F67" s="1" t="s">
         <v>101</v>
       </c>
+      <c r="G67" t="s">
+        <v>467</v>
+      </c>
+      <c r="H67" t="s">
+        <v>468</v>
+      </c>
       <c r="I67" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>62</v>
       </c>
@@ -3385,11 +5442,17 @@
       <c r="F68" t="s">
         <v>104</v>
       </c>
+      <c r="G68" t="s">
+        <v>469</v>
+      </c>
+      <c r="H68" t="s">
+        <v>470</v>
+      </c>
       <c r="I68" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>62</v>
       </c>
@@ -3408,11 +5471,17 @@
       <c r="F69" t="s">
         <v>105</v>
       </c>
+      <c r="G69" t="s">
+        <v>471</v>
+      </c>
+      <c r="H69" t="s">
+        <v>472</v>
+      </c>
       <c r="I69" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>62</v>
       </c>
@@ -3431,11 +5500,17 @@
       <c r="F70" t="s">
         <v>106</v>
       </c>
+      <c r="G70" t="s">
+        <v>473</v>
+      </c>
+      <c r="H70" t="s">
+        <v>474</v>
+      </c>
       <c r="I70" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>62</v>
       </c>
@@ -3454,11 +5529,17 @@
       <c r="F71" t="s">
         <v>107</v>
       </c>
+      <c r="G71" t="s">
+        <v>475</v>
+      </c>
+      <c r="H71" t="s">
+        <v>476</v>
+      </c>
       <c r="I71" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>62</v>
       </c>
@@ -3477,11 +5558,17 @@
       <c r="F72" t="s">
         <v>108</v>
       </c>
+      <c r="G72" t="s">
+        <v>477</v>
+      </c>
+      <c r="H72" t="s">
+        <v>478</v>
+      </c>
       <c r="I72" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>62</v>
       </c>
@@ -3500,11 +5587,17 @@
       <c r="F73" t="s">
         <v>109</v>
       </c>
+      <c r="G73" t="s">
+        <v>479</v>
+      </c>
+      <c r="H73" t="s">
+        <v>480</v>
+      </c>
       <c r="I73" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>62</v>
       </c>
@@ -3523,172 +5616,220 @@
       <c r="F74" t="s">
         <v>110</v>
       </c>
+      <c r="G74" t="s">
+        <v>481</v>
+      </c>
+      <c r="H74" t="s">
+        <v>482</v>
+      </c>
       <c r="I74" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>62</v>
-      </c>
-      <c r="B75">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A75" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B75" s="1">
         <v>9</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="1">
         <v>10</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F75" s="1" t="s">
         <v>113</v>
       </c>
+      <c r="G75" t="s">
+        <v>483</v>
+      </c>
+      <c r="H75" t="s">
+        <v>484</v>
+      </c>
       <c r="I75" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>62</v>
-      </c>
-      <c r="B76">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A76" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B76" s="1">
         <v>9</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="1">
         <v>11</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F76" s="1" t="s">
         <v>114</v>
       </c>
+      <c r="G76" t="s">
+        <v>485</v>
+      </c>
+      <c r="H76" t="s">
+        <v>486</v>
+      </c>
       <c r="I76" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>62</v>
-      </c>
-      <c r="B77">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A77" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B77" s="1">
         <v>9</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E77">
+      <c r="E77" s="1">
         <v>12</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F77" s="1" t="s">
         <v>115</v>
       </c>
+      <c r="G77" t="s">
+        <v>487</v>
+      </c>
+      <c r="H77" t="s">
+        <v>488</v>
+      </c>
       <c r="I77" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>62</v>
-      </c>
-      <c r="B78">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A78" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B78" s="1">
         <v>9</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E78">
+      <c r="E78" s="1">
         <v>13</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F78" s="1" t="s">
         <v>116</v>
       </c>
+      <c r="G78" t="s">
+        <v>489</v>
+      </c>
+      <c r="H78" t="s">
+        <v>490</v>
+      </c>
       <c r="I78" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>62</v>
-      </c>
-      <c r="B79">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A79" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B79" s="1">
         <v>9</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E79">
+      <c r="E79" s="1">
         <v>14</v>
       </c>
-      <c r="F79" t="s">
+      <c r="F79" s="1" t="s">
         <v>117</v>
       </c>
+      <c r="G79" t="s">
+        <v>491</v>
+      </c>
+      <c r="H79" t="s">
+        <v>492</v>
+      </c>
       <c r="I79" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>62</v>
-      </c>
-      <c r="B80">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A80" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B80" s="1">
         <v>9</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E80">
+      <c r="E80" s="1">
         <v>15</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F80" s="1" t="s">
         <v>118</v>
       </c>
+      <c r="G80" t="s">
+        <v>493</v>
+      </c>
+      <c r="H80" t="s">
+        <v>494</v>
+      </c>
       <c r="I80" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>62</v>
-      </c>
-      <c r="B81">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A81" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B81" s="1">
         <v>9</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E81">
+      <c r="E81" s="1">
         <v>16</v>
       </c>
-      <c r="F81" t="s">
+      <c r="F81" s="1" t="s">
         <v>119</v>
       </c>
+      <c r="G81" t="s">
+        <v>495</v>
+      </c>
+      <c r="H81" t="s">
+        <v>496</v>
+      </c>
       <c r="I81" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>62</v>
       </c>
@@ -3707,11 +5848,17 @@
       <c r="F82" t="s">
         <v>122</v>
       </c>
+      <c r="G82" t="s">
+        <v>497</v>
+      </c>
+      <c r="H82" t="s">
+        <v>498</v>
+      </c>
       <c r="I82" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>62</v>
       </c>
@@ -3730,11 +5877,17 @@
       <c r="F83" t="s">
         <v>123</v>
       </c>
+      <c r="G83" t="s">
+        <v>499</v>
+      </c>
+      <c r="H83" t="s">
+        <v>500</v>
+      </c>
       <c r="I83" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>62</v>
       </c>
@@ -3753,11 +5906,17 @@
       <c r="F84" t="s">
         <v>124</v>
       </c>
+      <c r="G84" t="s">
+        <v>501</v>
+      </c>
+      <c r="H84" t="s">
+        <v>502</v>
+      </c>
       <c r="I84" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>62</v>
       </c>
@@ -3776,11 +5935,17 @@
       <c r="F85" t="s">
         <v>125</v>
       </c>
+      <c r="G85" t="s">
+        <v>503</v>
+      </c>
+      <c r="H85" t="s">
+        <v>504</v>
+      </c>
       <c r="I85" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>62</v>
       </c>
@@ -3799,11 +5964,17 @@
       <c r="F86" t="s">
         <v>126</v>
       </c>
+      <c r="G86" t="s">
+        <v>505</v>
+      </c>
+      <c r="H86" t="s">
+        <v>506</v>
+      </c>
       <c r="I86" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>62</v>
       </c>
@@ -3822,11 +5993,17 @@
       <c r="F87" t="s">
         <v>127</v>
       </c>
+      <c r="G87" t="s">
+        <v>507</v>
+      </c>
+      <c r="H87" t="s">
+        <v>511</v>
+      </c>
       <c r="I87" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>62</v>
       </c>
@@ -3845,494 +6022,626 @@
       <c r="F88" t="s">
         <v>128</v>
       </c>
+      <c r="G88" t="s">
+        <v>512</v>
+      </c>
+      <c r="H88" t="s">
+        <v>513</v>
+      </c>
       <c r="I88" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>62</v>
-      </c>
-      <c r="B89">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A89" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B89" s="2">
         <v>10</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D89" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E89">
+      <c r="E89" s="2">
         <v>10</v>
       </c>
-      <c r="F89" t="s">
+      <c r="F89" s="2" t="s">
         <v>130</v>
       </c>
+      <c r="G89" t="s">
+        <v>514</v>
+      </c>
+      <c r="H89" t="s">
+        <v>515</v>
+      </c>
       <c r="I89" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>62</v>
-      </c>
-      <c r="B90">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A90" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B90" s="2">
         <v>10</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E90">
+      <c r="E90" s="2">
         <v>11</v>
       </c>
-      <c r="F90" t="s">
+      <c r="F90" s="2" t="s">
         <v>131</v>
       </c>
+      <c r="G90" t="s">
+        <v>516</v>
+      </c>
+      <c r="H90" t="s">
+        <v>517</v>
+      </c>
       <c r="I90" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>62</v>
-      </c>
-      <c r="B91">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A91" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B91" s="2">
         <v>10</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D91" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E91">
+      <c r="E91" s="2">
         <v>12</v>
       </c>
-      <c r="F91" t="s">
+      <c r="F91" s="2" t="s">
         <v>132</v>
       </c>
+      <c r="G91" t="s">
+        <v>518</v>
+      </c>
+      <c r="H91" t="s">
+        <v>519</v>
+      </c>
       <c r="I91" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>62</v>
-      </c>
-      <c r="B92">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A92" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B92" s="2">
         <v>10</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E92">
+      <c r="E92" s="2">
         <v>13</v>
       </c>
-      <c r="F92" t="s">
+      <c r="F92" s="2" t="s">
         <v>133</v>
       </c>
+      <c r="G92" t="s">
+        <v>520</v>
+      </c>
+      <c r="H92" t="s">
+        <v>521</v>
+      </c>
       <c r="I92" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>62</v>
-      </c>
-      <c r="B93">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A93" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B93" s="2">
         <v>10</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D93" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E93">
+      <c r="E93" s="2">
         <v>14</v>
       </c>
-      <c r="F93" t="s">
+      <c r="F93" s="2" t="s">
         <v>134</v>
       </c>
+      <c r="G93" t="s">
+        <v>522</v>
+      </c>
+      <c r="H93" t="s">
+        <v>523</v>
+      </c>
       <c r="I93" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>62</v>
-      </c>
-      <c r="B94">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A94" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B94" s="2">
         <v>10</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D94" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E94">
+      <c r="E94" s="2">
         <v>15</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F94" s="2" t="s">
         <v>135</v>
       </c>
+      <c r="G94" t="s">
+        <v>524</v>
+      </c>
+      <c r="H94" t="s">
+        <v>525</v>
+      </c>
       <c r="I94" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>62</v>
-      </c>
-      <c r="B95">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A95" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B95" s="2">
         <v>10</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D95" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E95">
+      <c r="E95" s="2">
         <v>16</v>
       </c>
-      <c r="F95" t="s">
+      <c r="F95" s="2" t="s">
         <v>136</v>
       </c>
+      <c r="G95" t="s">
+        <v>526</v>
+      </c>
+      <c r="H95" t="s">
+        <v>527</v>
+      </c>
       <c r="I95" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>62</v>
-      </c>
-      <c r="B96">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A96" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B96" s="1">
         <v>11</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D96" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E96">
+      <c r="E96" s="1">
         <v>10</v>
       </c>
-      <c r="F96" t="s">
+      <c r="F96" s="1" t="s">
         <v>139</v>
       </c>
+      <c r="G96" t="s">
+        <v>528</v>
+      </c>
+      <c r="H96" t="s">
+        <v>529</v>
+      </c>
       <c r="I96" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>62</v>
-      </c>
-      <c r="B97">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A97" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B97" s="1">
         <v>11</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D97" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E97">
+      <c r="E97" s="1">
         <v>11</v>
       </c>
-      <c r="F97" t="s">
+      <c r="F97" s="1" t="s">
         <v>140</v>
       </c>
+      <c r="G97" t="s">
+        <v>530</v>
+      </c>
+      <c r="H97" t="s">
+        <v>531</v>
+      </c>
       <c r="I97" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>62</v>
-      </c>
-      <c r="B98">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A98" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B98" s="1">
         <v>11</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D98" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E98">
+      <c r="E98" s="1">
         <v>12</v>
       </c>
-      <c r="F98" t="s">
+      <c r="F98" s="1" t="s">
         <v>141</v>
       </c>
+      <c r="G98" t="s">
+        <v>532</v>
+      </c>
+      <c r="H98" t="s">
+        <v>533</v>
+      </c>
       <c r="I98" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>62</v>
-      </c>
-      <c r="B99">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A99" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B99" s="1">
         <v>11</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D99" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E99">
+      <c r="E99" s="1">
         <v>13</v>
       </c>
-      <c r="F99" t="s">
+      <c r="F99" s="1" t="s">
         <v>142</v>
       </c>
+      <c r="G99" t="s">
+        <v>534</v>
+      </c>
+      <c r="H99" t="s">
+        <v>535</v>
+      </c>
       <c r="I99" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>62</v>
-      </c>
-      <c r="B100">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A100" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B100" s="1">
         <v>11</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D100" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E100">
+      <c r="E100" s="1">
         <v>14</v>
       </c>
-      <c r="F100" t="s">
+      <c r="F100" s="1" t="s">
         <v>143</v>
       </c>
+      <c r="G100" t="s">
+        <v>536</v>
+      </c>
+      <c r="H100" t="s">
+        <v>537</v>
+      </c>
       <c r="I100" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>62</v>
-      </c>
-      <c r="B101">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A101" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B101" s="1">
         <v>11</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D101" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E101">
+      <c r="E101" s="1">
         <v>15</v>
       </c>
-      <c r="F101" t="s">
+      <c r="F101" s="1" t="s">
         <v>144</v>
       </c>
+      <c r="G101" t="s">
+        <v>538</v>
+      </c>
+      <c r="H101" t="s">
+        <v>508</v>
+      </c>
       <c r="I101" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>62</v>
-      </c>
-      <c r="B102">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A102" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B102" s="1">
         <v>11</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D102" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E102">
+      <c r="E102" s="1">
         <v>16</v>
       </c>
-      <c r="F102" t="s">
+      <c r="F102" s="1" t="s">
         <v>145</v>
       </c>
+      <c r="G102" t="s">
+        <v>509</v>
+      </c>
+      <c r="H102" t="s">
+        <v>510</v>
+      </c>
       <c r="I102" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>62</v>
-      </c>
-      <c r="B103">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A103" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B103" s="1">
         <v>11</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D103" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E103">
+      <c r="E103" s="1">
         <v>10</v>
       </c>
-      <c r="F103" t="s">
+      <c r="F103" s="1" t="s">
         <v>147</v>
       </c>
+      <c r="G103" t="s">
+        <v>539</v>
+      </c>
+      <c r="H103" t="s">
+        <v>540</v>
+      </c>
       <c r="I103" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>62</v>
-      </c>
-      <c r="B104">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A104" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B104" s="1">
         <v>11</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D104" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E104">
+      <c r="E104" s="1">
         <v>11</v>
       </c>
-      <c r="F104" t="s">
+      <c r="F104" s="1" t="s">
         <v>148</v>
       </c>
+      <c r="G104" t="s">
+        <v>541</v>
+      </c>
+      <c r="H104" t="s">
+        <v>542</v>
+      </c>
       <c r="I104" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>62</v>
-      </c>
-      <c r="B105">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A105" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B105" s="1">
         <v>11</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D105" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E105">
+      <c r="E105" s="1">
         <v>12</v>
       </c>
-      <c r="F105" t="s">
+      <c r="F105" s="1" t="s">
         <v>149</v>
       </c>
+      <c r="G105" t="s">
+        <v>543</v>
+      </c>
+      <c r="H105" t="s">
+        <v>544</v>
+      </c>
       <c r="I105" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>62</v>
-      </c>
-      <c r="B106">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A106" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B106" s="1">
         <v>11</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D106" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E106">
+      <c r="E106" s="1">
         <v>13</v>
       </c>
-      <c r="F106" t="s">
+      <c r="F106" s="1" t="s">
         <v>150</v>
       </c>
+      <c r="G106" t="s">
+        <v>545</v>
+      </c>
+      <c r="H106" t="s">
+        <v>546</v>
+      </c>
       <c r="I106" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>62</v>
-      </c>
-      <c r="B107">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A107" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B107" s="1">
         <v>11</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D107" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E107">
+      <c r="E107" s="1">
         <v>14</v>
       </c>
-      <c r="F107" t="s">
+      <c r="F107" s="1" t="s">
         <v>151</v>
       </c>
+      <c r="G107" t="s">
+        <v>547</v>
+      </c>
+      <c r="H107" t="s">
+        <v>548</v>
+      </c>
       <c r="I107" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>62</v>
-      </c>
-      <c r="B108">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A108" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B108" s="1">
         <v>11</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D108" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E108">
+      <c r="E108" s="1">
         <v>15</v>
       </c>
-      <c r="F108" t="s">
+      <c r="F108" s="1" t="s">
         <v>152</v>
       </c>
+      <c r="G108" t="s">
+        <v>549</v>
+      </c>
+      <c r="H108" t="s">
+        <v>550</v>
+      </c>
       <c r="I108" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>62</v>
-      </c>
-      <c r="B109">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A109" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B109" s="1">
         <v>11</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C109" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D109" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E109">
+      <c r="E109" s="1">
         <v>16</v>
       </c>
-      <c r="F109" t="s">
+      <c r="F109" s="1" t="s">
         <v>153</v>
       </c>
+      <c r="G109" t="s">
+        <v>551</v>
+      </c>
+      <c r="H109" t="s">
+        <v>552</v>
+      </c>
       <c r="I109" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>62</v>
       </c>
@@ -4351,11 +6660,17 @@
       <c r="F110" t="s">
         <v>156</v>
       </c>
+      <c r="G110" t="s">
+        <v>553</v>
+      </c>
+      <c r="H110" t="s">
+        <v>554</v>
+      </c>
       <c r="I110" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>62</v>
       </c>
@@ -4374,11 +6689,17 @@
       <c r="F111" t="s">
         <v>157</v>
       </c>
+      <c r="G111" t="s">
+        <v>555</v>
+      </c>
+      <c r="H111" t="s">
+        <v>556</v>
+      </c>
       <c r="I111" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>62</v>
       </c>
@@ -4397,11 +6718,17 @@
       <c r="F112" t="s">
         <v>158</v>
       </c>
+      <c r="G112" t="s">
+        <v>557</v>
+      </c>
+      <c r="H112" t="s">
+        <v>558</v>
+      </c>
       <c r="I112" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>62</v>
       </c>
@@ -4420,11 +6747,17 @@
       <c r="F113" t="s">
         <v>159</v>
       </c>
+      <c r="G113" t="s">
+        <v>559</v>
+      </c>
+      <c r="H113" t="s">
+        <v>560</v>
+      </c>
       <c r="I113" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>62</v>
       </c>
@@ -4443,11 +6776,17 @@
       <c r="F114" t="s">
         <v>160</v>
       </c>
+      <c r="G114" t="s">
+        <v>561</v>
+      </c>
+      <c r="H114" t="s">
+        <v>562</v>
+      </c>
       <c r="I114" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>62</v>
       </c>
@@ -4466,11 +6805,17 @@
       <c r="F115" t="s">
         <v>161</v>
       </c>
+      <c r="G115" t="s">
+        <v>563</v>
+      </c>
+      <c r="H115" t="s">
+        <v>564</v>
+      </c>
       <c r="I115" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>62</v>
       </c>
@@ -4489,11 +6834,17 @@
       <c r="F116" t="s">
         <v>162</v>
       </c>
+      <c r="G116" t="s">
+        <v>565</v>
+      </c>
+      <c r="H116" t="s">
+        <v>566</v>
+      </c>
       <c r="I116" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>62</v>
       </c>
@@ -4512,11 +6863,17 @@
       <c r="F117" t="s">
         <v>164</v>
       </c>
+      <c r="G117" t="s">
+        <v>567</v>
+      </c>
+      <c r="H117" t="s">
+        <v>568</v>
+      </c>
       <c r="I117" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>62</v>
       </c>
@@ -4535,11 +6892,17 @@
       <c r="F118" t="s">
         <v>165</v>
       </c>
+      <c r="G118" t="s">
+        <v>569</v>
+      </c>
+      <c r="H118" t="s">
+        <v>570</v>
+      </c>
       <c r="I118" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>62</v>
       </c>
@@ -4558,11 +6921,17 @@
       <c r="F119" t="s">
         <v>166</v>
       </c>
+      <c r="G119" t="s">
+        <v>571</v>
+      </c>
+      <c r="H119" t="s">
+        <v>572</v>
+      </c>
       <c r="I119" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>62</v>
       </c>
@@ -4581,11 +6950,17 @@
       <c r="F120" t="s">
         <v>167</v>
       </c>
+      <c r="G120" t="s">
+        <v>573</v>
+      </c>
+      <c r="H120" t="s">
+        <v>574</v>
+      </c>
       <c r="I120" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>62</v>
       </c>
@@ -4604,11 +6979,17 @@
       <c r="F121" t="s">
         <v>168</v>
       </c>
+      <c r="G121" t="s">
+        <v>575</v>
+      </c>
+      <c r="H121" t="s">
+        <v>576</v>
+      </c>
       <c r="I121" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>62</v>
       </c>
@@ -4627,11 +7008,17 @@
       <c r="F122" t="s">
         <v>169</v>
       </c>
+      <c r="G122" t="s">
+        <v>577</v>
+      </c>
+      <c r="H122" t="s">
+        <v>578</v>
+      </c>
       <c r="I122" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>62</v>
       </c>
@@ -4650,55 +7037,76 @@
       <c r="F123" t="s">
         <v>170</v>
       </c>
+      <c r="G123" t="s">
+        <v>579</v>
+      </c>
+      <c r="H123" t="s">
+        <v>580</v>
+      </c>
       <c r="I123" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>62</v>
-      </c>
-      <c r="B124">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A124" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B124" s="1">
         <v>13</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C124" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D124" t="s">
+      <c r="D124" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="E124">
+      <c r="E124" s="1">
         <v>9</v>
       </c>
-      <c r="F124" t="s">
+      <c r="F124" s="1" t="s">
         <v>173</v>
       </c>
+      <c r="G124" t="s">
+        <v>581</v>
+      </c>
+      <c r="H124" t="s">
+        <v>582</v>
+      </c>
       <c r="I124" t="s">
         <v>66</v>
       </c>
       <c r="J124" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>62</v>
-      </c>
-      <c r="B125">
+      <c r="K124" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A125" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B125" s="1">
         <v>13</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C125" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D125" t="s">
+      <c r="D125" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="E125">
+      <c r="E125" s="1">
         <v>10</v>
       </c>
-      <c r="F125" t="s">
+      <c r="F125" s="1" t="s">
         <v>174</v>
       </c>
+      <c r="G125" t="s">
+        <v>583</v>
+      </c>
+      <c r="H125" t="s">
+        <v>584</v>
+      </c>
       <c r="I125" t="s">
         <v>66</v>
       </c>
@@ -4706,25 +7114,31 @@
         <v>66</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>62</v>
-      </c>
-      <c r="B126">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A126" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B126" s="1">
         <v>13</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C126" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D126" t="s">
+      <c r="D126" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="E126">
+      <c r="E126" s="1">
         <v>11</v>
       </c>
-      <c r="F126" t="s">
+      <c r="F126" s="1" t="s">
         <v>175</v>
       </c>
+      <c r="G126" t="s">
+        <v>585</v>
+      </c>
+      <c r="H126" t="s">
+        <v>586</v>
+      </c>
       <c r="I126" t="s">
         <v>66</v>
       </c>
@@ -4732,25 +7146,31 @@
         <v>66</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>62</v>
-      </c>
-      <c r="B127">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A127" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B127" s="1">
         <v>13</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C127" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D127" t="s">
+      <c r="D127" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="E127">
+      <c r="E127" s="1">
         <v>12</v>
       </c>
-      <c r="F127" t="s">
+      <c r="F127" s="1" t="s">
         <v>176</v>
       </c>
+      <c r="G127" t="s">
+        <v>587</v>
+      </c>
+      <c r="H127" t="s">
+        <v>588</v>
+      </c>
       <c r="I127" t="s">
         <v>66</v>
       </c>
@@ -4758,25 +7178,31 @@
         <v>66</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>62</v>
-      </c>
-      <c r="B128">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A128" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B128" s="1">
         <v>13</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C128" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D128" t="s">
+      <c r="D128" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="E128">
+      <c r="E128" s="1">
         <v>13</v>
       </c>
-      <c r="F128" t="s">
+      <c r="F128" s="1" t="s">
         <v>177</v>
       </c>
+      <c r="G128" t="s">
+        <v>589</v>
+      </c>
+      <c r="H128" t="s">
+        <v>590</v>
+      </c>
       <c r="I128" t="s">
         <v>66</v>
       </c>
@@ -4784,25 +7210,31 @@
         <v>66</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>62</v>
-      </c>
-      <c r="B129">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A129" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B129" s="1">
         <v>13</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C129" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D129" t="s">
+      <c r="D129" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="E129">
+      <c r="E129" s="1">
         <v>14</v>
       </c>
-      <c r="F129" t="s">
+      <c r="F129" s="1" t="s">
         <v>178</v>
       </c>
+      <c r="G129" t="s">
+        <v>591</v>
+      </c>
+      <c r="H129" t="s">
+        <v>593</v>
+      </c>
       <c r="I129" t="s">
         <v>66</v>
       </c>
@@ -4810,25 +7242,31 @@
         <v>66</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>62</v>
-      </c>
-      <c r="B130">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A130" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B130" s="1">
         <v>13</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C130" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D130" t="s">
+      <c r="D130" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="E130">
+      <c r="E130" s="1">
         <v>15</v>
       </c>
-      <c r="F130" t="s">
+      <c r="F130" s="1" t="s">
         <v>179</v>
       </c>
+      <c r="G130" t="s">
+        <v>594</v>
+      </c>
+      <c r="H130" t="s">
+        <v>595</v>
+      </c>
       <c r="I130" t="s">
         <v>66</v>
       </c>
@@ -4836,25 +7274,31 @@
         <v>66</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>62</v>
-      </c>
-      <c r="B131">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A131" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B131" s="1">
         <v>13</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C131" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D131" t="s">
+      <c r="D131" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="E131">
+      <c r="E131" s="1">
         <v>16</v>
       </c>
-      <c r="F131" t="s">
+      <c r="F131" s="1" t="s">
         <v>180</v>
       </c>
+      <c r="G131" t="s">
+        <v>596</v>
+      </c>
+      <c r="H131" t="s">
+        <v>597</v>
+      </c>
       <c r="I131" t="s">
         <v>66</v>
       </c>
@@ -4862,25 +7306,31 @@
         <v>66</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>62</v>
-      </c>
-      <c r="B132">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A132" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B132" s="1">
         <v>13</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C132" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D132" t="s">
+      <c r="D132" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="E132">
+      <c r="E132" s="1">
         <v>8</v>
       </c>
-      <c r="F132" t="s">
+      <c r="F132" s="1" t="s">
         <v>182</v>
       </c>
+      <c r="G132" t="s">
+        <v>598</v>
+      </c>
+      <c r="H132" t="s">
+        <v>599</v>
+      </c>
       <c r="I132" t="s">
         <v>66</v>
       </c>
@@ -4888,25 +7338,31 @@
         <v>66</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>62</v>
-      </c>
-      <c r="B133">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A133" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B133" s="1">
         <v>13</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C133" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D133" t="s">
+      <c r="D133" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="E133">
+      <c r="E133" s="1">
         <v>9</v>
       </c>
-      <c r="F133" t="s">
+      <c r="F133" s="1" t="s">
         <v>183</v>
       </c>
+      <c r="G133" t="s">
+        <v>600</v>
+      </c>
+      <c r="H133" t="s">
+        <v>601</v>
+      </c>
       <c r="I133" t="s">
         <v>66</v>
       </c>
@@ -4914,25 +7370,31 @@
         <v>66</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>62</v>
-      </c>
-      <c r="B134">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A134" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B134" s="1">
         <v>13</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C134" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D134" t="s">
+      <c r="D134" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="E134">
+      <c r="E134" s="1">
         <v>10</v>
       </c>
-      <c r="F134" t="s">
+      <c r="F134" s="1" t="s">
         <v>184</v>
       </c>
+      <c r="G134" t="s">
+        <v>602</v>
+      </c>
+      <c r="H134" t="s">
+        <v>603</v>
+      </c>
       <c r="I134" t="s">
         <v>66</v>
       </c>
@@ -4940,25 +7402,31 @@
         <v>66</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>62</v>
-      </c>
-      <c r="B135">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A135" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B135" s="1">
         <v>13</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C135" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D135" t="s">
+      <c r="D135" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="E135">
+      <c r="E135" s="1">
         <v>11</v>
       </c>
-      <c r="F135" t="s">
+      <c r="F135" s="1" t="s">
         <v>185</v>
       </c>
+      <c r="G135" t="s">
+        <v>604</v>
+      </c>
+      <c r="H135" t="s">
+        <v>605</v>
+      </c>
       <c r="I135" t="s">
         <v>66</v>
       </c>
@@ -4966,25 +7434,31 @@
         <v>66</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>62</v>
-      </c>
-      <c r="B136">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A136" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B136" s="1">
         <v>13</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C136" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D136" t="s">
+      <c r="D136" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="E136">
+      <c r="E136" s="1">
         <v>12</v>
       </c>
-      <c r="F136" t="s">
+      <c r="F136" s="1" t="s">
         <v>186</v>
       </c>
+      <c r="G136" t="s">
+        <v>606</v>
+      </c>
+      <c r="H136" t="s">
+        <v>607</v>
+      </c>
       <c r="I136" t="s">
         <v>66</v>
       </c>
@@ -4992,25 +7466,31 @@
         <v>66</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>62</v>
-      </c>
-      <c r="B137">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A137" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B137" s="1">
         <v>13</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C137" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D137" t="s">
+      <c r="D137" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="E137">
+      <c r="E137" s="1">
         <v>13</v>
       </c>
-      <c r="F137" t="s">
+      <c r="F137" s="1" t="s">
         <v>187</v>
       </c>
+      <c r="G137" t="s">
+        <v>608</v>
+      </c>
+      <c r="H137" t="s">
+        <v>609</v>
+      </c>
       <c r="I137" t="s">
         <v>66</v>
       </c>
@@ -5018,76 +7498,94 @@
         <v>66</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>62</v>
-      </c>
-      <c r="B138">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A138" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B138" s="1">
         <v>13</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C138" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D138" t="s">
+      <c r="D138" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="E138">
+      <c r="E138" s="1">
         <v>14</v>
       </c>
-      <c r="F138" t="s">
+      <c r="F138" s="1" t="s">
         <v>188</v>
       </c>
+      <c r="G138" t="s">
+        <v>610</v>
+      </c>
+      <c r="H138" t="s">
+        <v>611</v>
+      </c>
       <c r="I138" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>62</v>
-      </c>
-      <c r="B139">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A139" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B139" s="1">
         <v>13</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C139" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D139" t="s">
+      <c r="D139" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="E139">
+      <c r="E139" s="1">
         <v>15</v>
       </c>
-      <c r="F139" t="s">
+      <c r="F139" s="1" t="s">
         <v>189</v>
       </c>
+      <c r="G139" t="s">
+        <v>612</v>
+      </c>
+      <c r="H139" t="s">
+        <v>613</v>
+      </c>
       <c r="I139" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>62</v>
-      </c>
-      <c r="B140">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A140" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B140" s="1">
         <v>13</v>
       </c>
-      <c r="C140" t="s">
+      <c r="C140" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D140" t="s">
+      <c r="D140" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="E140">
+      <c r="E140" s="1">
         <v>16</v>
       </c>
-      <c r="F140" t="s">
+      <c r="F140" s="1" t="s">
         <v>190</v>
       </c>
+      <c r="G140" t="s">
+        <v>614</v>
+      </c>
+      <c r="H140" t="s">
+        <v>615</v>
+      </c>
       <c r="I140" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>62</v>
       </c>
@@ -5106,11 +7604,17 @@
       <c r="F141" t="s">
         <v>193</v>
       </c>
+      <c r="G141" t="s">
+        <v>616</v>
+      </c>
+      <c r="H141" t="s">
+        <v>617</v>
+      </c>
       <c r="I141" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>62</v>
       </c>
@@ -5129,11 +7633,17 @@
       <c r="F142" t="s">
         <v>194</v>
       </c>
+      <c r="G142" t="s">
+        <v>618</v>
+      </c>
+      <c r="H142" t="s">
+        <v>619</v>
+      </c>
       <c r="I142" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>62</v>
       </c>
@@ -5152,11 +7662,17 @@
       <c r="F143" t="s">
         <v>195</v>
       </c>
+      <c r="G143" t="s">
+        <v>620</v>
+      </c>
+      <c r="H143" t="s">
+        <v>621</v>
+      </c>
       <c r="I143" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>62</v>
       </c>
@@ -5175,11 +7691,17 @@
       <c r="F144" t="s">
         <v>196</v>
       </c>
+      <c r="G144" t="s">
+        <v>622</v>
+      </c>
+      <c r="H144" t="s">
+        <v>623</v>
+      </c>
       <c r="I144" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>62</v>
       </c>
@@ -5198,11 +7720,17 @@
       <c r="F145" t="s">
         <v>197</v>
       </c>
+      <c r="G145" t="s">
+        <v>624</v>
+      </c>
+      <c r="H145" t="s">
+        <v>625</v>
+      </c>
       <c r="I145" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>62</v>
       </c>
@@ -5221,11 +7749,17 @@
       <c r="F146" t="s">
         <v>198</v>
       </c>
+      <c r="G146" t="s">
+        <v>625</v>
+      </c>
+      <c r="H146" t="s">
+        <v>626</v>
+      </c>
       <c r="I146" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>62</v>
       </c>
@@ -5244,11 +7778,17 @@
       <c r="F147" t="s">
         <v>199</v>
       </c>
+      <c r="G147" t="s">
+        <v>626</v>
+      </c>
+      <c r="H147" t="s">
+        <v>627</v>
+      </c>
       <c r="I147" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>62</v>
       </c>
@@ -5267,11 +7807,17 @@
       <c r="F148" t="s">
         <v>200</v>
       </c>
+      <c r="G148" t="s">
+        <v>628</v>
+      </c>
+      <c r="H148" t="s">
+        <v>629</v>
+      </c>
       <c r="I148" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>62</v>
       </c>
@@ -5290,11 +7836,17 @@
       <c r="F149" t="s">
         <v>201</v>
       </c>
+      <c r="G149" t="s">
+        <v>630</v>
+      </c>
+      <c r="H149" t="s">
+        <v>631</v>
+      </c>
       <c r="I149" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>62</v>
       </c>
@@ -5313,11 +7865,17 @@
       <c r="F150" t="s">
         <v>203</v>
       </c>
+      <c r="G150" t="s">
+        <v>632</v>
+      </c>
+      <c r="H150" t="s">
+        <v>633</v>
+      </c>
       <c r="I150" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>62</v>
       </c>
@@ -5336,11 +7894,17 @@
       <c r="F151" t="s">
         <v>204</v>
       </c>
+      <c r="G151" t="s">
+        <v>634</v>
+      </c>
+      <c r="H151" t="s">
+        <v>635</v>
+      </c>
       <c r="I151" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>62</v>
       </c>
@@ -5359,11 +7923,17 @@
       <c r="F152" t="s">
         <v>205</v>
       </c>
+      <c r="G152" t="s">
+        <v>636</v>
+      </c>
+      <c r="H152" t="s">
+        <v>637</v>
+      </c>
       <c r="I152" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>62</v>
       </c>
@@ -5382,11 +7952,17 @@
       <c r="F153" t="s">
         <v>206</v>
       </c>
+      <c r="G153" t="s">
+        <v>638</v>
+      </c>
+      <c r="H153" t="s">
+        <v>639</v>
+      </c>
       <c r="I153" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>62</v>
       </c>
@@ -5405,11 +7981,17 @@
       <c r="F154" t="s">
         <v>207</v>
       </c>
+      <c r="G154" t="s">
+        <v>640</v>
+      </c>
+      <c r="H154" t="s">
+        <v>641</v>
+      </c>
       <c r="I154" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>62</v>
       </c>
@@ -5428,11 +8010,17 @@
       <c r="F155" t="s">
         <v>208</v>
       </c>
+      <c r="G155" t="s">
+        <v>642</v>
+      </c>
+      <c r="H155" t="s">
+        <v>643</v>
+      </c>
       <c r="I155" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>62</v>
       </c>
@@ -5451,11 +8039,17 @@
       <c r="F156" t="s">
         <v>209</v>
       </c>
+      <c r="G156" t="s">
+        <v>644</v>
+      </c>
+      <c r="H156" t="s">
+        <v>645</v>
+      </c>
       <c r="I156" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>62</v>
       </c>
@@ -5474,11 +8068,17 @@
       <c r="F157" t="s">
         <v>210</v>
       </c>
+      <c r="G157" t="s">
+        <v>646</v>
+      </c>
+      <c r="H157" t="s">
+        <v>647</v>
+      </c>
       <c r="I157" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>62</v>
       </c>
@@ -5497,29 +8097,41 @@
       <c r="F158" t="s">
         <v>211</v>
       </c>
+      <c r="G158" t="s">
+        <v>648</v>
+      </c>
+      <c r="H158" t="s">
+        <v>649</v>
+      </c>
       <c r="I158" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>62</v>
-      </c>
-      <c r="B159">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A159" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B159" s="1">
         <v>15</v>
       </c>
-      <c r="C159" t="s">
+      <c r="C159" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D159" t="s">
+      <c r="D159" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="E159">
+      <c r="E159" s="1">
         <v>9</v>
       </c>
-      <c r="F159" t="s">
+      <c r="F159" s="1" t="s">
         <v>214</v>
       </c>
+      <c r="G159" t="s">
+        <v>650</v>
+      </c>
+      <c r="H159" t="s">
+        <v>651</v>
+      </c>
       <c r="I159" t="s">
         <v>66</v>
       </c>
@@ -5527,25 +8139,31 @@
         <v>66</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>62</v>
-      </c>
-      <c r="B160">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A160" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B160" s="1">
         <v>15</v>
       </c>
-      <c r="C160" t="s">
+      <c r="C160" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D160" t="s">
+      <c r="D160" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="E160">
+      <c r="E160" s="1">
         <v>10</v>
       </c>
-      <c r="F160" t="s">
+      <c r="F160" s="1" t="s">
         <v>215</v>
       </c>
+      <c r="G160" t="s">
+        <v>652</v>
+      </c>
+      <c r="H160" t="s">
+        <v>653</v>
+      </c>
       <c r="I160" t="s">
         <v>66</v>
       </c>
@@ -5553,25 +8171,31 @@
         <v>66</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>62</v>
-      </c>
-      <c r="B161">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A161" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B161" s="1">
         <v>15</v>
       </c>
-      <c r="C161" t="s">
+      <c r="C161" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D161" t="s">
+      <c r="D161" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="E161">
+      <c r="E161" s="1">
         <v>11</v>
       </c>
-      <c r="F161" t="s">
+      <c r="F161" s="1" t="s">
         <v>216</v>
       </c>
+      <c r="G161" t="s">
+        <v>654</v>
+      </c>
+      <c r="H161" t="s">
+        <v>655</v>
+      </c>
       <c r="I161" t="s">
         <v>66</v>
       </c>
@@ -5579,25 +8203,31 @@
         <v>66</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>62</v>
-      </c>
-      <c r="B162">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A162" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B162" s="1">
         <v>15</v>
       </c>
-      <c r="C162" t="s">
+      <c r="C162" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D162" t="s">
+      <c r="D162" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="E162">
+      <c r="E162" s="1">
         <v>12</v>
       </c>
-      <c r="F162" t="s">
+      <c r="F162" s="1" t="s">
         <v>217</v>
       </c>
+      <c r="G162" t="s">
+        <v>656</v>
+      </c>
+      <c r="H162" t="s">
+        <v>657</v>
+      </c>
       <c r="I162" t="s">
         <v>66</v>
       </c>
@@ -5605,25 +8235,31 @@
         <v>66</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>62</v>
-      </c>
-      <c r="B163">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A163" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B163" s="1">
         <v>15</v>
       </c>
-      <c r="C163" t="s">
+      <c r="C163" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D163" t="s">
+      <c r="D163" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="E163">
+      <c r="E163" s="1">
         <v>13</v>
       </c>
-      <c r="F163" t="s">
+      <c r="F163" s="1" t="s">
         <v>218</v>
       </c>
+      <c r="G163" t="s">
+        <v>658</v>
+      </c>
+      <c r="H163" t="s">
+        <v>659</v>
+      </c>
       <c r="I163" t="s">
         <v>66</v>
       </c>
@@ -5631,25 +8267,31 @@
         <v>66</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>62</v>
-      </c>
-      <c r="B164">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A164" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B164" s="1">
         <v>15</v>
       </c>
-      <c r="C164" t="s">
+      <c r="C164" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D164" t="s">
+      <c r="D164" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="E164">
+      <c r="E164" s="1">
         <v>14</v>
       </c>
-      <c r="F164" t="s">
+      <c r="F164" s="1" t="s">
         <v>219</v>
       </c>
+      <c r="G164" t="s">
+        <v>660</v>
+      </c>
+      <c r="H164" t="s">
+        <v>661</v>
+      </c>
       <c r="I164" t="s">
         <v>66</v>
       </c>
@@ -5657,25 +8299,31 @@
         <v>66</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>62</v>
-      </c>
-      <c r="B165">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A165" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B165" s="1">
         <v>15</v>
       </c>
-      <c r="C165" t="s">
+      <c r="C165" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D165" t="s">
+      <c r="D165" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="E165">
+      <c r="E165" s="1">
         <v>15</v>
       </c>
-      <c r="F165" t="s">
+      <c r="F165" s="1" t="s">
         <v>220</v>
       </c>
+      <c r="G165" t="s">
+        <v>662</v>
+      </c>
+      <c r="H165" t="s">
+        <v>663</v>
+      </c>
       <c r="I165" t="s">
         <v>66</v>
       </c>
@@ -5683,25 +8331,31 @@
         <v>66</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>62</v>
-      </c>
-      <c r="B166">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A166" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B166" s="1">
         <v>15</v>
       </c>
-      <c r="C166" t="s">
+      <c r="C166" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D166" t="s">
+      <c r="D166" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="E166">
+      <c r="E166" s="1">
         <v>16</v>
       </c>
-      <c r="F166" t="s">
+      <c r="F166" s="1" t="s">
         <v>221</v>
       </c>
+      <c r="G166" t="s">
+        <v>664</v>
+      </c>
+      <c r="H166" t="s">
+        <v>665</v>
+      </c>
       <c r="I166" t="s">
         <v>66</v>
       </c>
@@ -5709,7 +8363,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>62</v>
       </c>
@@ -5728,11 +8382,17 @@
       <c r="F167" t="s">
         <v>224</v>
       </c>
+      <c r="G167" t="s">
+        <v>666</v>
+      </c>
+      <c r="H167" t="s">
+        <v>667</v>
+      </c>
       <c r="I167" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>62</v>
       </c>
@@ -5751,11 +8411,17 @@
       <c r="F168" t="s">
         <v>225</v>
       </c>
+      <c r="G168" t="s">
+        <v>668</v>
+      </c>
+      <c r="H168" t="s">
+        <v>669</v>
+      </c>
       <c r="I168" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>62</v>
       </c>
@@ -5774,11 +8440,17 @@
       <c r="F169" t="s">
         <v>226</v>
       </c>
+      <c r="G169" t="s">
+        <v>670</v>
+      </c>
+      <c r="H169" t="s">
+        <v>671</v>
+      </c>
       <c r="I169" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>62</v>
       </c>
@@ -5797,11 +8469,17 @@
       <c r="F170" t="s">
         <v>227</v>
       </c>
+      <c r="G170" t="s">
+        <v>672</v>
+      </c>
+      <c r="H170" t="s">
+        <v>673</v>
+      </c>
       <c r="I170" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>62</v>
       </c>
@@ -5820,11 +8498,17 @@
       <c r="F171" t="s">
         <v>228</v>
       </c>
+      <c r="G171" t="s">
+        <v>674</v>
+      </c>
+      <c r="H171" t="s">
+        <v>675</v>
+      </c>
       <c r="I171" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>62</v>
       </c>
@@ -5843,11 +8527,17 @@
       <c r="F172" t="s">
         <v>229</v>
       </c>
+      <c r="G172" t="s">
+        <v>676</v>
+      </c>
+      <c r="H172" t="s">
+        <v>677</v>
+      </c>
       <c r="I172" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>62</v>
       </c>
@@ -5866,11 +8556,17 @@
       <c r="F173" t="s">
         <v>230</v>
       </c>
+      <c r="G173" t="s">
+        <v>678</v>
+      </c>
+      <c r="H173" t="s">
+        <v>679</v>
+      </c>
       <c r="I173" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>62</v>
       </c>
@@ -5889,241 +8585,352 @@
       <c r="F174" t="s">
         <v>231</v>
       </c>
+      <c r="G174" t="s">
+        <v>680</v>
+      </c>
+      <c r="H174" t="s">
+        <v>681</v>
+      </c>
       <c r="I174" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>62</v>
-      </c>
-      <c r="B175">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A175" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B175" s="1">
         <v>17</v>
       </c>
-      <c r="C175" t="s">
+      <c r="C175" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="D175" t="s">
+      <c r="D175" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="E175">
+      <c r="E175" s="1">
         <v>9</v>
       </c>
-      <c r="F175" t="s">
+      <c r="F175" s="1" t="s">
         <v>234</v>
       </c>
+      <c r="G175" t="s">
+        <v>682</v>
+      </c>
+      <c r="H175" t="s">
+        <v>683</v>
+      </c>
       <c r="I175" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>62</v>
-      </c>
-      <c r="B176">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A176" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B176" s="1">
         <v>17</v>
       </c>
-      <c r="C176" t="s">
+      <c r="C176" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="D176" t="s">
+      <c r="D176" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="E176">
+      <c r="E176" s="1">
         <v>10</v>
       </c>
-      <c r="F176" t="s">
+      <c r="F176" s="1" t="s">
         <v>235</v>
       </c>
+      <c r="G176" t="s">
+        <v>684</v>
+      </c>
+      <c r="H176" t="s">
+        <v>685</v>
+      </c>
       <c r="I176" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>62</v>
-      </c>
-      <c r="B177">
+      <c r="J176" t="s">
+        <v>690</v>
+      </c>
+      <c r="K176" t="s">
+        <v>691</v>
+      </c>
+      <c r="L176" t="s">
+        <v>692</v>
+      </c>
+      <c r="M176" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A177" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B177" s="1">
         <v>17</v>
       </c>
-      <c r="C177" t="s">
+      <c r="C177" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="D177" t="s">
+      <c r="D177" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="E177">
+      <c r="E177" s="1">
         <v>11</v>
       </c>
-      <c r="F177" t="s">
+      <c r="F177" s="1" t="s">
         <v>236</v>
       </c>
+      <c r="G177" t="s">
+        <v>686</v>
+      </c>
+      <c r="H177" t="s">
+        <v>687</v>
+      </c>
       <c r="I177" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>62</v>
-      </c>
-      <c r="B178">
+      <c r="J177" t="s">
+        <v>690</v>
+      </c>
+      <c r="K177" t="s">
+        <v>694</v>
+      </c>
+      <c r="L177" t="s">
+        <v>692</v>
+      </c>
+      <c r="M177" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A178" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B178" s="1">
         <v>17</v>
       </c>
-      <c r="C178" t="s">
+      <c r="C178" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="D178" t="s">
+      <c r="D178" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="E178">
+      <c r="E178" s="1">
         <v>12</v>
       </c>
-      <c r="F178" t="s">
+      <c r="F178" s="1" t="s">
         <v>237</v>
       </c>
+      <c r="G178" t="s">
+        <v>688</v>
+      </c>
+      <c r="H178" t="s">
+        <v>689</v>
+      </c>
       <c r="I178" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>62</v>
-      </c>
-      <c r="B179">
+      <c r="J178" t="s">
+        <v>690</v>
+      </c>
+      <c r="K178" t="s">
+        <v>696</v>
+      </c>
+      <c r="L178" t="s">
+        <v>692</v>
+      </c>
+      <c r="M178" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A179" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B179" s="1">
         <v>17</v>
       </c>
-      <c r="C179" t="s">
+      <c r="C179" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="D179" t="s">
+      <c r="D179" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="E179">
+      <c r="E179" s="1">
         <v>13</v>
       </c>
-      <c r="F179" t="s">
+      <c r="F179" s="1" t="s">
         <v>238</v>
       </c>
+      <c r="G179" t="s">
+        <v>698</v>
+      </c>
+      <c r="H179" t="s">
+        <v>699</v>
+      </c>
       <c r="I179" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>62</v>
-      </c>
-      <c r="B180">
+      <c r="J179" t="s">
+        <v>700</v>
+      </c>
+      <c r="K179" t="s">
+        <v>701</v>
+      </c>
+      <c r="L179" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A180" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B180" s="1">
         <v>17</v>
       </c>
-      <c r="C180" t="s">
+      <c r="C180" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="D180" t="s">
+      <c r="D180" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="E180">
+      <c r="E180" s="1">
         <v>14</v>
       </c>
-      <c r="F180" t="s">
+      <c r="F180" s="1" t="s">
         <v>239</v>
       </c>
+      <c r="G180" t="s">
+        <v>703</v>
+      </c>
+      <c r="H180" t="s">
+        <v>704</v>
+      </c>
       <c r="I180" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>62</v>
-      </c>
-      <c r="B181">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A181" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B181" s="1">
         <v>17</v>
       </c>
-      <c r="C181" t="s">
+      <c r="C181" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="D181" t="s">
+      <c r="D181" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="E181">
+      <c r="E181" s="1">
         <v>15</v>
       </c>
-      <c r="F181" t="s">
+      <c r="F181" s="1" t="s">
         <v>240</v>
       </c>
+      <c r="G181" t="s">
+        <v>705</v>
+      </c>
+      <c r="H181" t="s">
+        <v>706</v>
+      </c>
       <c r="I181" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>62</v>
-      </c>
-      <c r="B182">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A182" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B182" s="1">
         <v>17</v>
       </c>
-      <c r="C182" t="s">
+      <c r="C182" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="D182" t="s">
+      <c r="D182" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="E182">
+      <c r="E182" s="1">
         <v>16</v>
       </c>
-      <c r="F182" t="s">
+      <c r="F182" s="1" t="s">
         <v>241</v>
       </c>
+      <c r="G182">
+        <v>999</v>
+      </c>
+      <c r="H182">
+        <v>999</v>
+      </c>
       <c r="I182" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>62</v>
-      </c>
-      <c r="B183">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A183" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B183" s="1">
         <v>17</v>
       </c>
-      <c r="C183" t="s">
+      <c r="C183" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="D183" t="s">
+      <c r="D183" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="E183">
+      <c r="E183" s="1">
         <v>10</v>
       </c>
-      <c r="F183" t="s">
+      <c r="F183" s="1" t="s">
         <v>243</v>
       </c>
+      <c r="G183" t="s">
+        <v>707</v>
+      </c>
+      <c r="H183" t="s">
+        <v>708</v>
+      </c>
       <c r="I183" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>62</v>
-      </c>
-      <c r="B184">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A184" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B184" s="1">
         <v>17</v>
       </c>
-      <c r="C184" t="s">
+      <c r="C184" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="D184" t="s">
+      <c r="D184" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="E184">
+      <c r="E184" s="1">
         <v>11</v>
       </c>
-      <c r="F184" t="s">
+      <c r="F184" s="1" t="s">
         <v>244</v>
       </c>
+      <c r="G184" t="s">
+        <v>709</v>
+      </c>
+      <c r="H184" t="s">
+        <v>710</v>
+      </c>
       <c r="I184" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>62</v>
       </c>
@@ -6142,11 +8949,17 @@
       <c r="F185" t="s">
         <v>247</v>
       </c>
+      <c r="G185" t="s">
+        <v>711</v>
+      </c>
+      <c r="H185" t="s">
+        <v>712</v>
+      </c>
       <c r="I185" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>62</v>
       </c>
@@ -6165,11 +8978,17 @@
       <c r="F186" t="s">
         <v>248</v>
       </c>
+      <c r="G186" t="s">
+        <v>713</v>
+      </c>
+      <c r="H186" t="s">
+        <v>714</v>
+      </c>
       <c r="I186" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>62</v>
       </c>
@@ -6188,11 +9007,17 @@
       <c r="F187" t="s">
         <v>249</v>
       </c>
+      <c r="G187" t="s">
+        <v>715</v>
+      </c>
+      <c r="H187" t="s">
+        <v>716</v>
+      </c>
       <c r="I187" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>62</v>
       </c>
@@ -6211,11 +9036,17 @@
       <c r="F188" t="s">
         <v>250</v>
       </c>
+      <c r="G188" t="s">
+        <v>717</v>
+      </c>
+      <c r="H188" t="s">
+        <v>718</v>
+      </c>
       <c r="I188" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>62</v>
       </c>
@@ -6234,11 +9065,17 @@
       <c r="F189" t="s">
         <v>251</v>
       </c>
+      <c r="G189" t="s">
+        <v>719</v>
+      </c>
+      <c r="H189" t="s">
+        <v>720</v>
+      </c>
       <c r="I189" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>62</v>
       </c>
@@ -6257,11 +9094,17 @@
       <c r="F190" t="s">
         <v>252</v>
       </c>
+      <c r="G190" t="s">
+        <v>721</v>
+      </c>
+      <c r="H190" t="s">
+        <v>722</v>
+      </c>
       <c r="I190" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>62</v>
       </c>
@@ -6280,126 +9123,162 @@
       <c r="F191" t="s">
         <v>253</v>
       </c>
+      <c r="G191" t="s">
+        <v>723</v>
+      </c>
+      <c r="H191" t="s">
+        <v>724</v>
+      </c>
       <c r="I191" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>62</v>
-      </c>
-      <c r="B192">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A192" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B192" s="1">
         <v>19</v>
       </c>
-      <c r="C192" t="s">
+      <c r="C192" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="D192" t="s">
+      <c r="D192" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="E192">
+      <c r="E192" s="1">
         <v>17</v>
       </c>
-      <c r="F192" t="s">
+      <c r="F192" s="1" t="s">
         <v>256</v>
       </c>
+      <c r="G192" t="s">
+        <v>725</v>
+      </c>
+      <c r="H192" t="s">
+        <v>726</v>
+      </c>
       <c r="I192" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
-        <v>62</v>
-      </c>
-      <c r="B193">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A193" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B193" s="1">
         <v>19</v>
       </c>
-      <c r="C193" t="s">
+      <c r="C193" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="D193" t="s">
+      <c r="D193" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="E193">
+      <c r="E193" s="1">
         <v>18</v>
       </c>
-      <c r="F193" t="s">
+      <c r="F193" s="1" t="s">
         <v>257</v>
       </c>
+      <c r="G193" t="s">
+        <v>727</v>
+      </c>
+      <c r="H193" t="s">
+        <v>728</v>
+      </c>
       <c r="I193" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>62</v>
-      </c>
-      <c r="B194">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A194" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B194" s="1">
         <v>19</v>
       </c>
-      <c r="C194" t="s">
+      <c r="C194" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="D194" t="s">
+      <c r="D194" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="E194">
+      <c r="E194" s="1">
         <v>19</v>
       </c>
-      <c r="F194" t="s">
+      <c r="F194" s="1" t="s">
         <v>258</v>
       </c>
+      <c r="G194" t="s">
+        <v>729</v>
+      </c>
+      <c r="H194" t="s">
+        <v>730</v>
+      </c>
       <c r="I194" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>62</v>
-      </c>
-      <c r="B195">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A195" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B195" s="1">
         <v>19</v>
       </c>
-      <c r="C195" t="s">
+      <c r="C195" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="D195" t="s">
+      <c r="D195" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="E195">
+      <c r="E195" s="1">
         <v>20</v>
       </c>
-      <c r="F195" t="s">
+      <c r="F195" s="1" t="s">
         <v>259</v>
       </c>
+      <c r="G195" t="s">
+        <v>731</v>
+      </c>
+      <c r="H195" t="s">
+        <v>732</v>
+      </c>
       <c r="I195" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
-        <v>62</v>
-      </c>
-      <c r="B196">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A196" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B196" s="1">
         <v>19</v>
       </c>
-      <c r="C196" t="s">
+      <c r="C196" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="D196" t="s">
+      <c r="D196" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="E196">
+      <c r="E196" s="1">
         <v>21</v>
       </c>
-      <c r="F196" t="s">
+      <c r="F196" s="1" t="s">
         <v>260</v>
       </c>
+      <c r="G196" t="s">
+        <v>733</v>
+      </c>
+      <c r="H196" t="s">
+        <v>734</v>
+      </c>
       <c r="I196" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>62</v>
       </c>
@@ -6418,8 +9297,14 @@
       <c r="F197" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G197" t="s">
+        <v>735</v>
+      </c>
+      <c r="H197" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>62</v>
       </c>
@@ -6438,8 +9323,14 @@
       <c r="F198" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G198" t="s">
+        <v>737</v>
+      </c>
+      <c r="H198" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>62</v>
       </c>
@@ -6458,8 +9349,14 @@
       <c r="F199" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G199" t="s">
+        <v>739</v>
+      </c>
+      <c r="H199" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>62</v>
       </c>
@@ -6478,8 +9375,14 @@
       <c r="F200" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G200" t="s">
+        <v>741</v>
+      </c>
+      <c r="H200" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>62</v>
       </c>
@@ -6498,88 +9401,118 @@
       <c r="F201" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
-        <v>62</v>
-      </c>
-      <c r="B202">
+      <c r="G201" t="s">
+        <v>743</v>
+      </c>
+      <c r="H201" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A202" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B202" s="1">
         <v>21</v>
       </c>
-      <c r="C202" t="s">
+      <c r="C202" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="D202" t="s">
+      <c r="D202" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E202">
+      <c r="E202" s="1">
         <v>17</v>
       </c>
-      <c r="F202" t="s">
+      <c r="F202" s="1" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
-        <v>62</v>
-      </c>
-      <c r="B203">
+      <c r="G202" t="s">
+        <v>745</v>
+      </c>
+      <c r="H202" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A203" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B203" s="1">
         <v>21</v>
       </c>
-      <c r="C203" t="s">
+      <c r="C203" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="D203" t="s">
+      <c r="D203" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E203">
+      <c r="E203" s="1">
         <v>18</v>
       </c>
-      <c r="F203" t="s">
+      <c r="F203" s="1" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
-        <v>62</v>
-      </c>
-      <c r="B204">
+      <c r="G203" t="s">
+        <v>747</v>
+      </c>
+      <c r="H203" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A204" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B204" s="1">
         <v>21</v>
       </c>
-      <c r="C204" t="s">
+      <c r="C204" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="D204" t="s">
+      <c r="D204" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E204">
+      <c r="E204" s="1">
         <v>19</v>
       </c>
-      <c r="F204" t="s">
+      <c r="F204" s="1" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
-        <v>62</v>
-      </c>
-      <c r="B205">
+      <c r="G204" t="s">
+        <v>749</v>
+      </c>
+      <c r="H204" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A205" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B205" s="1">
         <v>21</v>
       </c>
-      <c r="C205" t="s">
+      <c r="C205" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="D205" t="s">
+      <c r="D205" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E205">
+      <c r="E205" s="1">
         <v>20</v>
       </c>
-      <c r="F205" t="s">
+      <c r="F205" s="1" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G205" t="s">
+        <v>751</v>
+      </c>
+      <c r="H205" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>62</v>
       </c>
@@ -6598,8 +9531,14 @@
       <c r="F206" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G206" t="s">
+        <v>753</v>
+      </c>
+      <c r="H206" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>62</v>
       </c>
@@ -6618,8 +9557,14 @@
       <c r="F207" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G207" t="s">
+        <v>755</v>
+      </c>
+      <c r="H207" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>62</v>
       </c>
@@ -6638,68 +9583,92 @@
       <c r="F208" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
-        <v>62</v>
-      </c>
-      <c r="B209">
+      <c r="G208" t="s">
+        <v>757</v>
+      </c>
+      <c r="H208" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A209" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B209" s="1">
         <v>23</v>
       </c>
-      <c r="C209" t="s">
+      <c r="C209" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="D209" t="s">
+      <c r="D209" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E209">
+      <c r="E209" s="1">
         <v>17</v>
       </c>
-      <c r="F209" t="s">
+      <c r="F209" s="1" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
-        <v>62</v>
-      </c>
-      <c r="B210">
+      <c r="G209" t="s">
+        <v>759</v>
+      </c>
+      <c r="H209" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A210" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B210" s="1">
         <v>23</v>
       </c>
-      <c r="C210" t="s">
+      <c r="C210" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="D210" t="s">
+      <c r="D210" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E210">
+      <c r="E210" s="1">
         <v>18</v>
       </c>
-      <c r="F210" t="s">
+      <c r="F210" s="1" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
-        <v>62</v>
-      </c>
-      <c r="B211">
+      <c r="G210" t="s">
+        <v>761</v>
+      </c>
+      <c r="H210" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A211" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B211" s="1">
         <v>23</v>
       </c>
-      <c r="C211" t="s">
+      <c r="C211" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="D211" t="s">
+      <c r="D211" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E211">
+      <c r="E211" s="1">
         <v>19</v>
       </c>
-      <c r="F211" t="s">
+      <c r="F211" s="1" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G211" t="s">
+        <v>763</v>
+      </c>
+      <c r="H211" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>62</v>
       </c>
@@ -6718,8 +9687,14 @@
       <c r="F212" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G212" t="s">
+        <v>765</v>
+      </c>
+      <c r="H212" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>62</v>
       </c>
@@ -6738,8 +9713,14 @@
       <c r="F213" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G213" t="s">
+        <v>767</v>
+      </c>
+      <c r="H213" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>62</v>
       </c>
@@ -6758,8 +9739,14 @@
       <c r="F214" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G214" t="s">
+        <v>769</v>
+      </c>
+      <c r="H214" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>62</v>
       </c>
@@ -6778,48 +9765,66 @@
       <c r="F215" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
-        <v>62</v>
-      </c>
-      <c r="B216">
+      <c r="G215" t="s">
+        <v>771</v>
+      </c>
+      <c r="H215" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A216" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B216" s="1">
         <v>25</v>
       </c>
-      <c r="C216" t="s">
+      <c r="C216" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="D216" t="s">
+      <c r="D216" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E216">
+      <c r="E216" s="1">
         <v>17</v>
       </c>
-      <c r="F216" t="s">
+      <c r="F216" s="1" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
-        <v>62</v>
-      </c>
-      <c r="B217">
+      <c r="G216" t="s">
+        <v>773</v>
+      </c>
+      <c r="H216" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A217" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B217" s="1">
         <v>25</v>
       </c>
-      <c r="C217" t="s">
+      <c r="C217" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="D217" t="s">
+      <c r="D217" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E217">
+      <c r="E217" s="1">
         <v>20</v>
       </c>
-      <c r="F217" t="s">
+      <c r="F217" s="1" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G217" t="s">
+        <v>775</v>
+      </c>
+      <c r="H217" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>62</v>
       </c>
@@ -6838,8 +9843,14 @@
       <c r="F218" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G218" t="s">
+        <v>777</v>
+      </c>
+      <c r="H218" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>62</v>
       </c>
@@ -6858,8 +9869,14 @@
       <c r="F219" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G219" t="s">
+        <v>779</v>
+      </c>
+      <c r="H219" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>62</v>
       </c>
@@ -6878,8 +9895,14 @@
       <c r="F220" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G220" t="s">
+        <v>781</v>
+      </c>
+      <c r="H220" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>62</v>
       </c>
@@ -6898,28 +9921,40 @@
       <c r="F221" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
-        <v>62</v>
-      </c>
-      <c r="B222">
+      <c r="G221" t="s">
+        <v>783</v>
+      </c>
+      <c r="H221" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A222" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B222" s="1">
         <v>29</v>
       </c>
-      <c r="C222" t="s">
+      <c r="C222" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="D222" t="s">
+      <c r="D222" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E222">
+      <c r="E222" s="1">
         <v>17</v>
       </c>
-      <c r="F222" t="s">
+      <c r="F222" s="1" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G222" t="s">
+        <v>785</v>
+      </c>
+      <c r="H222" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>62</v>
       </c>
@@ -6938,28 +9973,40 @@
       <c r="F223" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
-        <v>62</v>
-      </c>
-      <c r="B224">
+      <c r="G223" t="s">
+        <v>787</v>
+      </c>
+      <c r="H223" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A224" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B224" s="1">
         <v>31</v>
       </c>
-      <c r="C224" t="s">
+      <c r="C224" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="D224" t="s">
+      <c r="D224" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E224">
+      <c r="E224" s="1">
         <v>17</v>
       </c>
-      <c r="F224" t="s">
+      <c r="F224" s="1" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G224" t="s">
+        <v>789</v>
+      </c>
+      <c r="H224" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>62</v>
       </c>
@@ -6978,8 +10025,14 @@
       <c r="F225" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G225" t="s">
+        <v>791</v>
+      </c>
+      <c r="H225" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>62</v>
       </c>
@@ -6998,8 +10051,14 @@
       <c r="F226" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G226" t="s">
+        <v>793</v>
+      </c>
+      <c r="H226" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>62</v>
       </c>
@@ -7018,8 +10077,14 @@
       <c r="F227" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G227" t="s">
+        <v>795</v>
+      </c>
+      <c r="H227" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>62</v>
       </c>
@@ -7038,128 +10103,185 @@
       <c r="F228" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
-        <v>62</v>
-      </c>
-      <c r="B229">
+      <c r="G228" t="s">
+        <v>797</v>
+      </c>
+      <c r="H228" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A229" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B229" s="1">
         <v>33</v>
       </c>
-      <c r="C229" t="s">
+      <c r="C229" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="D229" t="s">
+      <c r="D229" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="E229">
+      <c r="E229" s="1">
         <v>17</v>
       </c>
-      <c r="F229" t="s">
+      <c r="F229" s="1" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
-        <v>62</v>
-      </c>
-      <c r="B230">
+      <c r="G229" t="s">
+        <v>799</v>
+      </c>
+      <c r="H229" t="s">
+        <v>800</v>
+      </c>
+      <c r="J229" t="s">
+        <v>690</v>
+      </c>
+      <c r="K229" t="s">
+        <v>809</v>
+      </c>
+      <c r="L229" t="s">
+        <v>810</v>
+      </c>
+      <c r="M229" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="230" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A230" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B230" s="1">
         <v>33</v>
       </c>
-      <c r="C230" t="s">
+      <c r="C230" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="D230" t="s">
+      <c r="D230" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="E230">
+      <c r="E230" s="1">
         <v>18</v>
       </c>
-      <c r="F230" t="s">
+      <c r="F230" s="1" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
-        <v>62</v>
-      </c>
-      <c r="B231">
+      <c r="G230" t="s">
+        <v>801</v>
+      </c>
+      <c r="H230" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="231" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A231" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B231" s="1">
         <v>33</v>
       </c>
-      <c r="C231" t="s">
+      <c r="C231" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="D231" t="s">
+      <c r="D231" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="E231">
+      <c r="E231" s="1">
         <v>20</v>
       </c>
-      <c r="F231" t="s">
+      <c r="F231" s="1" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
-        <v>62</v>
-      </c>
-      <c r="B232">
+      <c r="G231" t="s">
+        <v>803</v>
+      </c>
+      <c r="H231" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A232" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B232" s="1">
         <v>33</v>
       </c>
-      <c r="C232" t="s">
+      <c r="C232" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="D232" t="s">
+      <c r="D232" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="E232">
+      <c r="E232" s="1">
         <v>21</v>
       </c>
-      <c r="F232" t="s">
+      <c r="F232" s="1" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
-        <v>62</v>
-      </c>
-      <c r="B233">
+      <c r="G232" t="s">
+        <v>805</v>
+      </c>
+      <c r="H232" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A233" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B233" s="1">
         <v>33</v>
       </c>
-      <c r="C233" t="s">
+      <c r="C233" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="D233" t="s">
+      <c r="D233" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="E233">
+      <c r="E233" s="1">
         <v>22</v>
       </c>
-      <c r="F233" t="s">
+      <c r="F233" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
-        <v>62</v>
-      </c>
-      <c r="B234">
+      <c r="G233" t="s">
+        <v>807</v>
+      </c>
+      <c r="H233" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="234" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A234" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B234" s="1">
         <v>33</v>
       </c>
-      <c r="C234" t="s">
+      <c r="C234" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="D234" t="s">
+      <c r="D234" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="E234">
+      <c r="E234" s="1">
         <v>24</v>
       </c>
-      <c r="F234" t="s">
+      <c r="F234" s="1" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G234" t="s">
+        <v>812</v>
+      </c>
+      <c r="H234" t="s">
+        <v>813</v>
+      </c>
+      <c r="J234" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="235" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>62</v>
       </c>
@@ -7178,8 +10300,14 @@
       <c r="F235" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G235" t="s">
+        <v>815</v>
+      </c>
+      <c r="H235" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="236" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>62</v>
       </c>
@@ -7198,8 +10326,14 @@
       <c r="F236" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G236" t="s">
+        <v>817</v>
+      </c>
+      <c r="H236" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="237" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>62</v>
       </c>
@@ -7218,8 +10352,14 @@
       <c r="F237" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G237" t="s">
+        <v>819</v>
+      </c>
+      <c r="H237" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="238" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>62</v>
       </c>
@@ -7238,8 +10378,14 @@
       <c r="F238" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G238" t="s">
+        <v>821</v>
+      </c>
+      <c r="H238" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>62</v>
       </c>
@@ -7258,8 +10404,14 @@
       <c r="F239" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G239" t="s">
+        <v>823</v>
+      </c>
+      <c r="H239" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>62</v>
       </c>
@@ -7278,8 +10430,14 @@
       <c r="F240" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G240" t="s">
+        <v>825</v>
+      </c>
+      <c r="H240" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>62</v>
       </c>
@@ -7298,148 +10456,196 @@
       <c r="F241" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
-        <v>62</v>
-      </c>
-      <c r="B242">
+      <c r="G241" t="s">
+        <v>827</v>
+      </c>
+      <c r="H241" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A242" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B242" s="1">
         <v>35</v>
       </c>
-      <c r="C242" t="s">
+      <c r="C242" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="D242" t="s">
+      <c r="D242" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="E242">
+      <c r="E242" s="1">
         <v>17</v>
       </c>
-      <c r="F242" t="s">
+      <c r="F242" s="1" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
-        <v>62</v>
-      </c>
-      <c r="B243">
+      <c r="G242" t="s">
+        <v>829</v>
+      </c>
+      <c r="H242" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A243" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B243" s="1">
         <v>35</v>
       </c>
-      <c r="C243" t="s">
+      <c r="C243" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="D243" t="s">
+      <c r="D243" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="E243">
+      <c r="E243" s="1">
         <v>18</v>
       </c>
-      <c r="F243" t="s">
+      <c r="F243" s="1" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
-        <v>62</v>
-      </c>
-      <c r="B244">
+      <c r="G243" t="s">
+        <v>831</v>
+      </c>
+      <c r="H243" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A244" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B244" s="1">
         <v>35</v>
       </c>
-      <c r="C244" t="s">
+      <c r="C244" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="D244" t="s">
+      <c r="D244" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="E244">
+      <c r="E244" s="1">
         <v>19</v>
       </c>
-      <c r="F244" t="s">
+      <c r="F244" s="1" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
-        <v>62</v>
-      </c>
-      <c r="B245">
+      <c r="G244" t="s">
+        <v>833</v>
+      </c>
+      <c r="H244" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A245" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B245" s="1">
         <v>35</v>
       </c>
-      <c r="C245" t="s">
+      <c r="C245" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="D245" t="s">
+      <c r="D245" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="E245">
+      <c r="E245" s="1">
         <v>20</v>
       </c>
-      <c r="F245" t="s">
+      <c r="F245" s="1" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
-        <v>62</v>
-      </c>
-      <c r="B246">
+      <c r="G245" t="s">
+        <v>835</v>
+      </c>
+      <c r="H245" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A246" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B246" s="1">
         <v>35</v>
       </c>
-      <c r="C246" t="s">
+      <c r="C246" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="D246" t="s">
+      <c r="D246" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="E246">
+      <c r="E246" s="1">
         <v>21</v>
       </c>
-      <c r="F246" t="s">
+      <c r="F246" s="1" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
-        <v>62</v>
-      </c>
-      <c r="B247">
+      <c r="G246" t="s">
+        <v>837</v>
+      </c>
+      <c r="H246" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A247" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B247" s="1">
         <v>35</v>
       </c>
-      <c r="C247" t="s">
+      <c r="C247" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="D247" t="s">
+      <c r="D247" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="E247">
+      <c r="E247" s="1">
         <v>22</v>
       </c>
-      <c r="F247" t="s">
+      <c r="F247" s="1" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
-        <v>62</v>
-      </c>
-      <c r="B248">
+      <c r="G247" t="s">
+        <v>839</v>
+      </c>
+      <c r="H247" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A248" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B248" s="1">
         <v>35</v>
       </c>
-      <c r="C248" t="s">
+      <c r="C248" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="D248" t="s">
+      <c r="D248" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="E248">
+      <c r="E248" s="1">
         <v>23</v>
       </c>
-      <c r="F248" t="s">
+      <c r="F248" s="1" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G248" t="s">
+        <v>841</v>
+      </c>
+      <c r="H248" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>62</v>
       </c>
@@ -7458,8 +10664,14 @@
       <c r="F249" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G249" t="s">
+        <v>843</v>
+      </c>
+      <c r="H249" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>62</v>
       </c>
@@ -7478,8 +10690,14 @@
       <c r="F250" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G250" t="s">
+        <v>845</v>
+      </c>
+      <c r="H250" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>62</v>
       </c>
@@ -7498,8 +10716,14 @@
       <c r="F251" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G251" t="s">
+        <v>847</v>
+      </c>
+      <c r="H251" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>62</v>
       </c>
@@ -7518,8 +10742,14 @@
       <c r="F252" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G252" t="s">
+        <v>849</v>
+      </c>
+      <c r="H252" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>62</v>
       </c>
@@ -7538,8 +10768,14 @@
       <c r="F253" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G253" t="s">
+        <v>851</v>
+      </c>
+      <c r="H253" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>62</v>
       </c>
@@ -7558,8 +10794,14 @@
       <c r="F254" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G254" t="s">
+        <v>852</v>
+      </c>
+      <c r="H254" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>62</v>
       </c>
@@ -7578,128 +10820,170 @@
       <c r="F255" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
-        <v>62</v>
-      </c>
-      <c r="B256">
+      <c r="G255" t="s">
+        <v>855</v>
+      </c>
+      <c r="H255" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A256" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B256" s="1">
         <v>37</v>
       </c>
-      <c r="C256" t="s">
+      <c r="C256" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="D256" t="s">
+      <c r="D256" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="E256">
+      <c r="E256" s="1">
         <v>17</v>
       </c>
-      <c r="F256" t="s">
+      <c r="F256" s="1" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
-        <v>62</v>
-      </c>
-      <c r="B257">
+      <c r="G256" t="s">
+        <v>857</v>
+      </c>
+      <c r="H256" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A257" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B257" s="1">
         <v>37</v>
       </c>
-      <c r="C257" t="s">
+      <c r="C257" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="D257" t="s">
+      <c r="D257" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="E257">
+      <c r="E257" s="1">
         <v>19</v>
       </c>
-      <c r="F257" t="s">
+      <c r="F257" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
-        <v>62</v>
-      </c>
-      <c r="B258">
+      <c r="G257" t="s">
+        <v>859</v>
+      </c>
+      <c r="H257" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A258" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B258" s="1">
         <v>37</v>
       </c>
-      <c r="C258" t="s">
+      <c r="C258" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="D258" t="s">
+      <c r="D258" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="E258">
+      <c r="E258" s="1">
         <v>20</v>
       </c>
-      <c r="F258" t="s">
+      <c r="F258" s="1" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A259" t="s">
-        <v>62</v>
-      </c>
-      <c r="B259">
+      <c r="G258" t="s">
+        <v>861</v>
+      </c>
+      <c r="H258" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A259" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B259" s="1">
         <v>37</v>
       </c>
-      <c r="C259" t="s">
+      <c r="C259" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="D259" t="s">
+      <c r="D259" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="E259">
+      <c r="E259" s="1">
         <v>21</v>
       </c>
-      <c r="F259" t="s">
+      <c r="F259" s="1" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A260" t="s">
-        <v>62</v>
-      </c>
-      <c r="B260">
+      <c r="G259" t="s">
+        <v>863</v>
+      </c>
+      <c r="H259" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A260" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B260" s="1">
         <v>37</v>
       </c>
-      <c r="C260" t="s">
+      <c r="C260" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="D260" t="s">
+      <c r="D260" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="E260">
+      <c r="E260" s="1">
         <v>22</v>
       </c>
-      <c r="F260" t="s">
+      <c r="F260" s="1" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
-        <v>62</v>
-      </c>
-      <c r="B261">
+      <c r="G260" t="s">
+        <v>865</v>
+      </c>
+      <c r="H260" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A261" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B261" s="1">
         <v>37</v>
       </c>
-      <c r="C261" t="s">
+      <c r="C261" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="D261" t="s">
+      <c r="D261" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="E261">
+      <c r="E261" s="1">
         <v>23</v>
       </c>
-      <c r="F261" t="s">
+      <c r="F261" s="1" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G261" t="s">
+        <v>867</v>
+      </c>
+      <c r="H261" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>62</v>
       </c>
@@ -7718,8 +11002,14 @@
       <c r="F262" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G262" t="s">
+        <v>877</v>
+      </c>
+      <c r="H262" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>62</v>
       </c>
@@ -7738,8 +11028,14 @@
       <c r="F263" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G263" t="s">
+        <v>869</v>
+      </c>
+      <c r="H263" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>62</v>
       </c>
@@ -7758,8 +11054,14 @@
       <c r="F264" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G264" t="s">
+        <v>871</v>
+      </c>
+      <c r="H264" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>62</v>
       </c>
@@ -7778,8 +11080,14 @@
       <c r="F265" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G265" t="s">
+        <v>873</v>
+      </c>
+      <c r="H265" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>62</v>
       </c>
@@ -7798,8 +11106,14 @@
       <c r="F266" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G266">
+        <v>999</v>
+      </c>
+      <c r="H266">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>62</v>
       </c>
@@ -7818,8 +11132,15 @@
       <c r="F267" t="s">
         <v>349</v>
       </c>
+      <c r="G267" t="s">
+        <v>874</v>
+      </c>
+      <c r="H267" t="s">
+        <v>875</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Doc/DWA_studyarea_Grid.xlsx
+++ b/Doc/DWA_studyarea_Grid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Envimaster\DWA\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A8FD8B-3EE8-4877-998B-29314803CA17}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29945B48-23C8-4D92-9F9B-7552D1637E7E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-3330" yWindow="1515" windowWidth="14400" windowHeight="7245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1804" uniqueCount="896">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1806" uniqueCount="898">
   <si>
     <t>romanNr</t>
   </si>
@@ -2708,6 +2708,12 @@
   </si>
   <si>
     <t>Bögen haben keine Planquadrate, gehören aber offenbar dazu (siehe name)</t>
+  </si>
+  <si>
+    <t>GeoRef DL</t>
+  </si>
+  <si>
+    <t>GeoRef Processed</t>
   </si>
 </sst>
 </file>
@@ -3043,7 +3049,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -3179,30 +3185,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -3228,12 +3214,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -3285,19 +3275,19 @@
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3653,10 +3643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O267"/>
+  <dimension ref="A1:R267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="O179" sqref="O179"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W7" sqref="W7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3672,58 +3662,65 @@
     <col min="10" max="10" width="11.28515625" customWidth="1"/>
     <col min="11" max="11" width="13.42578125" customWidth="1"/>
     <col min="12" max="12" width="12.28515625" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" style="13" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" style="13" customWidth="1"/>
+    <col min="15" max="18" width="8.7109375" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="10" t="s">
         <v>887</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="10" t="s">
         <v>888</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="10" t="s">
         <v>892</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="10" t="s">
         <v>893</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="N1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="O1" s="12" t="s">
+        <v>896</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>897</v>
+      </c>
+      <c r="R1" s="11" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -3752,12 +3749,9 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="4"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="3">
@@ -3785,12 +3779,9 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="4"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="3">
@@ -3818,11 +3809,8 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="4"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -3853,11 +3841,8 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="4"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -3888,11 +3873,8 @@
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="4"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -3921,11 +3903,8 @@
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="4"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -3954,11 +3933,8 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="4"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -3987,12 +3963,9 @@
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="4"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="3">
@@ -4020,12 +3993,9 @@
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="4"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="3">
@@ -4053,12 +4023,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="4"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="3">
@@ -4086,12 +4053,9 @@
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="4"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="3">
@@ -4119,12 +4083,9 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="4"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B14" s="3">
@@ -4154,12 +4115,9 @@
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="4"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B15" s="3">
@@ -4189,11 +4147,8 @@
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="4"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
@@ -4222,11 +4177,8 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="4"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
@@ -4255,11 +4207,8 @@
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="4"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
@@ -4288,11 +4237,8 @@
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="4"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
@@ -4321,11 +4267,8 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="4"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
@@ -4354,12 +4297,9 @@
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="4"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B21" s="3">
@@ -4387,12 +4327,9 @@
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="4"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B22" s="3">
@@ -4420,11 +4357,8 @@
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="4"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
@@ -4453,11 +4387,8 @@
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="4"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>8</v>
       </c>
@@ -4486,11 +4417,8 @@
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="4"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>8</v>
       </c>
@@ -4519,12 +4447,9 @@
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="4"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B26" s="3">
@@ -4552,12 +4477,9 @@
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="4"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B27" s="3">
@@ -4585,12 +4507,9 @@
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="4"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B28" s="3">
@@ -4618,12 +4537,9 @@
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="4"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B29" s="3">
@@ -4651,11 +4567,8 @@
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="4"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
@@ -4684,11 +4597,8 @@
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="4"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>8</v>
       </c>
@@ -4717,11 +4627,8 @@
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="4"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>8</v>
       </c>
@@ -4750,12 +4657,9 @@
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="4"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B33" s="3">
@@ -4783,12 +4687,9 @@
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="4"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B34" s="3">
@@ -4816,12 +4717,9 @@
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="4"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B35" s="3">
@@ -4849,11 +4747,8 @@
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="4"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>8</v>
       </c>
@@ -4882,11 +4777,8 @@
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="4"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>8</v>
       </c>
@@ -4915,12 +4807,9 @@
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="4"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B38" s="3">
@@ -4948,14 +4837,12 @@
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
-      <c r="M38" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N38" s="3"/>
-      <c r="O38" s="4"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
+      <c r="M38" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B39" s="3">
@@ -4983,14 +4870,12 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-      <c r="M39" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N39" s="3"/>
-      <c r="O39" s="4"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
+      <c r="M39" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B40" s="3">
@@ -5018,14 +4903,12 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-      <c r="M40" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N40" s="3"/>
-      <c r="O40" s="4"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
+      <c r="M40" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B41" s="3">
@@ -5053,14 +4936,12 @@
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
-      <c r="M41" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N41" s="3"/>
-      <c r="O41" s="4"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
+      <c r="M41" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B42" s="3">
@@ -5088,13 +4969,11 @@
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
-      <c r="M42" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N42" s="3"/>
-      <c r="O42" s="4"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M42" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>62</v>
       </c>
@@ -5123,13 +5002,11 @@
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
-      <c r="M43" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N43" s="3"/>
-      <c r="O43" s="4"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M43" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>62</v>
       </c>
@@ -5158,13 +5035,11 @@
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
-      <c r="M44" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N44" s="3"/>
-      <c r="O44" s="4"/>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M44" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>62</v>
       </c>
@@ -5193,13 +5068,11 @@
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
-      <c r="M45" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N45" s="3"/>
-      <c r="O45" s="4"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M45" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>62</v>
       </c>
@@ -5228,13 +5101,11 @@
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
-      <c r="M46" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N46" s="3"/>
-      <c r="O46" s="4"/>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M46" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>62</v>
       </c>
@@ -5263,13 +5134,11 @@
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
-      <c r="M47" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N47" s="3"/>
-      <c r="O47" s="4"/>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M47" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>62</v>
       </c>
@@ -5298,13 +5167,11 @@
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
-      <c r="M48" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N48" s="3"/>
-      <c r="O48" s="4"/>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M48" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>62</v>
       </c>
@@ -5333,13 +5200,11 @@
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
-      <c r="M49" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N49" s="3"/>
-      <c r="O49" s="4"/>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M49" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>62</v>
       </c>
@@ -5368,13 +5233,11 @@
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
-      <c r="M50" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N50" s="3"/>
-      <c r="O50" s="4"/>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M50" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>62</v>
       </c>
@@ -5403,14 +5266,12 @@
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
-      <c r="M51" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N51" s="3"/>
-      <c r="O51" s="4"/>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
+      <c r="M51" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B52" s="3">
@@ -5438,14 +5299,12 @@
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
-      <c r="M52" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N52" s="3"/>
-      <c r="O52" s="4"/>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
+      <c r="M52" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B53" s="3">
@@ -5473,14 +5332,12 @@
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
-      <c r="M53" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N53" s="3"/>
-      <c r="O53" s="4"/>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
+      <c r="M53" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B54" s="3">
@@ -5508,14 +5365,12 @@
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
-      <c r="M54" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N54" s="3"/>
-      <c r="O54" s="4"/>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
+      <c r="M54" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B55" s="3">
@@ -5543,14 +5398,12 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-      <c r="M55" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N55" s="3"/>
-      <c r="O55" s="4"/>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
+      <c r="M55" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B56" s="3">
@@ -5578,14 +5431,12 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-      <c r="M56" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N56" s="3"/>
-      <c r="O56" s="4"/>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
+      <c r="M56" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B57" s="3">
@@ -5613,14 +5464,12 @@
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
-      <c r="M57" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N57" s="3"/>
-      <c r="O57" s="4"/>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
+      <c r="M57" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B58" s="3">
@@ -5648,14 +5497,12 @@
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
-      <c r="M58" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N58" s="3"/>
-      <c r="O58" s="4"/>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
+      <c r="M58" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B59" s="3">
@@ -5683,13 +5530,11 @@
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
-      <c r="M59" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N59" s="3"/>
-      <c r="O59" s="4"/>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M59" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>62</v>
       </c>
@@ -5718,13 +5563,11 @@
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
-      <c r="M60" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N60" s="3"/>
-      <c r="O60" s="4"/>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M60" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>62</v>
       </c>
@@ -5753,13 +5596,11 @@
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
-      <c r="M61" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N61" s="3"/>
-      <c r="O61" s="4"/>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M61" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>62</v>
       </c>
@@ -5788,13 +5629,11 @@
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
-      <c r="M62" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N62" s="3"/>
-      <c r="O62" s="4"/>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M62" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>62</v>
       </c>
@@ -5823,13 +5662,11 @@
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
-      <c r="M63" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N63" s="3"/>
-      <c r="O63" s="4"/>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M63" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>62</v>
       </c>
@@ -5858,13 +5695,11 @@
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
-      <c r="M64" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N64" s="3"/>
-      <c r="O64" s="4"/>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M64" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>62</v>
       </c>
@@ -5893,13 +5728,11 @@
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
-      <c r="M65" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N65" s="3"/>
-      <c r="O65" s="4"/>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M65" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>62</v>
       </c>
@@ -5928,13 +5761,11 @@
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
-      <c r="M66" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N66" s="3"/>
-      <c r="O66" s="4"/>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M66" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>62</v>
       </c>
@@ -5963,14 +5794,12 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-      <c r="M67" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N67" s="3"/>
-      <c r="O67" s="4"/>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A68" s="5" t="s">
+      <c r="M67" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B68" s="3">
@@ -5998,14 +5827,12 @@
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
-      <c r="M68" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N68" s="3"/>
-      <c r="O68" s="4"/>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A69" s="5" t="s">
+      <c r="M68" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B69" s="3">
@@ -6033,14 +5860,12 @@
       <c r="J69" s="3"/>
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
-      <c r="M69" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N69" s="3"/>
-      <c r="O69" s="4"/>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" s="5" t="s">
+      <c r="M69" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B70" s="3">
@@ -6068,14 +5893,12 @@
       <c r="J70" s="3"/>
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
-      <c r="M70" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N70" s="3"/>
-      <c r="O70" s="4"/>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A71" s="5" t="s">
+      <c r="M70" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B71" s="3">
@@ -6103,14 +5926,12 @@
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
-      <c r="M71" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N71" s="3"/>
-      <c r="O71" s="4"/>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A72" s="5" t="s">
+      <c r="M71" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B72" s="3">
@@ -6138,14 +5959,12 @@
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
-      <c r="M72" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N72" s="3"/>
-      <c r="O72" s="4"/>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A73" s="5" t="s">
+      <c r="M72" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B73" s="3">
@@ -6173,14 +5992,12 @@
       <c r="J73" s="3"/>
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
-      <c r="M73" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N73" s="3"/>
-      <c r="O73" s="4"/>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A74" s="5" t="s">
+      <c r="M73" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B74" s="3">
@@ -6208,13 +6025,11 @@
       <c r="J74" s="3"/>
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
-      <c r="M74" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N74" s="3"/>
-      <c r="O74" s="4"/>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M74" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>62</v>
       </c>
@@ -6243,13 +6058,11 @@
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
-      <c r="M75" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N75" s="3"/>
-      <c r="O75" s="4"/>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M75" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>62</v>
       </c>
@@ -6278,13 +6091,11 @@
       <c r="J76" s="3"/>
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
-      <c r="M76" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N76" s="3"/>
-      <c r="O76" s="4"/>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M76" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>62</v>
       </c>
@@ -6313,13 +6124,11 @@
       <c r="J77" s="3"/>
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
-      <c r="M77" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N77" s="3"/>
-      <c r="O77" s="4"/>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M77" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>62</v>
       </c>
@@ -6348,13 +6157,11 @@
       <c r="J78" s="3"/>
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
-      <c r="M78" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N78" s="3"/>
-      <c r="O78" s="4"/>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M78" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>62</v>
       </c>
@@ -6383,13 +6190,11 @@
       <c r="J79" s="3"/>
       <c r="K79" s="3"/>
       <c r="L79" s="3"/>
-      <c r="M79" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N79" s="3"/>
-      <c r="O79" s="4"/>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M79" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>62</v>
       </c>
@@ -6418,13 +6223,11 @@
       <c r="J80" s="3"/>
       <c r="K80" s="3"/>
       <c r="L80" s="3"/>
-      <c r="M80" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N80" s="3"/>
-      <c r="O80" s="4"/>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M80" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>62</v>
       </c>
@@ -6453,14 +6256,12 @@
       <c r="J81" s="3"/>
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
-      <c r="M81" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N81" s="3"/>
-      <c r="O81" s="4"/>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A82" s="5" t="s">
+      <c r="M81" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B82" s="3">
@@ -6488,14 +6289,12 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-      <c r="M82" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N82" s="3"/>
-      <c r="O82" s="4"/>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A83" s="5" t="s">
+      <c r="M82" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B83" s="3">
@@ -6523,14 +6322,12 @@
       <c r="J83" s="3"/>
       <c r="K83" s="3"/>
       <c r="L83" s="3"/>
-      <c r="M83" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N83" s="3"/>
-      <c r="O83" s="4"/>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A84" s="5" t="s">
+      <c r="M83" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B84" s="3">
@@ -6558,14 +6355,12 @@
       <c r="J84" s="3"/>
       <c r="K84" s="3"/>
       <c r="L84" s="3"/>
-      <c r="M84" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N84" s="3"/>
-      <c r="O84" s="4"/>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A85" s="5" t="s">
+      <c r="M84" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B85" s="3">
@@ -6593,14 +6388,12 @@
       <c r="J85" s="3"/>
       <c r="K85" s="3"/>
       <c r="L85" s="3"/>
-      <c r="M85" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N85" s="3"/>
-      <c r="O85" s="4"/>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A86" s="5" t="s">
+      <c r="M85" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B86" s="3">
@@ -6628,14 +6421,12 @@
       <c r="J86" s="3"/>
       <c r="K86" s="3"/>
       <c r="L86" s="3"/>
-      <c r="M86" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N86" s="3"/>
-      <c r="O86" s="4"/>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A87" s="5" t="s">
+      <c r="M86" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B87" s="3">
@@ -6663,14 +6454,12 @@
       <c r="J87" s="3"/>
       <c r="K87" s="3"/>
       <c r="L87" s="3"/>
-      <c r="M87" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N87" s="3"/>
-      <c r="O87" s="4"/>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A88" s="5" t="s">
+      <c r="M87" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B88" s="3">
@@ -6698,29 +6487,27 @@
       <c r="J88" s="3"/>
       <c r="K88" s="3"/>
       <c r="L88" s="3"/>
-      <c r="M88" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N88" s="3"/>
-      <c r="O88" s="4"/>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A89" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B89" s="7">
+      <c r="M88" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B89" s="6">
         <v>10</v>
       </c>
-      <c r="C89" s="7" t="s">
+      <c r="C89" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D89" s="7" t="s">
+      <c r="D89" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="E89" s="7">
+      <c r="E89" s="6">
         <v>10</v>
       </c>
-      <c r="F89" s="7" t="s">
+      <c r="F89" s="6" t="s">
         <v>130</v>
       </c>
       <c r="G89" s="3" t="s">
@@ -6733,29 +6520,27 @@
       <c r="J89" s="3"/>
       <c r="K89" s="3"/>
       <c r="L89" s="3"/>
-      <c r="M89" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N89" s="3"/>
-      <c r="O89" s="4"/>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A90" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B90" s="7">
+      <c r="M89" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B90" s="6">
         <v>10</v>
       </c>
-      <c r="C90" s="7" t="s">
+      <c r="C90" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D90" s="7" t="s">
+      <c r="D90" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="E90" s="7">
+      <c r="E90" s="6">
         <v>11</v>
       </c>
-      <c r="F90" s="7" t="s">
+      <c r="F90" s="6" t="s">
         <v>131</v>
       </c>
       <c r="G90" s="3" t="s">
@@ -6768,29 +6553,27 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-      <c r="M90" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N90" s="3"/>
-      <c r="O90" s="4"/>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A91" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B91" s="7">
+      <c r="M90" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A91" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B91" s="6">
         <v>10</v>
       </c>
-      <c r="C91" s="7" t="s">
+      <c r="C91" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D91" s="7" t="s">
+      <c r="D91" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="E91" s="7">
+      <c r="E91" s="6">
         <v>12</v>
       </c>
-      <c r="F91" s="7" t="s">
+      <c r="F91" s="6" t="s">
         <v>132</v>
       </c>
       <c r="G91" s="3" t="s">
@@ -6803,29 +6586,27 @@
       <c r="J91" s="3"/>
       <c r="K91" s="3"/>
       <c r="L91" s="3"/>
-      <c r="M91" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N91" s="3"/>
-      <c r="O91" s="4"/>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A92" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B92" s="7">
+      <c r="M91" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A92" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B92" s="6">
         <v>10</v>
       </c>
-      <c r="C92" s="7" t="s">
+      <c r="C92" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D92" s="7" t="s">
+      <c r="D92" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="E92" s="7">
+      <c r="E92" s="6">
         <v>13</v>
       </c>
-      <c r="F92" s="7" t="s">
+      <c r="F92" s="6" t="s">
         <v>133</v>
       </c>
       <c r="G92" s="3" t="s">
@@ -6838,29 +6619,27 @@
       <c r="J92" s="3"/>
       <c r="K92" s="3"/>
       <c r="L92" s="3"/>
-      <c r="M92" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N92" s="3"/>
-      <c r="O92" s="4"/>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A93" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B93" s="7">
+      <c r="M92" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A93" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B93" s="6">
         <v>10</v>
       </c>
-      <c r="C93" s="7" t="s">
+      <c r="C93" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D93" s="7" t="s">
+      <c r="D93" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="E93" s="7">
+      <c r="E93" s="6">
         <v>14</v>
       </c>
-      <c r="F93" s="7" t="s">
+      <c r="F93" s="6" t="s">
         <v>134</v>
       </c>
       <c r="G93" s="3" t="s">
@@ -6873,29 +6652,27 @@
       <c r="J93" s="3"/>
       <c r="K93" s="3"/>
       <c r="L93" s="3"/>
-      <c r="M93" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N93" s="3"/>
-      <c r="O93" s="4"/>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A94" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B94" s="7">
+      <c r="M93" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A94" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B94" s="6">
         <v>10</v>
       </c>
-      <c r="C94" s="7" t="s">
+      <c r="C94" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D94" s="7" t="s">
+      <c r="D94" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="E94" s="7">
+      <c r="E94" s="6">
         <v>15</v>
       </c>
-      <c r="F94" s="7" t="s">
+      <c r="F94" s="6" t="s">
         <v>135</v>
       </c>
       <c r="G94" s="3" t="s">
@@ -6908,29 +6685,27 @@
       <c r="J94" s="3"/>
       <c r="K94" s="3"/>
       <c r="L94" s="3"/>
-      <c r="M94" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N94" s="3"/>
-      <c r="O94" s="4"/>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A95" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B95" s="7">
+      <c r="M94" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A95" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B95" s="6">
         <v>10</v>
       </c>
-      <c r="C95" s="7" t="s">
+      <c r="C95" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D95" s="7" t="s">
+      <c r="D95" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="E95" s="7">
+      <c r="E95" s="6">
         <v>16</v>
       </c>
-      <c r="F95" s="7" t="s">
+      <c r="F95" s="6" t="s">
         <v>136</v>
       </c>
       <c r="G95" s="3" t="s">
@@ -6943,13 +6718,11 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-      <c r="M95" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N95" s="3"/>
-      <c r="O95" s="4"/>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M95" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>62</v>
       </c>
@@ -6978,13 +6751,11 @@
       <c r="J96" s="3"/>
       <c r="K96" s="3"/>
       <c r="L96" s="3"/>
-      <c r="M96" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N96" s="3"/>
-      <c r="O96" s="4"/>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M96" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>62</v>
       </c>
@@ -7013,13 +6784,11 @@
       <c r="J97" s="3"/>
       <c r="K97" s="3"/>
       <c r="L97" s="3"/>
-      <c r="M97" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N97" s="3"/>
-      <c r="O97" s="4"/>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M97" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>62</v>
       </c>
@@ -7048,13 +6817,11 @@
       <c r="J98" s="3"/>
       <c r="K98" s="3"/>
       <c r="L98" s="3"/>
-      <c r="M98" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N98" s="3"/>
-      <c r="O98" s="4"/>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M98" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>62</v>
       </c>
@@ -7083,13 +6850,11 @@
       <c r="J99" s="3"/>
       <c r="K99" s="3"/>
       <c r="L99" s="3"/>
-      <c r="M99" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N99" s="3"/>
-      <c r="O99" s="4"/>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M99" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>62</v>
       </c>
@@ -7118,13 +6883,11 @@
       <c r="J100" s="3"/>
       <c r="K100" s="3"/>
       <c r="L100" s="3"/>
-      <c r="M100" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N100" s="3"/>
-      <c r="O100" s="4"/>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M100" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>62</v>
       </c>
@@ -7153,13 +6916,11 @@
       <c r="J101" s="3"/>
       <c r="K101" s="3"/>
       <c r="L101" s="3"/>
-      <c r="M101" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N101" s="3"/>
-      <c r="O101" s="4"/>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M101" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>62</v>
       </c>
@@ -7188,13 +6949,11 @@
       <c r="J102" s="3"/>
       <c r="K102" s="3"/>
       <c r="L102" s="3"/>
-      <c r="M102" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N102" s="3"/>
-      <c r="O102" s="4"/>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M102" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>62</v>
       </c>
@@ -7223,13 +6982,11 @@
       <c r="J103" s="3"/>
       <c r="K103" s="3"/>
       <c r="L103" s="3"/>
-      <c r="M103" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N103" s="3"/>
-      <c r="O103" s="4"/>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M103" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>62</v>
       </c>
@@ -7258,13 +7015,11 @@
       <c r="J104" s="3"/>
       <c r="K104" s="3"/>
       <c r="L104" s="3"/>
-      <c r="M104" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N104" s="3"/>
-      <c r="O104" s="4"/>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M104" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>62</v>
       </c>
@@ -7293,13 +7048,11 @@
       <c r="J105" s="3"/>
       <c r="K105" s="3"/>
       <c r="L105" s="3"/>
-      <c r="M105" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N105" s="3"/>
-      <c r="O105" s="4"/>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M105" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>62</v>
       </c>
@@ -7328,13 +7081,11 @@
       <c r="J106" s="3"/>
       <c r="K106" s="3"/>
       <c r="L106" s="3"/>
-      <c r="M106" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N106" s="3"/>
-      <c r="O106" s="4"/>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M106" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>62</v>
       </c>
@@ -7363,13 +7114,11 @@
       <c r="J107" s="3"/>
       <c r="K107" s="3"/>
       <c r="L107" s="3"/>
-      <c r="M107" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N107" s="3"/>
-      <c r="O107" s="4"/>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M107" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>62</v>
       </c>
@@ -7398,13 +7147,11 @@
       <c r="J108" s="3"/>
       <c r="K108" s="3"/>
       <c r="L108" s="3"/>
-      <c r="M108" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N108" s="3"/>
-      <c r="O108" s="4"/>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M108" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>62</v>
       </c>
@@ -7433,14 +7180,12 @@
       <c r="J109" s="3"/>
       <c r="K109" s="3"/>
       <c r="L109" s="3"/>
-      <c r="M109" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N109" s="3"/>
-      <c r="O109" s="4"/>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A110" s="5" t="s">
+      <c r="M109" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A110" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B110" s="3">
@@ -7468,14 +7213,12 @@
       <c r="J110" s="3"/>
       <c r="K110" s="3"/>
       <c r="L110" s="3"/>
-      <c r="M110" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N110" s="3"/>
-      <c r="O110" s="4"/>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A111" s="5" t="s">
+      <c r="M110" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A111" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B111" s="3">
@@ -7503,14 +7246,12 @@
       <c r="J111" s="3"/>
       <c r="K111" s="3"/>
       <c r="L111" s="3"/>
-      <c r="M111" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N111" s="3"/>
-      <c r="O111" s="4"/>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A112" s="5" t="s">
+      <c r="M111" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A112" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B112" s="3">
@@ -7538,14 +7279,12 @@
       <c r="J112" s="3"/>
       <c r="K112" s="3"/>
       <c r="L112" s="3"/>
-      <c r="M112" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N112" s="3"/>
-      <c r="O112" s="4"/>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A113" s="5" t="s">
+      <c r="M112" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A113" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B113" s="3">
@@ -7573,14 +7312,12 @@
       <c r="J113" s="3"/>
       <c r="K113" s="3"/>
       <c r="L113" s="3"/>
-      <c r="M113" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N113" s="3"/>
-      <c r="O113" s="4"/>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A114" s="5" t="s">
+      <c r="M113" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A114" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B114" s="3">
@@ -7608,14 +7345,12 @@
       <c r="J114" s="3"/>
       <c r="K114" s="3"/>
       <c r="L114" s="3"/>
-      <c r="M114" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N114" s="3"/>
-      <c r="O114" s="4"/>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A115" s="5" t="s">
+      <c r="M114" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A115" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B115" s="3">
@@ -7643,14 +7378,12 @@
       <c r="J115" s="3"/>
       <c r="K115" s="3"/>
       <c r="L115" s="3"/>
-      <c r="M115" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N115" s="3"/>
-      <c r="O115" s="4"/>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A116" s="5" t="s">
+      <c r="M115" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A116" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B116" s="3">
@@ -7678,14 +7411,12 @@
       <c r="J116" s="3"/>
       <c r="K116" s="3"/>
       <c r="L116" s="3"/>
-      <c r="M116" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N116" s="3"/>
-      <c r="O116" s="4"/>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A117" s="5" t="s">
+      <c r="M116" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A117" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B117" s="3">
@@ -7713,14 +7444,12 @@
       <c r="J117" s="3"/>
       <c r="K117" s="3"/>
       <c r="L117" s="3"/>
-      <c r="M117" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N117" s="3"/>
-      <c r="O117" s="4"/>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A118" s="5" t="s">
+      <c r="M117" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A118" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B118" s="3">
@@ -7748,14 +7477,12 @@
       <c r="J118" s="3"/>
       <c r="K118" s="3"/>
       <c r="L118" s="3"/>
-      <c r="M118" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N118" s="3"/>
-      <c r="O118" s="4"/>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A119" s="5" t="s">
+      <c r="M118" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A119" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B119" s="3">
@@ -7783,14 +7510,12 @@
       <c r="J119" s="3"/>
       <c r="K119" s="3"/>
       <c r="L119" s="3"/>
-      <c r="M119" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N119" s="3"/>
-      <c r="O119" s="4"/>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A120" s="5" t="s">
+      <c r="M119" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A120" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B120" s="3">
@@ -7818,14 +7543,12 @@
       <c r="J120" s="3"/>
       <c r="K120" s="3"/>
       <c r="L120" s="3"/>
-      <c r="M120" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N120" s="3"/>
-      <c r="O120" s="4"/>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A121" s="5" t="s">
+      <c r="M120" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A121" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B121" s="3">
@@ -7853,14 +7576,12 @@
       <c r="J121" s="3"/>
       <c r="K121" s="3"/>
       <c r="L121" s="3"/>
-      <c r="M121" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N121" s="3"/>
-      <c r="O121" s="4"/>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A122" s="5" t="s">
+      <c r="M121" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A122" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B122" s="3">
@@ -7888,14 +7609,12 @@
       <c r="J122" s="3"/>
       <c r="K122" s="3"/>
       <c r="L122" s="3"/>
-      <c r="M122" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N122" s="3"/>
-      <c r="O122" s="4"/>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A123" s="5" t="s">
+      <c r="M122" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A123" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B123" s="3">
@@ -7923,13 +7642,11 @@
       <c r="J123" s="3"/>
       <c r="K123" s="3"/>
       <c r="L123" s="3"/>
-      <c r="M123" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N123" s="3"/>
-      <c r="O123" s="4"/>
-    </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M123" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>62</v>
       </c>
@@ -7960,15 +7677,14 @@
       </c>
       <c r="K124" s="3"/>
       <c r="L124" s="3"/>
-      <c r="M124" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N124" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="O124" s="4"/>
-    </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M124" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="N124" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>62</v>
       </c>
@@ -7997,15 +7713,14 @@
       <c r="J125" s="3"/>
       <c r="K125" s="3"/>
       <c r="L125" s="3"/>
-      <c r="M125" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N125" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="O125" s="4"/>
-    </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M125" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="N125" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>62</v>
       </c>
@@ -8034,15 +7749,14 @@
       <c r="J126" s="3"/>
       <c r="K126" s="3"/>
       <c r="L126" s="3"/>
-      <c r="M126" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N126" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="O126" s="4"/>
-    </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M126" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="N126" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>62</v>
       </c>
@@ -8071,15 +7785,14 @@
       <c r="J127" s="3"/>
       <c r="K127" s="3"/>
       <c r="L127" s="3"/>
-      <c r="M127" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N127" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="O127" s="4"/>
-    </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M127" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="N127" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>62</v>
       </c>
@@ -8108,15 +7821,14 @@
       <c r="J128" s="3"/>
       <c r="K128" s="3"/>
       <c r="L128" s="3"/>
-      <c r="M128" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N128" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="O128" s="4"/>
-    </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M128" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="N128" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>62</v>
       </c>
@@ -8145,15 +7857,14 @@
       <c r="J129" s="3"/>
       <c r="K129" s="3"/>
       <c r="L129" s="3"/>
-      <c r="M129" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N129" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="O129" s="4"/>
-    </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M129" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="N129" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>62</v>
       </c>
@@ -8182,15 +7893,14 @@
       <c r="J130" s="3"/>
       <c r="K130" s="3"/>
       <c r="L130" s="3"/>
-      <c r="M130" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N130" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="O130" s="4"/>
-    </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M130" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="N130" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>62</v>
       </c>
@@ -8219,15 +7929,14 @@
       <c r="J131" s="3"/>
       <c r="K131" s="3"/>
       <c r="L131" s="3"/>
-      <c r="M131" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N131" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="O131" s="4"/>
-    </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M131" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="N131" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>62</v>
       </c>
@@ -8256,15 +7965,14 @@
       <c r="J132" s="3"/>
       <c r="K132" s="3"/>
       <c r="L132" s="3"/>
-      <c r="M132" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N132" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="O132" s="4"/>
-    </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M132" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="N132" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>62</v>
       </c>
@@ -8293,15 +8001,14 @@
       <c r="J133" s="3"/>
       <c r="K133" s="3"/>
       <c r="L133" s="3"/>
-      <c r="M133" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N133" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="O133" s="4"/>
-    </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M133" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="N133" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>62</v>
       </c>
@@ -8330,15 +8037,14 @@
       <c r="J134" s="3"/>
       <c r="K134" s="3"/>
       <c r="L134" s="3"/>
-      <c r="M134" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N134" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="O134" s="4"/>
-    </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M134" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="N134" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>62</v>
       </c>
@@ -8367,15 +8073,14 @@
       <c r="J135" s="3"/>
       <c r="K135" s="3"/>
       <c r="L135" s="3"/>
-      <c r="M135" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N135" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="O135" s="4"/>
-    </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M135" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="N135" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>62</v>
       </c>
@@ -8404,15 +8109,14 @@
       <c r="J136" s="3"/>
       <c r="K136" s="3"/>
       <c r="L136" s="3"/>
-      <c r="M136" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N136" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="O136" s="4"/>
-    </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M136" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="N136" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>62</v>
       </c>
@@ -8441,15 +8145,14 @@
       <c r="J137" s="3"/>
       <c r="K137" s="3"/>
       <c r="L137" s="3"/>
-      <c r="M137" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N137" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="O137" s="4"/>
-    </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M137" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="N137" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>62</v>
       </c>
@@ -8478,13 +8181,11 @@
       <c r="J138" s="3"/>
       <c r="K138" s="3"/>
       <c r="L138" s="3"/>
-      <c r="M138" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N138" s="3"/>
-      <c r="O138" s="4"/>
-    </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M138" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>62</v>
       </c>
@@ -8513,13 +8214,11 @@
       <c r="J139" s="3"/>
       <c r="K139" s="3"/>
       <c r="L139" s="3"/>
-      <c r="M139" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N139" s="3"/>
-      <c r="O139" s="4"/>
-    </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M139" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>62</v>
       </c>
@@ -8548,14 +8247,12 @@
       <c r="J140" s="3"/>
       <c r="K140" s="3"/>
       <c r="L140" s="3"/>
-      <c r="M140" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N140" s="3"/>
-      <c r="O140" s="4"/>
-    </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A141" s="5" t="s">
+      <c r="M140" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A141" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B141" s="3">
@@ -8583,14 +8280,12 @@
       <c r="J141" s="3"/>
       <c r="K141" s="3"/>
       <c r="L141" s="3"/>
-      <c r="M141" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N141" s="3"/>
-      <c r="O141" s="4"/>
-    </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A142" s="5" t="s">
+      <c r="M141" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A142" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B142" s="3">
@@ -8618,14 +8313,12 @@
       <c r="J142" s="3"/>
       <c r="K142" s="3"/>
       <c r="L142" s="3"/>
-      <c r="M142" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N142" s="3"/>
-      <c r="O142" s="4"/>
-    </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A143" s="5" t="s">
+      <c r="M142" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A143" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B143" s="3">
@@ -8653,14 +8346,12 @@
       <c r="J143" s="3"/>
       <c r="K143" s="3"/>
       <c r="L143" s="3"/>
-      <c r="M143" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N143" s="3"/>
-      <c r="O143" s="4"/>
-    </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A144" s="5" t="s">
+      <c r="M143" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A144" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B144" s="3">
@@ -8688,14 +8379,12 @@
       <c r="J144" s="3"/>
       <c r="K144" s="3"/>
       <c r="L144" s="3"/>
-      <c r="M144" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N144" s="3"/>
-      <c r="O144" s="4"/>
-    </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A145" s="5" t="s">
+      <c r="M144" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A145" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B145" s="3">
@@ -8723,14 +8412,12 @@
       <c r="J145" s="3"/>
       <c r="K145" s="3"/>
       <c r="L145" s="3"/>
-      <c r="M145" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N145" s="3"/>
-      <c r="O145" s="4"/>
-    </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A146" s="5" t="s">
+      <c r="M145" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A146" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B146" s="3">
@@ -8758,14 +8445,12 @@
       <c r="J146" s="3"/>
       <c r="K146" s="3"/>
       <c r="L146" s="3"/>
-      <c r="M146" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N146" s="3"/>
-      <c r="O146" s="4"/>
-    </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A147" s="5" t="s">
+      <c r="M146" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A147" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B147" s="3">
@@ -8793,14 +8478,12 @@
       <c r="J147" s="3"/>
       <c r="K147" s="3"/>
       <c r="L147" s="3"/>
-      <c r="M147" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N147" s="3"/>
-      <c r="O147" s="4"/>
-    </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A148" s="5" t="s">
+      <c r="M147" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A148" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B148" s="3">
@@ -8828,14 +8511,12 @@
       <c r="J148" s="3"/>
       <c r="K148" s="3"/>
       <c r="L148" s="3"/>
-      <c r="M148" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N148" s="3"/>
-      <c r="O148" s="4"/>
-    </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A149" s="5" t="s">
+      <c r="M148" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A149" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B149" s="3">
@@ -8863,14 +8544,12 @@
       <c r="J149" s="3"/>
       <c r="K149" s="3"/>
       <c r="L149" s="3"/>
-      <c r="M149" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N149" s="3"/>
-      <c r="O149" s="4"/>
-    </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A150" s="5" t="s">
+      <c r="M149" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A150" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B150" s="3">
@@ -8898,14 +8577,12 @@
       <c r="J150" s="3"/>
       <c r="K150" s="3"/>
       <c r="L150" s="3"/>
-      <c r="M150" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N150" s="3"/>
-      <c r="O150" s="4"/>
-    </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A151" s="5" t="s">
+      <c r="M150" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A151" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B151" s="3">
@@ -8933,14 +8610,12 @@
       <c r="J151" s="3"/>
       <c r="K151" s="3"/>
       <c r="L151" s="3"/>
-      <c r="M151" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N151" s="3"/>
-      <c r="O151" s="4"/>
-    </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A152" s="5" t="s">
+      <c r="M151" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A152" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B152" s="3">
@@ -8968,14 +8643,12 @@
       <c r="J152" s="3"/>
       <c r="K152" s="3"/>
       <c r="L152" s="3"/>
-      <c r="M152" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N152" s="3"/>
-      <c r="O152" s="4"/>
-    </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A153" s="5" t="s">
+      <c r="M152" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A153" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B153" s="3">
@@ -9003,14 +8676,12 @@
       <c r="J153" s="3"/>
       <c r="K153" s="3"/>
       <c r="L153" s="3"/>
-      <c r="M153" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N153" s="3"/>
-      <c r="O153" s="4"/>
-    </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A154" s="5" t="s">
+      <c r="M153" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A154" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B154" s="3">
@@ -9038,14 +8709,12 @@
       <c r="J154" s="3"/>
       <c r="K154" s="3"/>
       <c r="L154" s="3"/>
-      <c r="M154" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N154" s="3"/>
-      <c r="O154" s="4"/>
-    </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A155" s="5" t="s">
+      <c r="M154" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A155" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B155" s="3">
@@ -9073,14 +8742,12 @@
       <c r="J155" s="3"/>
       <c r="K155" s="3"/>
       <c r="L155" s="3"/>
-      <c r="M155" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N155" s="3"/>
-      <c r="O155" s="4"/>
-    </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A156" s="5" t="s">
+      <c r="M155" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A156" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B156" s="3">
@@ -9108,14 +8775,12 @@
       <c r="J156" s="3"/>
       <c r="K156" s="3"/>
       <c r="L156" s="3"/>
-      <c r="M156" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N156" s="3"/>
-      <c r="O156" s="4"/>
-    </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A157" s="5" t="s">
+      <c r="M156" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A157" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B157" s="3">
@@ -9143,14 +8808,12 @@
       <c r="J157" s="3"/>
       <c r="K157" s="3"/>
       <c r="L157" s="3"/>
-      <c r="M157" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N157" s="3"/>
-      <c r="O157" s="4"/>
-    </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A158" s="5" t="s">
+      <c r="M157" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A158" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B158" s="3">
@@ -9178,13 +8841,11 @@
       <c r="J158" s="3"/>
       <c r="K158" s="3"/>
       <c r="L158" s="3"/>
-      <c r="M158" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N158" s="3"/>
-      <c r="O158" s="4"/>
-    </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M158" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>62</v>
       </c>
@@ -9213,15 +8874,14 @@
       <c r="J159" s="3"/>
       <c r="K159" s="3"/>
       <c r="L159" s="3"/>
-      <c r="M159" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N159" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="O159" s="4"/>
-    </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M159" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="N159" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>62</v>
       </c>
@@ -9250,15 +8910,14 @@
       <c r="J160" s="3"/>
       <c r="K160" s="3"/>
       <c r="L160" s="3"/>
-      <c r="M160" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N160" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="O160" s="4"/>
-    </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M160" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="N160" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>62</v>
       </c>
@@ -9287,15 +8946,14 @@
       <c r="J161" s="3"/>
       <c r="K161" s="3"/>
       <c r="L161" s="3"/>
-      <c r="M161" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N161" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="O161" s="4"/>
-    </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M161" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="N161" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>62</v>
       </c>
@@ -9324,15 +8982,14 @@
       <c r="J162" s="3"/>
       <c r="K162" s="3"/>
       <c r="L162" s="3"/>
-      <c r="M162" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N162" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="O162" s="4"/>
-    </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M162" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="N162" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>62</v>
       </c>
@@ -9361,15 +9018,14 @@
       <c r="J163" s="3"/>
       <c r="K163" s="3"/>
       <c r="L163" s="3"/>
-      <c r="M163" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N163" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="O163" s="4"/>
-    </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M163" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="N163" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>62</v>
       </c>
@@ -9398,15 +9054,14 @@
       <c r="J164" s="3"/>
       <c r="K164" s="3"/>
       <c r="L164" s="3"/>
-      <c r="M164" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N164" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="O164" s="4"/>
-    </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M164" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="N164" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>62</v>
       </c>
@@ -9435,15 +9090,14 @@
       <c r="J165" s="3"/>
       <c r="K165" s="3"/>
       <c r="L165" s="3"/>
-      <c r="M165" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N165" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="O165" s="4"/>
-    </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M165" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="N165" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>62</v>
       </c>
@@ -9472,16 +9126,15 @@
       <c r="J166" s="3"/>
       <c r="K166" s="3"/>
       <c r="L166" s="3"/>
-      <c r="M166" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N166" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="O166" s="4"/>
-    </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A167" s="5" t="s">
+      <c r="M166" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="N166" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A167" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B167" s="3">
@@ -9509,14 +9162,12 @@
       <c r="J167" s="3"/>
       <c r="K167" s="3"/>
       <c r="L167" s="3"/>
-      <c r="M167" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N167" s="3"/>
-      <c r="O167" s="4"/>
-    </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A168" s="5" t="s">
+      <c r="M167" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A168" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B168" s="3">
@@ -9544,14 +9195,12 @@
       <c r="J168" s="3"/>
       <c r="K168" s="3"/>
       <c r="L168" s="3"/>
-      <c r="M168" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N168" s="3"/>
-      <c r="O168" s="4"/>
-    </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A169" s="5" t="s">
+      <c r="M168" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A169" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B169" s="3">
@@ -9579,14 +9228,12 @@
       <c r="J169" s="3"/>
       <c r="K169" s="3"/>
       <c r="L169" s="3"/>
-      <c r="M169" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N169" s="3"/>
-      <c r="O169" s="4"/>
-    </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A170" s="5" t="s">
+      <c r="M169" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A170" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B170" s="3">
@@ -9614,14 +9261,12 @@
       <c r="J170" s="3"/>
       <c r="K170" s="3"/>
       <c r="L170" s="3"/>
-      <c r="M170" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N170" s="3"/>
-      <c r="O170" s="4"/>
-    </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A171" s="5" t="s">
+      <c r="M170" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A171" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B171" s="3">
@@ -9649,14 +9294,12 @@
       <c r="J171" s="3"/>
       <c r="K171" s="3"/>
       <c r="L171" s="3"/>
-      <c r="M171" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N171" s="3"/>
-      <c r="O171" s="4"/>
-    </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A172" s="5" t="s">
+      <c r="M171" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A172" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B172" s="3">
@@ -9684,14 +9327,12 @@
       <c r="J172" s="3"/>
       <c r="K172" s="3"/>
       <c r="L172" s="3"/>
-      <c r="M172" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N172" s="3"/>
-      <c r="O172" s="4"/>
-    </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A173" s="5" t="s">
+      <c r="M172" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A173" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B173" s="3">
@@ -9719,14 +9360,12 @@
       <c r="J173" s="3"/>
       <c r="K173" s="3"/>
       <c r="L173" s="3"/>
-      <c r="M173" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N173" s="3"/>
-      <c r="O173" s="4"/>
-    </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A174" s="5" t="s">
+      <c r="M173" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A174" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B174" s="3">
@@ -9754,13 +9393,11 @@
       <c r="J174" s="3"/>
       <c r="K174" s="3"/>
       <c r="L174" s="3"/>
-      <c r="M174" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N174" s="3"/>
-      <c r="O174" s="4"/>
-    </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M174" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>62</v>
       </c>
@@ -9789,13 +9426,11 @@
       <c r="J175" s="3"/>
       <c r="K175" s="3"/>
       <c r="L175" s="3"/>
-      <c r="M175" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N175" s="3"/>
-      <c r="O175" s="4"/>
-    </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M175" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>62</v>
       </c>
@@ -9828,13 +9463,11 @@
       <c r="L176" s="3" t="s">
         <v>688</v>
       </c>
-      <c r="M176" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N176" s="3"/>
-      <c r="O176" s="4"/>
-    </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M176" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="177" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>62</v>
       </c>
@@ -9867,13 +9500,11 @@
       <c r="L177" s="3" t="s">
         <v>690</v>
       </c>
-      <c r="M177" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N177" s="3"/>
-      <c r="O177" s="4"/>
-    </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M177" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="178" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>62</v>
       </c>
@@ -9906,13 +9537,11 @@
       <c r="L178" s="3" t="s">
         <v>692</v>
       </c>
-      <c r="M178" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N178" s="3"/>
-      <c r="O178" s="4"/>
-    </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M178" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="179" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>62</v>
       </c>
@@ -9943,14 +9572,14 @@
       <c r="L179" t="s">
         <v>696</v>
       </c>
-      <c r="M179" t="s">
-        <v>66</v>
-      </c>
-      <c r="O179" t="s">
+      <c r="M179" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="R179" s="13" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>62</v>
       </c>
@@ -9975,12 +9604,11 @@
       <c r="H180" t="s">
         <v>698</v>
       </c>
-      <c r="M180" t="s">
-        <v>66</v>
-      </c>
-      <c r="O180" s="4"/>
-    </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M180" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="181" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>62</v>
       </c>
@@ -10005,12 +9633,11 @@
       <c r="H181" t="s">
         <v>700</v>
       </c>
-      <c r="M181" t="s">
-        <v>66</v>
-      </c>
-      <c r="O181" s="4"/>
-    </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M181" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="182" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>62</v>
       </c>
@@ -10035,12 +9662,11 @@
       <c r="H182">
         <v>999</v>
       </c>
-      <c r="M182" t="s">
-        <v>66</v>
-      </c>
-      <c r="O182" s="4"/>
-    </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M182" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="183" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>62</v>
       </c>
@@ -10069,13 +9695,11 @@
       <c r="J183" s="3"/>
       <c r="K183" s="3"/>
       <c r="L183" s="3"/>
-      <c r="M183" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N183" s="3"/>
-      <c r="O183" s="4"/>
-    </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M183" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="184" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>62</v>
       </c>
@@ -10104,14 +9728,12 @@
       <c r="J184" s="3"/>
       <c r="K184" s="3"/>
       <c r="L184" s="3"/>
-      <c r="M184" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N184" s="3"/>
-      <c r="O184" s="4"/>
-    </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A185" s="5" t="s">
+      <c r="M184" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="185" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A185" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B185" s="3">
@@ -10139,14 +9761,12 @@
       <c r="J185" s="3"/>
       <c r="K185" s="3"/>
       <c r="L185" s="3"/>
-      <c r="M185" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N185" s="3"/>
-      <c r="O185" s="4"/>
-    </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A186" s="5" t="s">
+      <c r="M185" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="186" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A186" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B186" s="3">
@@ -10174,14 +9794,12 @@
       <c r="J186" s="3"/>
       <c r="K186" s="3"/>
       <c r="L186" s="3"/>
-      <c r="M186" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N186" s="3"/>
-      <c r="O186" s="4"/>
-    </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A187" s="5" t="s">
+      <c r="M186" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="187" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A187" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B187" s="3">
@@ -10209,14 +9827,12 @@
       <c r="J187" s="3"/>
       <c r="K187" s="3"/>
       <c r="L187" s="3"/>
-      <c r="M187" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N187" s="3"/>
-      <c r="O187" s="4"/>
-    </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A188" s="5" t="s">
+      <c r="M187" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="188" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A188" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B188" s="3">
@@ -10244,14 +9860,12 @@
       <c r="J188" s="3"/>
       <c r="K188" s="3"/>
       <c r="L188" s="3"/>
-      <c r="M188" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N188" s="3"/>
-      <c r="O188" s="4"/>
-    </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A189" s="5" t="s">
+      <c r="M188" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="189" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A189" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B189" s="3">
@@ -10279,14 +9893,12 @@
       <c r="J189" s="3"/>
       <c r="K189" s="3"/>
       <c r="L189" s="3"/>
-      <c r="M189" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N189" s="3"/>
-      <c r="O189" s="4"/>
-    </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A190" s="5" t="s">
+      <c r="M189" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="190" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A190" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B190" s="3">
@@ -10314,14 +9926,12 @@
       <c r="J190" s="3"/>
       <c r="K190" s="3"/>
       <c r="L190" s="3"/>
-      <c r="M190" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N190" s="3"/>
-      <c r="O190" s="4"/>
-    </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A191" s="5" t="s">
+      <c r="M190" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="191" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A191" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B191" s="3">
@@ -10349,13 +9959,11 @@
       <c r="J191" s="3"/>
       <c r="K191" s="3"/>
       <c r="L191" s="3"/>
-      <c r="M191" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N191" s="3"/>
-      <c r="O191" s="4"/>
-    </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M191" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="192" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>62</v>
       </c>
@@ -10384,13 +9992,11 @@
       <c r="J192" s="3"/>
       <c r="K192" s="3"/>
       <c r="L192" s="3"/>
-      <c r="M192" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N192" s="3"/>
-      <c r="O192" s="4"/>
-    </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M192" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>62</v>
       </c>
@@ -10419,13 +10025,11 @@
       <c r="J193" s="3"/>
       <c r="K193" s="3"/>
       <c r="L193" s="3"/>
-      <c r="M193" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N193" s="3"/>
-      <c r="O193" s="4"/>
-    </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M193" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>62</v>
       </c>
@@ -10454,13 +10058,11 @@
       <c r="J194" s="3"/>
       <c r="K194" s="3"/>
       <c r="L194" s="3"/>
-      <c r="M194" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N194" s="3"/>
-      <c r="O194" s="4"/>
-    </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M194" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>62</v>
       </c>
@@ -10489,13 +10091,11 @@
       <c r="J195" s="3"/>
       <c r="K195" s="3"/>
       <c r="L195" s="3"/>
-      <c r="M195" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N195" s="3"/>
-      <c r="O195" s="4"/>
-    </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M195" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>62</v>
       </c>
@@ -10524,14 +10124,12 @@
       <c r="J196" s="3"/>
       <c r="K196" s="3"/>
       <c r="L196" s="3"/>
-      <c r="M196" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N196" s="3"/>
-      <c r="O196" s="4"/>
-    </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A197" s="5" t="s">
+      <c r="M196" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A197" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B197" s="3">
@@ -10559,12 +10157,9 @@
       <c r="J197" s="3"/>
       <c r="K197" s="3"/>
       <c r="L197" s="3"/>
-      <c r="M197" s="3"/>
-      <c r="N197" s="3"/>
-      <c r="O197" s="4"/>
-    </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A198" s="5" t="s">
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A198" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B198" s="3">
@@ -10592,12 +10187,9 @@
       <c r="J198" s="3"/>
       <c r="K198" s="3"/>
       <c r="L198" s="3"/>
-      <c r="M198" s="3"/>
-      <c r="N198" s="3"/>
-      <c r="O198" s="4"/>
-    </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A199" s="5" t="s">
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A199" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B199" s="3">
@@ -10625,12 +10217,9 @@
       <c r="J199" s="3"/>
       <c r="K199" s="3"/>
       <c r="L199" s="3"/>
-      <c r="M199" s="3"/>
-      <c r="N199" s="3"/>
-      <c r="O199" s="4"/>
-    </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A200" s="5" t="s">
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A200" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B200" s="3">
@@ -10658,12 +10247,9 @@
       <c r="J200" s="3"/>
       <c r="K200" s="3"/>
       <c r="L200" s="3"/>
-      <c r="M200" s="3"/>
-      <c r="N200" s="3"/>
-      <c r="O200" s="4"/>
-    </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A201" s="5" t="s">
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A201" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B201" s="3">
@@ -10691,11 +10277,8 @@
       <c r="J201" s="3"/>
       <c r="K201" s="3"/>
       <c r="L201" s="3"/>
-      <c r="M201" s="3"/>
-      <c r="N201" s="3"/>
-      <c r="O201" s="4"/>
-    </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>62</v>
       </c>
@@ -10724,11 +10307,8 @@
       <c r="J202" s="3"/>
       <c r="K202" s="3"/>
       <c r="L202" s="3"/>
-      <c r="M202" s="3"/>
-      <c r="N202" s="3"/>
-      <c r="O202" s="4"/>
-    </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>62</v>
       </c>
@@ -10757,11 +10337,8 @@
       <c r="J203" s="3"/>
       <c r="K203" s="3"/>
       <c r="L203" s="3"/>
-      <c r="M203" s="3"/>
-      <c r="N203" s="3"/>
-      <c r="O203" s="4"/>
-    </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>62</v>
       </c>
@@ -10790,11 +10367,8 @@
       <c r="J204" s="3"/>
       <c r="K204" s="3"/>
       <c r="L204" s="3"/>
-      <c r="M204" s="3"/>
-      <c r="N204" s="3"/>
-      <c r="O204" s="4"/>
-    </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>62</v>
       </c>
@@ -10823,12 +10397,9 @@
       <c r="J205" s="3"/>
       <c r="K205" s="3"/>
       <c r="L205" s="3"/>
-      <c r="M205" s="3"/>
-      <c r="N205" s="3"/>
-      <c r="O205" s="4"/>
-    </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A206" s="5" t="s">
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A206" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B206" s="3">
@@ -10856,12 +10427,9 @@
       <c r="J206" s="3"/>
       <c r="K206" s="3"/>
       <c r="L206" s="3"/>
-      <c r="M206" s="3"/>
-      <c r="N206" s="3"/>
-      <c r="O206" s="4"/>
-    </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A207" s="5" t="s">
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A207" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B207" s="3">
@@ -10889,12 +10457,9 @@
       <c r="J207" s="3"/>
       <c r="K207" s="3"/>
       <c r="L207" s="3"/>
-      <c r="M207" s="3"/>
-      <c r="N207" s="3"/>
-      <c r="O207" s="4"/>
-    </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A208" s="5" t="s">
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A208" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B208" s="3">
@@ -10922,11 +10487,8 @@
       <c r="J208" s="3"/>
       <c r="K208" s="3"/>
       <c r="L208" s="3"/>
-      <c r="M208" s="3"/>
-      <c r="N208" s="3"/>
-      <c r="O208" s="4"/>
-    </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>62</v>
       </c>
@@ -10955,11 +10517,8 @@
       <c r="J209" s="3"/>
       <c r="K209" s="3"/>
       <c r="L209" s="3"/>
-      <c r="M209" s="3"/>
-      <c r="N209" s="3"/>
-      <c r="O209" s="4"/>
-    </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>62</v>
       </c>
@@ -10988,11 +10547,8 @@
       <c r="J210" s="3"/>
       <c r="K210" s="3"/>
       <c r="L210" s="3"/>
-      <c r="M210" s="3"/>
-      <c r="N210" s="3"/>
-      <c r="O210" s="4"/>
-    </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>62</v>
       </c>
@@ -11021,12 +10577,9 @@
       <c r="J211" s="3"/>
       <c r="K211" s="3"/>
       <c r="L211" s="3"/>
-      <c r="M211" s="3"/>
-      <c r="N211" s="3"/>
-      <c r="O211" s="4"/>
-    </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A212" s="5" t="s">
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A212" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B212" s="3">
@@ -11054,12 +10607,9 @@
       <c r="J212" s="3"/>
       <c r="K212" s="3"/>
       <c r="L212" s="3"/>
-      <c r="M212" s="3"/>
-      <c r="N212" s="3"/>
-      <c r="O212" s="4"/>
-    </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A213" s="5" t="s">
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A213" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B213" s="3">
@@ -11087,12 +10637,9 @@
       <c r="J213" s="3"/>
       <c r="K213" s="3"/>
       <c r="L213" s="3"/>
-      <c r="M213" s="3"/>
-      <c r="N213" s="3"/>
-      <c r="O213" s="4"/>
-    </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A214" s="5" t="s">
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A214" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B214" s="3">
@@ -11120,12 +10667,9 @@
       <c r="J214" s="3"/>
       <c r="K214" s="3"/>
       <c r="L214" s="3"/>
-      <c r="M214" s="3"/>
-      <c r="N214" s="3"/>
-      <c r="O214" s="4"/>
-    </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A215" s="5" t="s">
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A215" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B215" s="3">
@@ -11153,11 +10697,8 @@
       <c r="J215" s="3"/>
       <c r="K215" s="3"/>
       <c r="L215" s="3"/>
-      <c r="M215" s="3"/>
-      <c r="N215" s="3"/>
-      <c r="O215" s="4"/>
-    </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>62</v>
       </c>
@@ -11186,11 +10727,8 @@
       <c r="J216" s="3"/>
       <c r="K216" s="3"/>
       <c r="L216" s="3"/>
-      <c r="M216" s="3"/>
-      <c r="N216" s="3"/>
-      <c r="O216" s="4"/>
-    </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>62</v>
       </c>
@@ -11219,12 +10757,9 @@
       <c r="J217" s="3"/>
       <c r="K217" s="3"/>
       <c r="L217" s="3"/>
-      <c r="M217" s="3"/>
-      <c r="N217" s="3"/>
-      <c r="O217" s="4"/>
-    </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A218" s="5" t="s">
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A218" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B218" s="3">
@@ -11252,12 +10787,9 @@
       <c r="J218" s="3"/>
       <c r="K218" s="3"/>
       <c r="L218" s="3"/>
-      <c r="M218" s="3"/>
-      <c r="N218" s="3"/>
-      <c r="O218" s="4"/>
-    </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A219" s="5" t="s">
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A219" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B219" s="3">
@@ -11285,12 +10817,9 @@
       <c r="J219" s="3"/>
       <c r="K219" s="3"/>
       <c r="L219" s="3"/>
-      <c r="M219" s="3"/>
-      <c r="N219" s="3"/>
-      <c r="O219" s="4"/>
-    </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A220" s="5" t="s">
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A220" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B220" s="3">
@@ -11318,12 +10847,9 @@
       <c r="J220" s="3"/>
       <c r="K220" s="3"/>
       <c r="L220" s="3"/>
-      <c r="M220" s="3"/>
-      <c r="N220" s="3"/>
-      <c r="O220" s="4"/>
-    </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A221" s="5" t="s">
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A221" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B221" s="3">
@@ -11351,11 +10877,8 @@
       <c r="J221" s="3"/>
       <c r="K221" s="3"/>
       <c r="L221" s="3"/>
-      <c r="M221" s="3"/>
-      <c r="N221" s="3"/>
-      <c r="O221" s="4"/>
-    </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>62</v>
       </c>
@@ -11384,12 +10907,9 @@
       <c r="J222" s="3"/>
       <c r="K222" s="3"/>
       <c r="L222" s="3"/>
-      <c r="M222" s="3"/>
-      <c r="N222" s="3"/>
-      <c r="O222" s="4"/>
-    </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A223" s="5" t="s">
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A223" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B223" s="3">
@@ -11417,11 +10937,8 @@
       <c r="J223" s="3"/>
       <c r="K223" s="3"/>
       <c r="L223" s="3"/>
-      <c r="M223" s="3"/>
-      <c r="N223" s="3"/>
-      <c r="O223" s="4"/>
-    </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>62</v>
       </c>
@@ -11450,12 +10967,9 @@
       <c r="J224" s="3"/>
       <c r="K224" s="3"/>
       <c r="L224" s="3"/>
-      <c r="M224" s="3"/>
-      <c r="N224" s="3"/>
-      <c r="O224" s="4"/>
-    </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A225" s="5" t="s">
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A225" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B225" s="3">
@@ -11483,12 +10997,9 @@
       <c r="J225" s="3"/>
       <c r="K225" s="3"/>
       <c r="L225" s="3"/>
-      <c r="M225" s="3"/>
-      <c r="N225" s="3"/>
-      <c r="O225" s="4"/>
-    </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A226" s="5" t="s">
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A226" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B226" s="3">
@@ -11516,12 +11027,9 @@
       <c r="J226" s="3"/>
       <c r="K226" s="3"/>
       <c r="L226" s="3"/>
-      <c r="M226" s="3"/>
-      <c r="N226" s="3"/>
-      <c r="O226" s="4"/>
-    </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A227" s="5" t="s">
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A227" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B227" s="3">
@@ -11549,12 +11057,9 @@
       <c r="J227" s="3"/>
       <c r="K227" s="3"/>
       <c r="L227" s="3"/>
-      <c r="M227" s="3"/>
-      <c r="N227" s="3"/>
-      <c r="O227" s="4"/>
-    </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A228" s="5" t="s">
+    </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A228" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B228" s="3">
@@ -11582,11 +11087,8 @@
       <c r="J228" s="3"/>
       <c r="K228" s="3"/>
       <c r="L228" s="3"/>
-      <c r="M228" s="3"/>
-      <c r="N228" s="3"/>
-      <c r="O228" s="4"/>
-    </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>62</v>
       </c>
@@ -11619,11 +11121,8 @@
       <c r="L229" s="3" t="s">
         <v>804</v>
       </c>
-      <c r="M229" s="3"/>
-      <c r="N229" s="3"/>
-      <c r="O229" s="4"/>
-    </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>62</v>
       </c>
@@ -11652,11 +11151,8 @@
       <c r="J230" s="3"/>
       <c r="K230" s="3"/>
       <c r="L230" s="3"/>
-      <c r="M230" s="3"/>
-      <c r="N230" s="3"/>
-      <c r="O230" s="4"/>
-    </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>62</v>
       </c>
@@ -11685,11 +11181,8 @@
       <c r="J231" s="3"/>
       <c r="K231" s="3"/>
       <c r="L231" s="3"/>
-      <c r="M231" s="3"/>
-      <c r="N231" s="3"/>
-      <c r="O231" s="4"/>
-    </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>62</v>
       </c>
@@ -11718,11 +11211,8 @@
       <c r="J232" s="3"/>
       <c r="K232" s="3"/>
       <c r="L232" s="3"/>
-      <c r="M232" s="3"/>
-      <c r="N232" s="3"/>
-      <c r="O232" s="4"/>
-    </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>62</v>
       </c>
@@ -11751,11 +11241,8 @@
       <c r="J233" s="3"/>
       <c r="K233" s="3"/>
       <c r="L233" s="3"/>
-      <c r="M233" s="3"/>
-      <c r="N233" s="3"/>
-      <c r="O233" s="4"/>
-    </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>62</v>
       </c>
@@ -11784,12 +11271,9 @@
       <c r="J234" s="3"/>
       <c r="K234" s="3"/>
       <c r="L234" s="3"/>
-      <c r="M234" s="3"/>
-      <c r="N234" s="3"/>
-      <c r="O234" s="4"/>
-    </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A235" s="5" t="s">
+    </row>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A235" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B235" s="3">
@@ -11817,12 +11301,9 @@
       <c r="J235" s="3"/>
       <c r="K235" s="3"/>
       <c r="L235" s="3"/>
-      <c r="M235" s="3"/>
-      <c r="N235" s="3"/>
-      <c r="O235" s="4"/>
-    </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A236" s="5" t="s">
+    </row>
+    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A236" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B236" s="3">
@@ -11850,12 +11331,9 @@
       <c r="J236" s="3"/>
       <c r="K236" s="3"/>
       <c r="L236" s="3"/>
-      <c r="M236" s="3"/>
-      <c r="N236" s="3"/>
-      <c r="O236" s="4"/>
-    </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A237" s="5" t="s">
+    </row>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A237" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B237" s="3">
@@ -11883,12 +11361,9 @@
       <c r="J237" s="3"/>
       <c r="K237" s="3"/>
       <c r="L237" s="3"/>
-      <c r="M237" s="3"/>
-      <c r="N237" s="3"/>
-      <c r="O237" s="4"/>
-    </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A238" s="5" t="s">
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A238" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B238" s="3">
@@ -11916,12 +11391,9 @@
       <c r="J238" s="3"/>
       <c r="K238" s="3"/>
       <c r="L238" s="3"/>
-      <c r="M238" s="3"/>
-      <c r="N238" s="3"/>
-      <c r="O238" s="4"/>
-    </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A239" s="5" t="s">
+    </row>
+    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A239" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B239" s="3">
@@ -11949,12 +11421,9 @@
       <c r="J239" s="3"/>
       <c r="K239" s="3"/>
       <c r="L239" s="3"/>
-      <c r="M239" s="3"/>
-      <c r="N239" s="3"/>
-      <c r="O239" s="4"/>
-    </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A240" s="5" t="s">
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A240" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B240" s="3">
@@ -11982,12 +11451,9 @@
       <c r="J240" s="3"/>
       <c r="K240" s="3"/>
       <c r="L240" s="3"/>
-      <c r="M240" s="3"/>
-      <c r="N240" s="3"/>
-      <c r="O240" s="4"/>
-    </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A241" s="5" t="s">
+    </row>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A241" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B241" s="3">
@@ -12015,11 +11481,8 @@
       <c r="J241" s="3"/>
       <c r="K241" s="3"/>
       <c r="L241" s="3"/>
-      <c r="M241" s="3"/>
-      <c r="N241" s="3"/>
-      <c r="O241" s="4"/>
-    </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>62</v>
       </c>
@@ -12048,11 +11511,8 @@
       <c r="J242" s="3"/>
       <c r="K242" s="3"/>
       <c r="L242" s="3"/>
-      <c r="M242" s="3"/>
-      <c r="N242" s="3"/>
-      <c r="O242" s="4"/>
-    </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>62</v>
       </c>
@@ -12081,11 +11541,8 @@
       <c r="J243" s="3"/>
       <c r="K243" s="3"/>
       <c r="L243" s="3"/>
-      <c r="M243" s="3"/>
-      <c r="N243" s="3"/>
-      <c r="O243" s="4"/>
-    </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>62</v>
       </c>
@@ -12114,11 +11571,8 @@
       <c r="J244" s="3"/>
       <c r="K244" s="3"/>
       <c r="L244" s="3"/>
-      <c r="M244" s="3"/>
-      <c r="N244" s="3"/>
-      <c r="O244" s="4"/>
-    </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>62</v>
       </c>
@@ -12147,11 +11601,8 @@
       <c r="J245" s="3"/>
       <c r="K245" s="3"/>
       <c r="L245" s="3"/>
-      <c r="M245" s="3"/>
-      <c r="N245" s="3"/>
-      <c r="O245" s="4"/>
-    </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>62</v>
       </c>
@@ -12180,11 +11631,8 @@
       <c r="J246" s="3"/>
       <c r="K246" s="3"/>
       <c r="L246" s="3"/>
-      <c r="M246" s="3"/>
-      <c r="N246" s="3"/>
-      <c r="O246" s="4"/>
-    </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>62</v>
       </c>
@@ -12213,11 +11661,8 @@
       <c r="J247" s="3"/>
       <c r="K247" s="3"/>
       <c r="L247" s="3"/>
-      <c r="M247" s="3"/>
-      <c r="N247" s="3"/>
-      <c r="O247" s="4"/>
-    </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>62</v>
       </c>
@@ -12246,12 +11691,9 @@
       <c r="J248" s="3"/>
       <c r="K248" s="3"/>
       <c r="L248" s="3"/>
-      <c r="M248" s="3"/>
-      <c r="N248" s="3"/>
-      <c r="O248" s="4"/>
-    </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A249" s="5" t="s">
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A249" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B249" s="3">
@@ -12279,12 +11721,9 @@
       <c r="J249" s="3"/>
       <c r="K249" s="3"/>
       <c r="L249" s="3"/>
-      <c r="M249" s="3"/>
-      <c r="N249" s="3"/>
-      <c r="O249" s="4"/>
-    </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A250" s="5" t="s">
+    </row>
+    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A250" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B250" s="3">
@@ -12312,12 +11751,9 @@
       <c r="J250" s="3"/>
       <c r="K250" s="3"/>
       <c r="L250" s="3"/>
-      <c r="M250" s="3"/>
-      <c r="N250" s="3"/>
-      <c r="O250" s="4"/>
-    </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A251" s="5" t="s">
+    </row>
+    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A251" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B251" s="3">
@@ -12345,12 +11781,9 @@
       <c r="J251" s="3"/>
       <c r="K251" s="3"/>
       <c r="L251" s="3"/>
-      <c r="M251" s="3"/>
-      <c r="N251" s="3"/>
-      <c r="O251" s="4"/>
-    </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A252" s="5" t="s">
+    </row>
+    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A252" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B252" s="3">
@@ -12378,12 +11811,9 @@
       <c r="J252" s="3"/>
       <c r="K252" s="3"/>
       <c r="L252" s="3"/>
-      <c r="M252" s="3"/>
-      <c r="N252" s="3"/>
-      <c r="O252" s="4"/>
-    </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A253" s="5" t="s">
+    </row>
+    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A253" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B253" s="3">
@@ -12411,12 +11841,9 @@
       <c r="J253" s="3"/>
       <c r="K253" s="3"/>
       <c r="L253" s="3"/>
-      <c r="M253" s="3"/>
-      <c r="N253" s="3"/>
-      <c r="O253" s="4"/>
-    </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A254" s="5" t="s">
+    </row>
+    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A254" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B254" s="3">
@@ -12444,12 +11871,9 @@
       <c r="J254" s="3"/>
       <c r="K254" s="3"/>
       <c r="L254" s="3"/>
-      <c r="M254" s="3"/>
-      <c r="N254" s="3"/>
-      <c r="O254" s="4"/>
-    </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A255" s="5" t="s">
+    </row>
+    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A255" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B255" s="3">
@@ -12477,11 +11901,8 @@
       <c r="J255" s="3"/>
       <c r="K255" s="3"/>
       <c r="L255" s="3"/>
-      <c r="M255" s="3"/>
-      <c r="N255" s="3"/>
-      <c r="O255" s="4"/>
-    </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>62</v>
       </c>
@@ -12510,11 +11931,8 @@
       <c r="J256" s="3"/>
       <c r="K256" s="3"/>
       <c r="L256" s="3"/>
-      <c r="M256" s="3"/>
-      <c r="N256" s="3"/>
-      <c r="O256" s="4"/>
-    </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>62</v>
       </c>
@@ -12543,11 +11961,8 @@
       <c r="J257" s="3"/>
       <c r="K257" s="3"/>
       <c r="L257" s="3"/>
-      <c r="M257" s="3"/>
-      <c r="N257" s="3"/>
-      <c r="O257" s="4"/>
-    </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>62</v>
       </c>
@@ -12576,11 +11991,8 @@
       <c r="J258" s="3"/>
       <c r="K258" s="3"/>
       <c r="L258" s="3"/>
-      <c r="M258" s="3"/>
-      <c r="N258" s="3"/>
-      <c r="O258" s="4"/>
-    </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>62</v>
       </c>
@@ -12609,11 +12021,8 @@
       <c r="J259" s="3"/>
       <c r="K259" s="3"/>
       <c r="L259" s="3"/>
-      <c r="M259" s="3"/>
-      <c r="N259" s="3"/>
-      <c r="O259" s="4"/>
-    </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>62</v>
       </c>
@@ -12642,11 +12051,8 @@
       <c r="J260" s="3"/>
       <c r="K260" s="3"/>
       <c r="L260" s="3"/>
-      <c r="M260" s="3"/>
-      <c r="N260" s="3"/>
-      <c r="O260" s="4"/>
-    </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>62</v>
       </c>
@@ -12675,12 +12081,9 @@
       <c r="J261" s="3"/>
       <c r="K261" s="3"/>
       <c r="L261" s="3"/>
-      <c r="M261" s="3"/>
-      <c r="N261" s="3"/>
-      <c r="O261" s="4"/>
-    </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A262" s="5" t="s">
+    </row>
+    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A262" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B262" s="3">
@@ -12708,12 +12111,9 @@
       <c r="J262" s="3"/>
       <c r="K262" s="3"/>
       <c r="L262" s="3"/>
-      <c r="M262" s="3"/>
-      <c r="N262" s="3"/>
-      <c r="O262" s="4"/>
-    </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A263" s="5" t="s">
+    </row>
+    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A263" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B263" s="3">
@@ -12741,12 +12141,9 @@
       <c r="J263" s="3"/>
       <c r="K263" s="3"/>
       <c r="L263" s="3"/>
-      <c r="M263" s="3"/>
-      <c r="N263" s="3"/>
-      <c r="O263" s="4"/>
-    </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A264" s="5" t="s">
+    </row>
+    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A264" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B264" s="3">
@@ -12774,12 +12171,9 @@
       <c r="J264" s="3"/>
       <c r="K264" s="3"/>
       <c r="L264" s="3"/>
-      <c r="M264" s="3"/>
-      <c r="N264" s="3"/>
-      <c r="O264" s="4"/>
-    </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A265" s="5" t="s">
+    </row>
+    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A265" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B265" s="3">
@@ -12807,12 +12201,9 @@
       <c r="J265" s="3"/>
       <c r="K265" s="3"/>
       <c r="L265" s="3"/>
-      <c r="M265" s="3"/>
-      <c r="N265" s="3"/>
-      <c r="O265" s="4"/>
-    </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A266" s="5" t="s">
+    </row>
+    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A266" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B266" s="3">
@@ -12840,42 +12231,36 @@
       <c r="J266" s="3"/>
       <c r="K266" s="3"/>
       <c r="L266" s="3"/>
-      <c r="M266" s="3"/>
-      <c r="N266" s="3"/>
-      <c r="O266" s="4"/>
-    </row>
-    <row r="267" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A267" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B267" s="9">
+    </row>
+    <row r="267" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A267" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B267" s="8">
         <v>38</v>
       </c>
-      <c r="C267" s="9" t="s">
+      <c r="C267" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="D267" s="9" t="s">
+      <c r="D267" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="E267" s="9">
+      <c r="E267" s="8">
         <v>23</v>
       </c>
-      <c r="F267" s="9" t="s">
+      <c r="F267" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="G267" s="9" t="s">
+      <c r="G267" s="8" t="s">
         <v>866</v>
       </c>
-      <c r="H267" s="9" t="s">
+      <c r="H267" s="8" t="s">
         <v>867</v>
       </c>
-      <c r="I267" s="9"/>
-      <c r="J267" s="9"/>
-      <c r="K267" s="9"/>
-      <c r="L267" s="9"/>
-      <c r="M267" s="9"/>
-      <c r="N267" s="9"/>
-      <c r="O267" s="10"/>
+      <c r="I267" s="8"/>
+      <c r="J267" s="8"/>
+      <c r="K267" s="8"/>
+      <c r="L267" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/Doc/DWA_studyarea_Grid.xlsx
+++ b/Doc/DWA_studyarea_Grid.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Envimaster\DWA\Doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DWA\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29945B48-23C8-4D92-9F9B-7552D1637E7E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF162C4-498B-40FB-BF7C-3C7F9F306491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3330" yWindow="1515" windowWidth="14400" windowHeight="7245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DWA_studyarea_Grid" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1806" uniqueCount="898">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1806" uniqueCount="899">
   <si>
     <t>romanNr</t>
   </si>
@@ -2714,6 +2714,9 @@
   </si>
   <si>
     <t>GeoRef Processed</t>
+  </si>
+  <si>
+    <t>II_60_0091</t>
   </si>
 </sst>
 </file>
@@ -3273,7 +3276,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3288,50 +3291,52 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3347,7 +3352,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3645,29 +3650,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R267"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W7" sqref="W7"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="6.28515625" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" customWidth="1"/>
-    <col min="4" max="4" width="4.85546875" customWidth="1"/>
-    <col min="5" max="5" width="6.140625" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" style="13" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" style="13" customWidth="1"/>
-    <col min="15" max="18" width="8.7109375" style="13"/>
+    <col min="2" max="2" width="6.26953125" customWidth="1"/>
+    <col min="3" max="3" width="7.54296875" customWidth="1"/>
+    <col min="4" max="4" width="4.81640625" customWidth="1"/>
+    <col min="5" max="5" width="6.1796875" customWidth="1"/>
+    <col min="6" max="6" width="7.453125" customWidth="1"/>
+    <col min="7" max="7" width="12.54296875" customWidth="1"/>
+    <col min="8" max="8" width="15.54296875" customWidth="1"/>
+    <col min="9" max="9" width="12.54296875" customWidth="1"/>
+    <col min="10" max="10" width="11.26953125" customWidth="1"/>
+    <col min="11" max="11" width="13.453125" customWidth="1"/>
+    <col min="12" max="12" width="12.26953125" customWidth="1"/>
+    <col min="13" max="13" width="12.7265625" style="13" customWidth="1"/>
+    <col min="14" max="14" width="12.54296875" style="13" customWidth="1"/>
+    <col min="15" max="18" width="8.7265625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -3720,7 +3725,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -3739,18 +3744,24 @@
       <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>871</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>872</v>
       </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -3780,7 +3791,7 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -3810,7 +3821,7 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -3829,20 +3840,26 @@
       <c r="F5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>877</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>878</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="2" t="s">
         <v>889</v>
       </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -3861,20 +3878,26 @@
       <c r="F6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>879</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="2" t="s">
         <v>880</v>
       </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3" t="s">
+      <c r="I6" s="2"/>
+      <c r="J6" s="2" t="s">
         <v>889</v>
       </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -3893,18 +3916,24 @@
       <c r="F7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="2" t="s">
         <v>881</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="2" t="s">
         <v>882</v>
       </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -3923,18 +3952,24 @@
       <c r="F8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="2" t="s">
         <v>883</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="2" t="s">
         <v>884</v>
       </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -3953,18 +3988,24 @@
       <c r="F9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="2" t="s">
         <v>885</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="2" t="s">
         <v>886</v>
       </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
@@ -3994,7 +4035,7 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
@@ -4024,7 +4065,7 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>8</v>
       </c>
@@ -4054,7 +4095,7 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>8</v>
       </c>
@@ -4084,7 +4125,7 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>8</v>
       </c>
@@ -4116,7 +4157,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>8</v>
       </c>
@@ -4148,7 +4189,7 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
@@ -4167,18 +4208,24 @@
       <c r="F16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
@@ -4197,18 +4244,24 @@
       <c r="F17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
@@ -4227,18 +4280,24 @@
       <c r="F18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
@@ -4257,18 +4316,24 @@
       <c r="F19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
@@ -4287,18 +4352,24 @@
       <c r="F20" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H20" s="15" t="s">
+        <v>898</v>
+      </c>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>8</v>
       </c>
@@ -4328,7 +4399,7 @@
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>8</v>
       </c>
@@ -4358,7 +4429,7 @@
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
@@ -4377,18 +4448,24 @@
       <c r="F23" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G23" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="H23" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>8</v>
       </c>
@@ -4407,18 +4484,24 @@
       <c r="F24" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G24" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="H24" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>8</v>
       </c>
@@ -4437,18 +4520,24 @@
       <c r="F25" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="G25" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="H25" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
         <v>8</v>
       </c>
@@ -4478,7 +4567,7 @@
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>8</v>
       </c>
@@ -4508,7 +4597,7 @@
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>8</v>
       </c>
@@ -4538,7 +4627,7 @@
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
         <v>8</v>
       </c>
@@ -4568,7 +4657,7 @@
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
@@ -4587,18 +4676,24 @@
       <c r="F30" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="G30" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="H30" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="14"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>8</v>
       </c>
@@ -4617,18 +4712,24 @@
       <c r="F31" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="G31" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="H31" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="14"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>8</v>
       </c>
@@ -4647,18 +4748,24 @@
       <c r="F32" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="G32" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="H32" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="14"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
         <v>8</v>
       </c>
@@ -4688,7 +4795,7 @@
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
         <v>8</v>
       </c>
@@ -4718,7 +4825,7 @@
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
         <v>8</v>
       </c>
@@ -4748,7 +4855,7 @@
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>8</v>
       </c>
@@ -4767,18 +4874,24 @@
       <c r="F36" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G36" s="3" t="s">
+      <c r="G36" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="H36" s="3" t="s">
+      <c r="H36" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="14"/>
+      <c r="Q36" s="14"/>
+      <c r="R36" s="14"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>8</v>
       </c>
@@ -4797,18 +4910,24 @@
       <c r="F37" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G37" s="3" t="s">
+      <c r="G37" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="H37" s="3" t="s">
+      <c r="H37" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="14"/>
+      <c r="P37" s="14"/>
+      <c r="Q37" s="14"/>
+      <c r="R37" s="14"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
         <v>62</v>
       </c>
@@ -4841,7 +4960,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
         <v>62</v>
       </c>
@@ -4874,7 +4993,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
         <v>62</v>
       </c>
@@ -4907,7 +5026,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
         <v>62</v>
       </c>
@@ -4940,7 +5059,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
         <v>62</v>
       </c>
@@ -4973,7 +5092,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>62</v>
       </c>
@@ -4992,21 +5111,26 @@
       <c r="F43" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G43" s="3" t="s">
+      <c r="G43" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="H43" s="3" t="s">
+      <c r="H43" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="N43" s="14"/>
+      <c r="O43" s="14"/>
+      <c r="P43" s="14"/>
+      <c r="Q43" s="14"/>
+      <c r="R43" s="14"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>62</v>
       </c>
@@ -5025,21 +5149,26 @@
       <c r="F44" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G44" s="3" t="s">
+      <c r="G44" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="H44" s="3" t="s">
+      <c r="H44" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="N44" s="14"/>
+      <c r="O44" s="14"/>
+      <c r="P44" s="14"/>
+      <c r="Q44" s="14"/>
+      <c r="R44" s="14"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>62</v>
       </c>
@@ -5058,21 +5187,26 @@
       <c r="F45" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G45" s="3" t="s">
+      <c r="G45" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="H45" s="3" t="s">
+      <c r="H45" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
-      <c r="M45" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="N45" s="14"/>
+      <c r="O45" s="14"/>
+      <c r="P45" s="14"/>
+      <c r="Q45" s="14"/>
+      <c r="R45" s="14"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>62</v>
       </c>
@@ -5091,21 +5225,26 @@
       <c r="F46" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G46" s="3" t="s">
+      <c r="G46" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="H46" s="3" t="s">
+      <c r="H46" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
-      <c r="M46" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="N46" s="14"/>
+      <c r="O46" s="14"/>
+      <c r="P46" s="14"/>
+      <c r="Q46" s="14"/>
+      <c r="R46" s="14"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>62</v>
       </c>
@@ -5124,21 +5263,26 @@
       <c r="F47" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G47" s="3" t="s">
+      <c r="G47" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="H47" s="3" t="s">
+      <c r="H47" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="N47" s="14"/>
+      <c r="O47" s="14"/>
+      <c r="P47" s="14"/>
+      <c r="Q47" s="14"/>
+      <c r="R47" s="14"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>62</v>
       </c>
@@ -5157,21 +5301,26 @@
       <c r="F48" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G48" s="3" t="s">
+      <c r="G48" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="H48" s="3" t="s">
+      <c r="H48" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
-      <c r="M48" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="N48" s="14"/>
+      <c r="O48" s="14"/>
+      <c r="P48" s="14"/>
+      <c r="Q48" s="14"/>
+      <c r="R48" s="14"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>62</v>
       </c>
@@ -5190,21 +5339,26 @@
       <c r="F49" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G49" s="3" t="s">
+      <c r="G49" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="H49" s="3" t="s">
+      <c r="H49" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
-      <c r="M49" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="N49" s="14"/>
+      <c r="O49" s="14"/>
+      <c r="P49" s="14"/>
+      <c r="Q49" s="14"/>
+      <c r="R49" s="14"/>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>62</v>
       </c>
@@ -5223,21 +5377,26 @@
       <c r="F50" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G50" s="3" t="s">
+      <c r="G50" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="H50" s="3" t="s">
+      <c r="H50" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
-      <c r="M50" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="N50" s="14"/>
+      <c r="O50" s="14"/>
+      <c r="P50" s="14"/>
+      <c r="Q50" s="14"/>
+      <c r="R50" s="14"/>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>62</v>
       </c>
@@ -5256,21 +5415,26 @@
       <c r="F51" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G51" s="3" t="s">
+      <c r="G51" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="H51" s="3" t="s">
+      <c r="H51" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
-      <c r="L51" s="3"/>
-      <c r="M51" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="N51" s="14"/>
+      <c r="O51" s="14"/>
+      <c r="P51" s="14"/>
+      <c r="Q51" s="14"/>
+      <c r="R51" s="14"/>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A52" s="4" t="s">
         <v>62</v>
       </c>
@@ -5303,7 +5467,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="s">
         <v>62</v>
       </c>
@@ -5336,7 +5500,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
         <v>62</v>
       </c>
@@ -5369,7 +5533,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A55" s="4" t="s">
         <v>62</v>
       </c>
@@ -5402,7 +5566,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A56" s="4" t="s">
         <v>62</v>
       </c>
@@ -5435,7 +5599,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="s">
         <v>62</v>
       </c>
@@ -5468,7 +5632,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A58" s="4" t="s">
         <v>62</v>
       </c>
@@ -5501,7 +5665,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A59" s="4" t="s">
         <v>62</v>
       </c>
@@ -5534,7 +5698,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>62</v>
       </c>
@@ -5553,21 +5717,26 @@
       <c r="F60" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G60" s="3" t="s">
+      <c r="G60" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="H60" s="3" t="s">
+      <c r="H60" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
-      <c r="K60" s="3"/>
-      <c r="L60" s="3"/>
-      <c r="M60" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="N60" s="14"/>
+      <c r="O60" s="14"/>
+      <c r="P60" s="14"/>
+      <c r="Q60" s="14"/>
+      <c r="R60" s="14"/>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>62</v>
       </c>
@@ -5586,21 +5755,26 @@
       <c r="F61" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G61" s="3" t="s">
+      <c r="G61" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="H61" s="3" t="s">
+      <c r="H61" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="I61" s="3"/>
-      <c r="J61" s="3"/>
-      <c r="K61" s="3"/>
-      <c r="L61" s="3"/>
-      <c r="M61" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
+      <c r="M61" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="N61" s="14"/>
+      <c r="O61" s="14"/>
+      <c r="P61" s="14"/>
+      <c r="Q61" s="14"/>
+      <c r="R61" s="14"/>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>62</v>
       </c>
@@ -5619,21 +5793,26 @@
       <c r="F62" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G62" s="3" t="s">
+      <c r="G62" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="H62" s="3" t="s">
+      <c r="H62" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
-      <c r="K62" s="3"/>
-      <c r="L62" s="3"/>
-      <c r="M62" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
+      <c r="M62" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="N62" s="14"/>
+      <c r="O62" s="14"/>
+      <c r="P62" s="14"/>
+      <c r="Q62" s="14"/>
+      <c r="R62" s="14"/>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>62</v>
       </c>
@@ -5652,21 +5831,26 @@
       <c r="F63" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G63" s="3" t="s">
+      <c r="G63" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="H63" s="3" t="s">
+      <c r="H63" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="I63" s="3"/>
-      <c r="J63" s="3"/>
-      <c r="K63" s="3"/>
-      <c r="L63" s="3"/>
-      <c r="M63" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
+      <c r="M63" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="N63" s="14"/>
+      <c r="O63" s="14"/>
+      <c r="P63" s="14"/>
+      <c r="Q63" s="14"/>
+      <c r="R63" s="14"/>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>62</v>
       </c>
@@ -5685,21 +5869,26 @@
       <c r="F64" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G64" s="3" t="s">
+      <c r="G64" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="H64" s="3" t="s">
+      <c r="H64" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="I64" s="3"/>
-      <c r="J64" s="3"/>
-      <c r="K64" s="3"/>
-      <c r="L64" s="3"/>
-      <c r="M64" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
+      <c r="L64" s="2"/>
+      <c r="M64" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="N64" s="14"/>
+      <c r="O64" s="14"/>
+      <c r="P64" s="14"/>
+      <c r="Q64" s="14"/>
+      <c r="R64" s="14"/>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>62</v>
       </c>
@@ -5718,21 +5907,26 @@
       <c r="F65" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G65" s="3" t="s">
+      <c r="G65" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="H65" s="3" t="s">
+      <c r="H65" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="I65" s="3"/>
-      <c r="J65" s="3"/>
-      <c r="K65" s="3"/>
-      <c r="L65" s="3"/>
-      <c r="M65" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
+      <c r="L65" s="2"/>
+      <c r="M65" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="N65" s="14"/>
+      <c r="O65" s="14"/>
+      <c r="P65" s="14"/>
+      <c r="Q65" s="14"/>
+      <c r="R65" s="14"/>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>62</v>
       </c>
@@ -5751,21 +5945,26 @@
       <c r="F66" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="G66" s="3" t="s">
+      <c r="G66" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="H66" s="3" t="s">
+      <c r="H66" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="I66" s="3"/>
-      <c r="J66" s="3"/>
-      <c r="K66" s="3"/>
-      <c r="L66" s="3"/>
-      <c r="M66" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="2"/>
+      <c r="L66" s="2"/>
+      <c r="M66" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="N66" s="14"/>
+      <c r="O66" s="14"/>
+      <c r="P66" s="14"/>
+      <c r="Q66" s="14"/>
+      <c r="R66" s="14"/>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>62</v>
       </c>
@@ -5784,21 +5983,26 @@
       <c r="F67" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G67" s="3" t="s">
+      <c r="G67" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="H67" s="3" t="s">
+      <c r="H67" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="I67" s="3"/>
-      <c r="J67" s="3"/>
-      <c r="K67" s="3"/>
-      <c r="L67" s="3"/>
-      <c r="M67" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2"/>
+      <c r="M67" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="N67" s="14"/>
+      <c r="O67" s="14"/>
+      <c r="P67" s="14"/>
+      <c r="Q67" s="14"/>
+      <c r="R67" s="14"/>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A68" s="4" t="s">
         <v>62</v>
       </c>
@@ -5831,7 +6035,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A69" s="4" t="s">
         <v>62</v>
       </c>
@@ -5864,7 +6068,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A70" s="4" t="s">
         <v>62</v>
       </c>
@@ -5897,7 +6101,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A71" s="4" t="s">
         <v>62</v>
       </c>
@@ -5930,7 +6134,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A72" s="4" t="s">
         <v>62</v>
       </c>
@@ -5963,7 +6167,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A73" s="4" t="s">
         <v>62</v>
       </c>
@@ -5996,7 +6200,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A74" s="4" t="s">
         <v>62</v>
       </c>
@@ -6029,7 +6233,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>62</v>
       </c>
@@ -6048,21 +6252,26 @@
       <c r="F75" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="G75" s="3" t="s">
+      <c r="G75" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="H75" s="3" t="s">
+      <c r="H75" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="I75" s="3"/>
-      <c r="J75" s="3"/>
-      <c r="K75" s="3"/>
-      <c r="L75" s="3"/>
-      <c r="M75" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2"/>
+      <c r="L75" s="2"/>
+      <c r="M75" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="N75" s="14"/>
+      <c r="O75" s="14"/>
+      <c r="P75" s="14"/>
+      <c r="Q75" s="14"/>
+      <c r="R75" s="14"/>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>62</v>
       </c>
@@ -6081,21 +6290,26 @@
       <c r="F76" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="G76" s="3" t="s">
+      <c r="G76" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="H76" s="3" t="s">
+      <c r="H76" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="I76" s="3"/>
-      <c r="J76" s="3"/>
-      <c r="K76" s="3"/>
-      <c r="L76" s="3"/>
-      <c r="M76" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
+      <c r="L76" s="2"/>
+      <c r="M76" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="N76" s="14"/>
+      <c r="O76" s="14"/>
+      <c r="P76" s="14"/>
+      <c r="Q76" s="14"/>
+      <c r="R76" s="14"/>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>62</v>
       </c>
@@ -6114,21 +6328,26 @@
       <c r="F77" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="G77" s="3" t="s">
+      <c r="G77" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="H77" s="3" t="s">
+      <c r="H77" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="I77" s="3"/>
-      <c r="J77" s="3"/>
-      <c r="K77" s="3"/>
-      <c r="L77" s="3"/>
-      <c r="M77" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+      <c r="K77" s="2"/>
+      <c r="L77" s="2"/>
+      <c r="M77" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="N77" s="14"/>
+      <c r="O77" s="14"/>
+      <c r="P77" s="14"/>
+      <c r="Q77" s="14"/>
+      <c r="R77" s="14"/>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>62</v>
       </c>
@@ -6147,21 +6366,26 @@
       <c r="F78" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="G78" s="3" t="s">
+      <c r="G78" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="H78" s="3" t="s">
+      <c r="H78" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="I78" s="3"/>
-      <c r="J78" s="3"/>
-      <c r="K78" s="3"/>
-      <c r="L78" s="3"/>
-      <c r="M78" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2"/>
+      <c r="M78" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="N78" s="14"/>
+      <c r="O78" s="14"/>
+      <c r="P78" s="14"/>
+      <c r="Q78" s="14"/>
+      <c r="R78" s="14"/>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>62</v>
       </c>
@@ -6180,21 +6404,26 @@
       <c r="F79" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="G79" s="3" t="s">
+      <c r="G79" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="H79" s="3" t="s">
+      <c r="H79" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="I79" s="3"/>
-      <c r="J79" s="3"/>
-      <c r="K79" s="3"/>
-      <c r="L79" s="3"/>
-      <c r="M79" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I79" s="2"/>
+      <c r="J79" s="2"/>
+      <c r="K79" s="2"/>
+      <c r="L79" s="2"/>
+      <c r="M79" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="N79" s="14"/>
+      <c r="O79" s="14"/>
+      <c r="P79" s="14"/>
+      <c r="Q79" s="14"/>
+      <c r="R79" s="14"/>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>62</v>
       </c>
@@ -6213,21 +6442,26 @@
       <c r="F80" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="G80" s="3" t="s">
+      <c r="G80" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="H80" s="3" t="s">
+      <c r="H80" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="I80" s="3"/>
-      <c r="J80" s="3"/>
-      <c r="K80" s="3"/>
-      <c r="L80" s="3"/>
-      <c r="M80" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I80" s="2"/>
+      <c r="J80" s="2"/>
+      <c r="K80" s="2"/>
+      <c r="L80" s="2"/>
+      <c r="M80" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="N80" s="14"/>
+      <c r="O80" s="14"/>
+      <c r="P80" s="14"/>
+      <c r="Q80" s="14"/>
+      <c r="R80" s="14"/>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>62</v>
       </c>
@@ -6246,21 +6480,26 @@
       <c r="F81" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="G81" s="3" t="s">
+      <c r="G81" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="H81" s="3" t="s">
+      <c r="H81" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="I81" s="3"/>
-      <c r="J81" s="3"/>
-      <c r="K81" s="3"/>
-      <c r="L81" s="3"/>
-      <c r="M81" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I81" s="2"/>
+      <c r="J81" s="2"/>
+      <c r="K81" s="2"/>
+      <c r="L81" s="2"/>
+      <c r="M81" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="N81" s="14"/>
+      <c r="O81" s="14"/>
+      <c r="P81" s="14"/>
+      <c r="Q81" s="14"/>
+      <c r="R81" s="14"/>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A82" s="4" t="s">
         <v>62</v>
       </c>
@@ -6293,7 +6532,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A83" s="4" t="s">
         <v>62</v>
       </c>
@@ -6326,7 +6565,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A84" s="4" t="s">
         <v>62</v>
       </c>
@@ -6359,7 +6598,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A85" s="4" t="s">
         <v>62</v>
       </c>
@@ -6392,7 +6631,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A86" s="4" t="s">
         <v>62</v>
       </c>
@@ -6425,7 +6664,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A87" s="4" t="s">
         <v>62</v>
       </c>
@@ -6458,7 +6697,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A88" s="4" t="s">
         <v>62</v>
       </c>
@@ -6491,7 +6730,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A89" s="5" t="s">
         <v>62</v>
       </c>
@@ -6524,7 +6763,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A90" s="5" t="s">
         <v>62</v>
       </c>
@@ -6557,7 +6796,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A91" s="5" t="s">
         <v>62</v>
       </c>
@@ -6590,7 +6829,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A92" s="5" t="s">
         <v>62</v>
       </c>
@@ -6623,7 +6862,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A93" s="5" t="s">
         <v>62</v>
       </c>
@@ -6656,7 +6895,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A94" s="5" t="s">
         <v>62</v>
       </c>
@@ -6689,7 +6928,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A95" s="5" t="s">
         <v>62</v>
       </c>
@@ -6722,7 +6961,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
         <v>62</v>
       </c>
@@ -6741,21 +6980,26 @@
       <c r="F96" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="G96" s="3" t="s">
+      <c r="G96" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="H96" s="3" t="s">
+      <c r="H96" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="I96" s="3"/>
-      <c r="J96" s="3"/>
-      <c r="K96" s="3"/>
-      <c r="L96" s="3"/>
-      <c r="M96" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I96" s="2"/>
+      <c r="J96" s="2"/>
+      <c r="K96" s="2"/>
+      <c r="L96" s="2"/>
+      <c r="M96" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="N96" s="14"/>
+      <c r="O96" s="14"/>
+      <c r="P96" s="14"/>
+      <c r="Q96" s="14"/>
+      <c r="R96" s="14"/>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
         <v>62</v>
       </c>
@@ -6774,21 +7018,26 @@
       <c r="F97" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="G97" s="3" t="s">
+      <c r="G97" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="H97" s="3" t="s">
+      <c r="H97" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="I97" s="3"/>
-      <c r="J97" s="3"/>
-      <c r="K97" s="3"/>
-      <c r="L97" s="3"/>
-      <c r="M97" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I97" s="2"/>
+      <c r="J97" s="2"/>
+      <c r="K97" s="2"/>
+      <c r="L97" s="2"/>
+      <c r="M97" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="N97" s="14"/>
+      <c r="O97" s="14"/>
+      <c r="P97" s="14"/>
+      <c r="Q97" s="14"/>
+      <c r="R97" s="14"/>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
         <v>62</v>
       </c>
@@ -6807,21 +7056,26 @@
       <c r="F98" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="G98" s="3" t="s">
+      <c r="G98" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="H98" s="3" t="s">
+      <c r="H98" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="I98" s="3"/>
-      <c r="J98" s="3"/>
-      <c r="K98" s="3"/>
-      <c r="L98" s="3"/>
-      <c r="M98" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I98" s="2"/>
+      <c r="J98" s="2"/>
+      <c r="K98" s="2"/>
+      <c r="L98" s="2"/>
+      <c r="M98" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="N98" s="14"/>
+      <c r="O98" s="14"/>
+      <c r="P98" s="14"/>
+      <c r="Q98" s="14"/>
+      <c r="R98" s="14"/>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
         <v>62</v>
       </c>
@@ -6840,21 +7094,26 @@
       <c r="F99" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="G99" s="3" t="s">
+      <c r="G99" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="H99" s="3" t="s">
+      <c r="H99" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="I99" s="3"/>
-      <c r="J99" s="3"/>
-      <c r="K99" s="3"/>
-      <c r="L99" s="3"/>
-      <c r="M99" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I99" s="2"/>
+      <c r="J99" s="2"/>
+      <c r="K99" s="2"/>
+      <c r="L99" s="2"/>
+      <c r="M99" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="N99" s="14"/>
+      <c r="O99" s="14"/>
+      <c r="P99" s="14"/>
+      <c r="Q99" s="14"/>
+      <c r="R99" s="14"/>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>62</v>
       </c>
@@ -6873,21 +7132,26 @@
       <c r="F100" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="G100" s="3" t="s">
+      <c r="G100" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="H100" s="3" t="s">
+      <c r="H100" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="I100" s="3"/>
-      <c r="J100" s="3"/>
-      <c r="K100" s="3"/>
-      <c r="L100" s="3"/>
-      <c r="M100" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I100" s="2"/>
+      <c r="J100" s="2"/>
+      <c r="K100" s="2"/>
+      <c r="L100" s="2"/>
+      <c r="M100" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="N100" s="14"/>
+      <c r="O100" s="14"/>
+      <c r="P100" s="14"/>
+      <c r="Q100" s="14"/>
+      <c r="R100" s="14"/>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>62</v>
       </c>
@@ -6906,21 +7170,26 @@
       <c r="F101" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="G101" s="3" t="s">
+      <c r="G101" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="H101" s="3" t="s">
+      <c r="H101" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="I101" s="3"/>
-      <c r="J101" s="3"/>
-      <c r="K101" s="3"/>
-      <c r="L101" s="3"/>
-      <c r="M101" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I101" s="2"/>
+      <c r="J101" s="2"/>
+      <c r="K101" s="2"/>
+      <c r="L101" s="2"/>
+      <c r="M101" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="N101" s="14"/>
+      <c r="O101" s="14"/>
+      <c r="P101" s="14"/>
+      <c r="Q101" s="14"/>
+      <c r="R101" s="14"/>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>62</v>
       </c>
@@ -6939,21 +7208,26 @@
       <c r="F102" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="G102" s="3" t="s">
+      <c r="G102" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="H102" s="3" t="s">
+      <c r="H102" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="I102" s="3"/>
-      <c r="J102" s="3"/>
-      <c r="K102" s="3"/>
-      <c r="L102" s="3"/>
-      <c r="M102" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I102" s="2"/>
+      <c r="J102" s="2"/>
+      <c r="K102" s="2"/>
+      <c r="L102" s="2"/>
+      <c r="M102" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="N102" s="14"/>
+      <c r="O102" s="14"/>
+      <c r="P102" s="14"/>
+      <c r="Q102" s="14"/>
+      <c r="R102" s="14"/>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>62</v>
       </c>
@@ -6972,21 +7246,26 @@
       <c r="F103" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="G103" s="3" t="s">
+      <c r="G103" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="H103" s="3" t="s">
+      <c r="H103" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="I103" s="3"/>
-      <c r="J103" s="3"/>
-      <c r="K103" s="3"/>
-      <c r="L103" s="3"/>
-      <c r="M103" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I103" s="2"/>
+      <c r="J103" s="2"/>
+      <c r="K103" s="2"/>
+      <c r="L103" s="2"/>
+      <c r="M103" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="N103" s="14"/>
+      <c r="O103" s="14"/>
+      <c r="P103" s="14"/>
+      <c r="Q103" s="14"/>
+      <c r="R103" s="14"/>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>62</v>
       </c>
@@ -7005,21 +7284,26 @@
       <c r="F104" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="G104" s="3" t="s">
+      <c r="G104" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="H104" s="3" t="s">
+      <c r="H104" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="I104" s="3"/>
-      <c r="J104" s="3"/>
-      <c r="K104" s="3"/>
-      <c r="L104" s="3"/>
-      <c r="M104" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I104" s="2"/>
+      <c r="J104" s="2"/>
+      <c r="K104" s="2"/>
+      <c r="L104" s="2"/>
+      <c r="M104" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="N104" s="14"/>
+      <c r="O104" s="14"/>
+      <c r="P104" s="14"/>
+      <c r="Q104" s="14"/>
+      <c r="R104" s="14"/>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
         <v>62</v>
       </c>
@@ -7038,21 +7322,26 @@
       <c r="F105" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="G105" s="3" t="s">
+      <c r="G105" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="H105" s="3" t="s">
+      <c r="H105" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="I105" s="3"/>
-      <c r="J105" s="3"/>
-      <c r="K105" s="3"/>
-      <c r="L105" s="3"/>
-      <c r="M105" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I105" s="2"/>
+      <c r="J105" s="2"/>
+      <c r="K105" s="2"/>
+      <c r="L105" s="2"/>
+      <c r="M105" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="N105" s="14"/>
+      <c r="O105" s="14"/>
+      <c r="P105" s="14"/>
+      <c r="Q105" s="14"/>
+      <c r="R105" s="14"/>
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
         <v>62</v>
       </c>
@@ -7071,21 +7360,26 @@
       <c r="F106" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="G106" s="3" t="s">
+      <c r="G106" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="H106" s="3" t="s">
+      <c r="H106" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="I106" s="3"/>
-      <c r="J106" s="3"/>
-      <c r="K106" s="3"/>
-      <c r="L106" s="3"/>
-      <c r="M106" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I106" s="2"/>
+      <c r="J106" s="2"/>
+      <c r="K106" s="2"/>
+      <c r="L106" s="2"/>
+      <c r="M106" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="N106" s="14"/>
+      <c r="O106" s="14"/>
+      <c r="P106" s="14"/>
+      <c r="Q106" s="14"/>
+      <c r="R106" s="14"/>
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
         <v>62</v>
       </c>
@@ -7104,21 +7398,26 @@
       <c r="F107" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="G107" s="3" t="s">
+      <c r="G107" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="H107" s="3" t="s">
+      <c r="H107" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="I107" s="3"/>
-      <c r="J107" s="3"/>
-      <c r="K107" s="3"/>
-      <c r="L107" s="3"/>
-      <c r="M107" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I107" s="2"/>
+      <c r="J107" s="2"/>
+      <c r="K107" s="2"/>
+      <c r="L107" s="2"/>
+      <c r="M107" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="N107" s="14"/>
+      <c r="O107" s="14"/>
+      <c r="P107" s="14"/>
+      <c r="Q107" s="14"/>
+      <c r="R107" s="14"/>
+    </row>
+    <row r="108" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
         <v>62</v>
       </c>
@@ -7137,21 +7436,26 @@
       <c r="F108" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="G108" s="3" t="s">
+      <c r="G108" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="H108" s="3" t="s">
+      <c r="H108" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="I108" s="3"/>
-      <c r="J108" s="3"/>
-      <c r="K108" s="3"/>
-      <c r="L108" s="3"/>
-      <c r="M108" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I108" s="2"/>
+      <c r="J108" s="2"/>
+      <c r="K108" s="2"/>
+      <c r="L108" s="2"/>
+      <c r="M108" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="N108" s="14"/>
+      <c r="O108" s="14"/>
+      <c r="P108" s="14"/>
+      <c r="Q108" s="14"/>
+      <c r="R108" s="14"/>
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
         <v>62</v>
       </c>
@@ -7170,21 +7474,26 @@
       <c r="F109" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="G109" s="3" t="s">
+      <c r="G109" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="H109" s="3" t="s">
+      <c r="H109" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="I109" s="3"/>
-      <c r="J109" s="3"/>
-      <c r="K109" s="3"/>
-      <c r="L109" s="3"/>
-      <c r="M109" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I109" s="2"/>
+      <c r="J109" s="2"/>
+      <c r="K109" s="2"/>
+      <c r="L109" s="2"/>
+      <c r="M109" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="N109" s="14"/>
+      <c r="O109" s="14"/>
+      <c r="P109" s="14"/>
+      <c r="Q109" s="14"/>
+      <c r="R109" s="14"/>
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A110" s="4" t="s">
         <v>62</v>
       </c>
@@ -7217,7 +7526,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A111" s="4" t="s">
         <v>62</v>
       </c>
@@ -7250,7 +7559,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A112" s="4" t="s">
         <v>62</v>
       </c>
@@ -7283,7 +7592,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A113" s="4" t="s">
         <v>62</v>
       </c>
@@ -7316,7 +7625,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A114" s="4" t="s">
         <v>62</v>
       </c>
@@ -7349,7 +7658,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A115" s="4" t="s">
         <v>62</v>
       </c>
@@ -7382,7 +7691,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A116" s="4" t="s">
         <v>62</v>
       </c>
@@ -7415,7 +7724,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A117" s="4" t="s">
         <v>62</v>
       </c>
@@ -7448,7 +7757,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A118" s="4" t="s">
         <v>62</v>
       </c>
@@ -7481,7 +7790,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A119" s="4" t="s">
         <v>62</v>
       </c>
@@ -7514,7 +7823,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A120" s="4" t="s">
         <v>62</v>
       </c>
@@ -7547,7 +7856,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A121" s="4" t="s">
         <v>62</v>
       </c>
@@ -7580,7 +7889,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A122" s="4" t="s">
         <v>62</v>
       </c>
@@ -7613,7 +7922,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A123" s="4" t="s">
         <v>62</v>
       </c>
@@ -7646,7 +7955,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
         <v>62</v>
       </c>
@@ -7665,26 +7974,30 @@
       <c r="F124" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="G124" s="3" t="s">
+      <c r="G124" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="H124" s="3" t="s">
+      <c r="H124" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="I124" s="3"/>
-      <c r="J124" s="3" t="s">
+      <c r="I124" s="2"/>
+      <c r="J124" s="2" t="s">
         <v>891</v>
       </c>
-      <c r="K124" s="3"/>
-      <c r="L124" s="3"/>
-      <c r="M124" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="N124" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K124" s="2"/>
+      <c r="L124" s="2"/>
+      <c r="M124" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="N124" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="O124" s="14"/>
+      <c r="P124" s="14"/>
+      <c r="Q124" s="14"/>
+      <c r="R124" s="14"/>
+    </row>
+    <row r="125" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
         <v>62</v>
       </c>
@@ -7703,24 +8016,28 @@
       <c r="F125" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="G125" s="3" t="s">
+      <c r="G125" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="H125" s="3" t="s">
+      <c r="H125" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="I125" s="3"/>
-      <c r="J125" s="3"/>
-      <c r="K125" s="3"/>
-      <c r="L125" s="3"/>
-      <c r="M125" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="N125" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I125" s="2"/>
+      <c r="J125" s="2"/>
+      <c r="K125" s="2"/>
+      <c r="L125" s="2"/>
+      <c r="M125" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="N125" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="O125" s="14"/>
+      <c r="P125" s="14"/>
+      <c r="Q125" s="14"/>
+      <c r="R125" s="14"/>
+    </row>
+    <row r="126" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
         <v>62</v>
       </c>
@@ -7739,24 +8056,28 @@
       <c r="F126" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="G126" s="3" t="s">
+      <c r="G126" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="H126" s="3" t="s">
+      <c r="H126" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="I126" s="3"/>
-      <c r="J126" s="3"/>
-      <c r="K126" s="3"/>
-      <c r="L126" s="3"/>
-      <c r="M126" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="N126" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I126" s="2"/>
+      <c r="J126" s="2"/>
+      <c r="K126" s="2"/>
+      <c r="L126" s="2"/>
+      <c r="M126" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="N126" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="O126" s="14"/>
+      <c r="P126" s="14"/>
+      <c r="Q126" s="14"/>
+      <c r="R126" s="14"/>
+    </row>
+    <row r="127" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
         <v>62</v>
       </c>
@@ -7775,24 +8096,28 @@
       <c r="F127" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="G127" s="3" t="s">
+      <c r="G127" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="H127" s="3" t="s">
+      <c r="H127" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="I127" s="3"/>
-      <c r="J127" s="3"/>
-      <c r="K127" s="3"/>
-      <c r="L127" s="3"/>
-      <c r="M127" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="N127" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I127" s="2"/>
+      <c r="J127" s="2"/>
+      <c r="K127" s="2"/>
+      <c r="L127" s="2"/>
+      <c r="M127" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="N127" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="O127" s="14"/>
+      <c r="P127" s="14"/>
+      <c r="Q127" s="14"/>
+      <c r="R127" s="14"/>
+    </row>
+    <row r="128" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
         <v>62</v>
       </c>
@@ -7811,24 +8136,28 @@
       <c r="F128" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="G128" s="3" t="s">
+      <c r="G128" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="H128" s="3" t="s">
+      <c r="H128" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="I128" s="3"/>
-      <c r="J128" s="3"/>
-      <c r="K128" s="3"/>
-      <c r="L128" s="3"/>
-      <c r="M128" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="N128" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I128" s="2"/>
+      <c r="J128" s="2"/>
+      <c r="K128" s="2"/>
+      <c r="L128" s="2"/>
+      <c r="M128" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="N128" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="O128" s="14"/>
+      <c r="P128" s="14"/>
+      <c r="Q128" s="14"/>
+      <c r="R128" s="14"/>
+    </row>
+    <row r="129" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A129" s="1" t="s">
         <v>62</v>
       </c>
@@ -7847,24 +8176,28 @@
       <c r="F129" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="G129" s="3" t="s">
+      <c r="G129" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="H129" s="3" t="s">
+      <c r="H129" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="I129" s="3"/>
-      <c r="J129" s="3"/>
-      <c r="K129" s="3"/>
-      <c r="L129" s="3"/>
-      <c r="M129" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="N129" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I129" s="2"/>
+      <c r="J129" s="2"/>
+      <c r="K129" s="2"/>
+      <c r="L129" s="2"/>
+      <c r="M129" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="N129" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="O129" s="14"/>
+      <c r="P129" s="14"/>
+      <c r="Q129" s="14"/>
+      <c r="R129" s="14"/>
+    </row>
+    <row r="130" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
         <v>62</v>
       </c>
@@ -7883,24 +8216,28 @@
       <c r="F130" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="G130" s="3" t="s">
+      <c r="G130" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="H130" s="3" t="s">
+      <c r="H130" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="I130" s="3"/>
-      <c r="J130" s="3"/>
-      <c r="K130" s="3"/>
-      <c r="L130" s="3"/>
-      <c r="M130" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="N130" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I130" s="2"/>
+      <c r="J130" s="2"/>
+      <c r="K130" s="2"/>
+      <c r="L130" s="2"/>
+      <c r="M130" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="N130" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="O130" s="14"/>
+      <c r="P130" s="14"/>
+      <c r="Q130" s="14"/>
+      <c r="R130" s="14"/>
+    </row>
+    <row r="131" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
         <v>62</v>
       </c>
@@ -7919,24 +8256,28 @@
       <c r="F131" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="G131" s="3" t="s">
+      <c r="G131" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="H131" s="3" t="s">
+      <c r="H131" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="I131" s="3"/>
-      <c r="J131" s="3"/>
-      <c r="K131" s="3"/>
-      <c r="L131" s="3"/>
-      <c r="M131" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="N131" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I131" s="2"/>
+      <c r="J131" s="2"/>
+      <c r="K131" s="2"/>
+      <c r="L131" s="2"/>
+      <c r="M131" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="N131" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="O131" s="14"/>
+      <c r="P131" s="14"/>
+      <c r="Q131" s="14"/>
+      <c r="R131" s="14"/>
+    </row>
+    <row r="132" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
         <v>62</v>
       </c>
@@ -7955,24 +8296,28 @@
       <c r="F132" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="G132" s="3" t="s">
+      <c r="G132" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="H132" s="3" t="s">
+      <c r="H132" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="I132" s="3"/>
-      <c r="J132" s="3"/>
-      <c r="K132" s="3"/>
-      <c r="L132" s="3"/>
-      <c r="M132" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="N132" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I132" s="2"/>
+      <c r="J132" s="2"/>
+      <c r="K132" s="2"/>
+      <c r="L132" s="2"/>
+      <c r="M132" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="N132" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="O132" s="14"/>
+      <c r="P132" s="14"/>
+      <c r="Q132" s="14"/>
+      <c r="R132" s="14"/>
+    </row>
+    <row r="133" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
         <v>62</v>
       </c>
@@ -7991,24 +8336,28 @@
       <c r="F133" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="G133" s="3" t="s">
+      <c r="G133" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="H133" s="3" t="s">
+      <c r="H133" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="I133" s="3"/>
-      <c r="J133" s="3"/>
-      <c r="K133" s="3"/>
-      <c r="L133" s="3"/>
-      <c r="M133" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="N133" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I133" s="2"/>
+      <c r="J133" s="2"/>
+      <c r="K133" s="2"/>
+      <c r="L133" s="2"/>
+      <c r="M133" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="N133" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="O133" s="14"/>
+      <c r="P133" s="14"/>
+      <c r="Q133" s="14"/>
+      <c r="R133" s="14"/>
+    </row>
+    <row r="134" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
         <v>62</v>
       </c>
@@ -8027,24 +8376,28 @@
       <c r="F134" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="G134" s="3" t="s">
+      <c r="G134" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="H134" s="3" t="s">
+      <c r="H134" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="I134" s="3"/>
-      <c r="J134" s="3"/>
-      <c r="K134" s="3"/>
-      <c r="L134" s="3"/>
-      <c r="M134" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="N134" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I134" s="2"/>
+      <c r="J134" s="2"/>
+      <c r="K134" s="2"/>
+      <c r="L134" s="2"/>
+      <c r="M134" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="N134" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="O134" s="14"/>
+      <c r="P134" s="14"/>
+      <c r="Q134" s="14"/>
+      <c r="R134" s="14"/>
+    </row>
+    <row r="135" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
         <v>62</v>
       </c>
@@ -8063,24 +8416,28 @@
       <c r="F135" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="G135" s="3" t="s">
+      <c r="G135" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="H135" s="3" t="s">
+      <c r="H135" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="I135" s="3"/>
-      <c r="J135" s="3"/>
-      <c r="K135" s="3"/>
-      <c r="L135" s="3"/>
-      <c r="M135" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="N135" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I135" s="2"/>
+      <c r="J135" s="2"/>
+      <c r="K135" s="2"/>
+      <c r="L135" s="2"/>
+      <c r="M135" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="N135" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="O135" s="14"/>
+      <c r="P135" s="14"/>
+      <c r="Q135" s="14"/>
+      <c r="R135" s="14"/>
+    </row>
+    <row r="136" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
         <v>62</v>
       </c>
@@ -8099,24 +8456,28 @@
       <c r="F136" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="G136" s="3" t="s">
+      <c r="G136" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="H136" s="3" t="s">
+      <c r="H136" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="I136" s="3"/>
-      <c r="J136" s="3"/>
-      <c r="K136" s="3"/>
-      <c r="L136" s="3"/>
-      <c r="M136" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="N136" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I136" s="2"/>
+      <c r="J136" s="2"/>
+      <c r="K136" s="2"/>
+      <c r="L136" s="2"/>
+      <c r="M136" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="N136" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="O136" s="14"/>
+      <c r="P136" s="14"/>
+      <c r="Q136" s="14"/>
+      <c r="R136" s="14"/>
+    </row>
+    <row r="137" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
         <v>62</v>
       </c>
@@ -8135,24 +8496,28 @@
       <c r="F137" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="G137" s="3" t="s">
+      <c r="G137" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="H137" s="3" t="s">
+      <c r="H137" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="I137" s="3"/>
-      <c r="J137" s="3"/>
-      <c r="K137" s="3"/>
-      <c r="L137" s="3"/>
-      <c r="M137" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="N137" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I137" s="2"/>
+      <c r="J137" s="2"/>
+      <c r="K137" s="2"/>
+      <c r="L137" s="2"/>
+      <c r="M137" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="N137" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="O137" s="14"/>
+      <c r="P137" s="14"/>
+      <c r="Q137" s="14"/>
+      <c r="R137" s="14"/>
+    </row>
+    <row r="138" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
         <v>62</v>
       </c>
@@ -8171,21 +8536,26 @@
       <c r="F138" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="G138" s="3" t="s">
+      <c r="G138" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="H138" s="3" t="s">
+      <c r="H138" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="I138" s="3"/>
-      <c r="J138" s="3"/>
-      <c r="K138" s="3"/>
-      <c r="L138" s="3"/>
-      <c r="M138" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I138" s="2"/>
+      <c r="J138" s="2"/>
+      <c r="K138" s="2"/>
+      <c r="L138" s="2"/>
+      <c r="M138" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="N138" s="14"/>
+      <c r="O138" s="14"/>
+      <c r="P138" s="14"/>
+      <c r="Q138" s="14"/>
+      <c r="R138" s="14"/>
+    </row>
+    <row r="139" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
         <v>62</v>
       </c>
@@ -8204,21 +8574,26 @@
       <c r="F139" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="G139" s="3" t="s">
+      <c r="G139" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="H139" s="3" t="s">
+      <c r="H139" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="I139" s="3"/>
-      <c r="J139" s="3"/>
-      <c r="K139" s="3"/>
-      <c r="L139" s="3"/>
-      <c r="M139" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I139" s="2"/>
+      <c r="J139" s="2"/>
+      <c r="K139" s="2"/>
+      <c r="L139" s="2"/>
+      <c r="M139" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="N139" s="14"/>
+      <c r="O139" s="14"/>
+      <c r="P139" s="14"/>
+      <c r="Q139" s="14"/>
+      <c r="R139" s="14"/>
+    </row>
+    <row r="140" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
         <v>62</v>
       </c>
@@ -8237,21 +8612,26 @@
       <c r="F140" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="G140" s="3" t="s">
+      <c r="G140" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="H140" s="3" t="s">
+      <c r="H140" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="I140" s="3"/>
-      <c r="J140" s="3"/>
-      <c r="K140" s="3"/>
-      <c r="L140" s="3"/>
-      <c r="M140" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I140" s="2"/>
+      <c r="J140" s="2"/>
+      <c r="K140" s="2"/>
+      <c r="L140" s="2"/>
+      <c r="M140" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="N140" s="14"/>
+      <c r="O140" s="14"/>
+      <c r="P140" s="14"/>
+      <c r="Q140" s="14"/>
+      <c r="R140" s="14"/>
+    </row>
+    <row r="141" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A141" s="4" t="s">
         <v>62</v>
       </c>
@@ -8284,7 +8664,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A142" s="4" t="s">
         <v>62</v>
       </c>
@@ -8317,7 +8697,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A143" s="4" t="s">
         <v>62</v>
       </c>
@@ -8350,7 +8730,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A144" s="4" t="s">
         <v>62</v>
       </c>
@@ -8383,7 +8763,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A145" s="4" t="s">
         <v>62</v>
       </c>
@@ -8416,7 +8796,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A146" s="4" t="s">
         <v>62</v>
       </c>
@@ -8449,7 +8829,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A147" s="4" t="s">
         <v>62</v>
       </c>
@@ -8482,7 +8862,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A148" s="4" t="s">
         <v>62</v>
       </c>
@@ -8515,7 +8895,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A149" s="4" t="s">
         <v>62</v>
       </c>
@@ -8548,7 +8928,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A150" s="4" t="s">
         <v>62</v>
       </c>
@@ -8581,7 +8961,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A151" s="4" t="s">
         <v>62</v>
       </c>
@@ -8614,7 +8994,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A152" s="4" t="s">
         <v>62</v>
       </c>
@@ -8647,7 +9027,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A153" s="4" t="s">
         <v>62</v>
       </c>
@@ -8680,7 +9060,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A154" s="4" t="s">
         <v>62</v>
       </c>
@@ -8713,7 +9093,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A155" s="4" t="s">
         <v>62</v>
       </c>
@@ -8746,7 +9126,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A156" s="4" t="s">
         <v>62</v>
       </c>
@@ -8779,7 +9159,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A157" s="4" t="s">
         <v>62</v>
       </c>
@@ -8812,7 +9192,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A158" s="4" t="s">
         <v>62</v>
       </c>
@@ -8845,7 +9225,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A159" s="1" t="s">
         <v>62</v>
       </c>
@@ -8864,24 +9244,28 @@
       <c r="F159" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="G159" s="3" t="s">
+      <c r="G159" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="H159" s="3" t="s">
+      <c r="H159" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="I159" s="3"/>
-      <c r="J159" s="3"/>
-      <c r="K159" s="3"/>
-      <c r="L159" s="3"/>
-      <c r="M159" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="N159" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I159" s="2"/>
+      <c r="J159" s="2"/>
+      <c r="K159" s="2"/>
+      <c r="L159" s="2"/>
+      <c r="M159" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="N159" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="O159" s="14"/>
+      <c r="P159" s="14"/>
+      <c r="Q159" s="14"/>
+      <c r="R159" s="14"/>
+    </row>
+    <row r="160" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A160" s="1" t="s">
         <v>62</v>
       </c>
@@ -8900,24 +9284,28 @@
       <c r="F160" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="G160" s="3" t="s">
+      <c r="G160" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="H160" s="3" t="s">
+      <c r="H160" s="2" t="s">
         <v>650</v>
       </c>
-      <c r="I160" s="3"/>
-      <c r="J160" s="3"/>
-      <c r="K160" s="3"/>
-      <c r="L160" s="3"/>
-      <c r="M160" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="N160" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I160" s="2"/>
+      <c r="J160" s="2"/>
+      <c r="K160" s="2"/>
+      <c r="L160" s="2"/>
+      <c r="M160" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="N160" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="O160" s="14"/>
+      <c r="P160" s="14"/>
+      <c r="Q160" s="14"/>
+      <c r="R160" s="14"/>
+    </row>
+    <row r="161" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
         <v>62</v>
       </c>
@@ -8936,24 +9324,28 @@
       <c r="F161" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="G161" s="3" t="s">
+      <c r="G161" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="H161" s="3" t="s">
+      <c r="H161" s="2" t="s">
         <v>652</v>
       </c>
-      <c r="I161" s="3"/>
-      <c r="J161" s="3"/>
-      <c r="K161" s="3"/>
-      <c r="L161" s="3"/>
-      <c r="M161" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="N161" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I161" s="2"/>
+      <c r="J161" s="2"/>
+      <c r="K161" s="2"/>
+      <c r="L161" s="2"/>
+      <c r="M161" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="N161" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="O161" s="14"/>
+      <c r="P161" s="14"/>
+      <c r="Q161" s="14"/>
+      <c r="R161" s="14"/>
+    </row>
+    <row r="162" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
         <v>62</v>
       </c>
@@ -8972,24 +9364,28 @@
       <c r="F162" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="G162" s="3" t="s">
+      <c r="G162" s="2" t="s">
         <v>653</v>
       </c>
-      <c r="H162" s="3" t="s">
+      <c r="H162" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="I162" s="3"/>
-      <c r="J162" s="3"/>
-      <c r="K162" s="3"/>
-      <c r="L162" s="3"/>
-      <c r="M162" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="N162" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I162" s="2"/>
+      <c r="J162" s="2"/>
+      <c r="K162" s="2"/>
+      <c r="L162" s="2"/>
+      <c r="M162" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="N162" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="O162" s="14"/>
+      <c r="P162" s="14"/>
+      <c r="Q162" s="14"/>
+      <c r="R162" s="14"/>
+    </row>
+    <row r="163" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
         <v>62</v>
       </c>
@@ -9008,24 +9404,28 @@
       <c r="F163" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="G163" s="3" t="s">
+      <c r="G163" s="2" t="s">
         <v>655</v>
       </c>
-      <c r="H163" s="3" t="s">
+      <c r="H163" s="2" t="s">
         <v>656</v>
       </c>
-      <c r="I163" s="3"/>
-      <c r="J163" s="3"/>
-      <c r="K163" s="3"/>
-      <c r="L163" s="3"/>
-      <c r="M163" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="N163" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I163" s="2"/>
+      <c r="J163" s="2"/>
+      <c r="K163" s="2"/>
+      <c r="L163" s="2"/>
+      <c r="M163" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="N163" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="O163" s="14"/>
+      <c r="P163" s="14"/>
+      <c r="Q163" s="14"/>
+      <c r="R163" s="14"/>
+    </row>
+    <row r="164" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
         <v>62</v>
       </c>
@@ -9044,24 +9444,28 @@
       <c r="F164" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="G164" s="3" t="s">
+      <c r="G164" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="H164" s="3" t="s">
+      <c r="H164" s="2" t="s">
         <v>658</v>
       </c>
-      <c r="I164" s="3"/>
-      <c r="J164" s="3"/>
-      <c r="K164" s="3"/>
-      <c r="L164" s="3"/>
-      <c r="M164" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="N164" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I164" s="2"/>
+      <c r="J164" s="2"/>
+      <c r="K164" s="2"/>
+      <c r="L164" s="2"/>
+      <c r="M164" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="N164" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="O164" s="14"/>
+      <c r="P164" s="14"/>
+      <c r="Q164" s="14"/>
+      <c r="R164" s="14"/>
+    </row>
+    <row r="165" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A165" s="1" t="s">
         <v>62</v>
       </c>
@@ -9080,24 +9484,28 @@
       <c r="F165" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="G165" s="3" t="s">
+      <c r="G165" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="H165" s="3" t="s">
+      <c r="H165" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="I165" s="3"/>
-      <c r="J165" s="3"/>
-      <c r="K165" s="3"/>
-      <c r="L165" s="3"/>
-      <c r="M165" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="N165" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I165" s="2"/>
+      <c r="J165" s="2"/>
+      <c r="K165" s="2"/>
+      <c r="L165" s="2"/>
+      <c r="M165" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="N165" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="O165" s="14"/>
+      <c r="P165" s="14"/>
+      <c r="Q165" s="14"/>
+      <c r="R165" s="14"/>
+    </row>
+    <row r="166" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A166" s="1" t="s">
         <v>62</v>
       </c>
@@ -9116,24 +9524,28 @@
       <c r="F166" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="G166" s="3" t="s">
+      <c r="G166" s="2" t="s">
         <v>661</v>
       </c>
-      <c r="H166" s="3" t="s">
+      <c r="H166" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="I166" s="3"/>
-      <c r="J166" s="3"/>
-      <c r="K166" s="3"/>
-      <c r="L166" s="3"/>
-      <c r="M166" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="N166" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I166" s="2"/>
+      <c r="J166" s="2"/>
+      <c r="K166" s="2"/>
+      <c r="L166" s="2"/>
+      <c r="M166" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="N166" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="O166" s="14"/>
+      <c r="P166" s="14"/>
+      <c r="Q166" s="14"/>
+      <c r="R166" s="14"/>
+    </row>
+    <row r="167" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A167" s="4" t="s">
         <v>62</v>
       </c>
@@ -9166,7 +9578,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A168" s="4" t="s">
         <v>62</v>
       </c>
@@ -9199,7 +9611,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A169" s="4" t="s">
         <v>62</v>
       </c>
@@ -9232,7 +9644,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A170" s="4" t="s">
         <v>62</v>
       </c>
@@ -9265,7 +9677,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A171" s="4" t="s">
         <v>62</v>
       </c>
@@ -9298,7 +9710,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A172" s="4" t="s">
         <v>62</v>
       </c>
@@ -9331,7 +9743,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A173" s="4" t="s">
         <v>62</v>
       </c>
@@ -9364,7 +9776,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A174" s="4" t="s">
         <v>62</v>
       </c>
@@ -9397,7 +9809,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A175" s="1" t="s">
         <v>62</v>
       </c>
@@ -9416,21 +9828,26 @@
       <c r="F175" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="G175" s="3" t="s">
+      <c r="G175" s="2" t="s">
         <v>679</v>
       </c>
-      <c r="H175" s="3" t="s">
+      <c r="H175" s="2" t="s">
         <v>680</v>
       </c>
-      <c r="I175" s="3"/>
-      <c r="J175" s="3"/>
-      <c r="K175" s="3"/>
-      <c r="L175" s="3"/>
-      <c r="M175" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I175" s="2"/>
+      <c r="J175" s="2"/>
+      <c r="K175" s="2"/>
+      <c r="L175" s="2"/>
+      <c r="M175" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="N175" s="14"/>
+      <c r="O175" s="14"/>
+      <c r="P175" s="14"/>
+      <c r="Q175" s="14"/>
+      <c r="R175" s="14"/>
+    </row>
+    <row r="176" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A176" s="1" t="s">
         <v>62</v>
       </c>
@@ -9449,25 +9866,30 @@
       <c r="F176" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="G176" s="3" t="s">
+      <c r="G176" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="H176" s="3" t="s">
+      <c r="H176" s="2" t="s">
         <v>682</v>
       </c>
-      <c r="I176" s="3"/>
-      <c r="J176" s="3"/>
-      <c r="K176" s="3" t="s">
+      <c r="I176" s="2"/>
+      <c r="J176" s="2"/>
+      <c r="K176" s="2" t="s">
         <v>687</v>
       </c>
-      <c r="L176" s="3" t="s">
+      <c r="L176" s="2" t="s">
         <v>688</v>
       </c>
-      <c r="M176" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M176" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="N176" s="14"/>
+      <c r="O176" s="14"/>
+      <c r="P176" s="14"/>
+      <c r="Q176" s="14"/>
+      <c r="R176" s="14"/>
+    </row>
+    <row r="177" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A177" s="1" t="s">
         <v>62</v>
       </c>
@@ -9486,25 +9908,30 @@
       <c r="F177" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="G177" s="3" t="s">
+      <c r="G177" s="2" t="s">
         <v>683</v>
       </c>
-      <c r="H177" s="3" t="s">
+      <c r="H177" s="2" t="s">
         <v>684</v>
       </c>
-      <c r="I177" s="3"/>
-      <c r="J177" s="3"/>
-      <c r="K177" s="3" t="s">
+      <c r="I177" s="2"/>
+      <c r="J177" s="2"/>
+      <c r="K177" s="2" t="s">
         <v>689</v>
       </c>
-      <c r="L177" s="3" t="s">
+      <c r="L177" s="2" t="s">
         <v>690</v>
       </c>
-      <c r="M177" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M177" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="N177" s="14"/>
+      <c r="O177" s="14"/>
+      <c r="P177" s="14"/>
+      <c r="Q177" s="14"/>
+      <c r="R177" s="14"/>
+    </row>
+    <row r="178" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A178" s="1" t="s">
         <v>62</v>
       </c>
@@ -9523,25 +9950,30 @@
       <c r="F178" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="G178" s="3" t="s">
+      <c r="G178" s="2" t="s">
         <v>685</v>
       </c>
-      <c r="H178" s="3" t="s">
+      <c r="H178" s="2" t="s">
         <v>686</v>
       </c>
-      <c r="I178" s="3"/>
-      <c r="J178" s="3"/>
-      <c r="K178" s="3" t="s">
+      <c r="I178" s="2"/>
+      <c r="J178" s="2"/>
+      <c r="K178" s="2" t="s">
         <v>691</v>
       </c>
-      <c r="L178" s="3" t="s">
+      <c r="L178" s="2" t="s">
         <v>692</v>
       </c>
-      <c r="M178" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M178" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="N178" s="14"/>
+      <c r="O178" s="14"/>
+      <c r="P178" s="14"/>
+      <c r="Q178" s="14"/>
+      <c r="R178" s="14"/>
+    </row>
+    <row r="179" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A179" s="1" t="s">
         <v>62</v>
       </c>
@@ -9560,26 +9992,32 @@
       <c r="F179" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="G179" t="s">
+      <c r="G179" s="15" t="s">
         <v>693</v>
       </c>
-      <c r="H179" t="s">
+      <c r="H179" s="15" t="s">
         <v>694</v>
       </c>
-      <c r="K179" t="s">
+      <c r="I179" s="15"/>
+      <c r="J179" s="15"/>
+      <c r="K179" s="15" t="s">
         <v>695</v>
       </c>
-      <c r="L179" t="s">
+      <c r="L179" s="15" t="s">
         <v>696</v>
       </c>
-      <c r="M179" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="R179" s="13" t="s">
+      <c r="M179" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="N179" s="14"/>
+      <c r="O179" s="14"/>
+      <c r="P179" s="14"/>
+      <c r="Q179" s="14"/>
+      <c r="R179" s="14" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A180" s="1" t="s">
         <v>62</v>
       </c>
@@ -9598,17 +10036,26 @@
       <c r="F180" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="G180" t="s">
+      <c r="G180" s="15" t="s">
         <v>697</v>
       </c>
-      <c r="H180" t="s">
+      <c r="H180" s="15" t="s">
         <v>698</v>
       </c>
-      <c r="M180" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="181" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="I180" s="15"/>
+      <c r="J180" s="15"/>
+      <c r="K180" s="15"/>
+      <c r="L180" s="15"/>
+      <c r="M180" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="N180" s="14"/>
+      <c r="O180" s="14"/>
+      <c r="P180" s="14"/>
+      <c r="Q180" s="14"/>
+      <c r="R180" s="14"/>
+    </row>
+    <row r="181" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A181" s="1" t="s">
         <v>62</v>
       </c>
@@ -9627,17 +10074,26 @@
       <c r="F181" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="G181" t="s">
+      <c r="G181" s="15" t="s">
         <v>699</v>
       </c>
-      <c r="H181" t="s">
+      <c r="H181" s="15" t="s">
         <v>700</v>
       </c>
-      <c r="M181" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="I181" s="15"/>
+      <c r="J181" s="15"/>
+      <c r="K181" s="15"/>
+      <c r="L181" s="15"/>
+      <c r="M181" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="N181" s="14"/>
+      <c r="O181" s="14"/>
+      <c r="P181" s="14"/>
+      <c r="Q181" s="14"/>
+      <c r="R181" s="14"/>
+    </row>
+    <row r="182" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A182" s="1" t="s">
         <v>62</v>
       </c>
@@ -9656,17 +10112,26 @@
       <c r="F182" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="G182">
+      <c r="G182" s="15">
         <v>999</v>
       </c>
-      <c r="H182">
+      <c r="H182" s="15">
         <v>999</v>
       </c>
-      <c r="M182" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="I182" s="15"/>
+      <c r="J182" s="15"/>
+      <c r="K182" s="15"/>
+      <c r="L182" s="15"/>
+      <c r="M182" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="N182" s="14"/>
+      <c r="O182" s="14"/>
+      <c r="P182" s="14"/>
+      <c r="Q182" s="14"/>
+      <c r="R182" s="14"/>
+    </row>
+    <row r="183" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A183" s="1" t="s">
         <v>62</v>
       </c>
@@ -9685,21 +10150,26 @@
       <c r="F183" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="G183" s="3" t="s">
+      <c r="G183" s="2" t="s">
         <v>701</v>
       </c>
-      <c r="H183" s="3" t="s">
+      <c r="H183" s="2" t="s">
         <v>702</v>
       </c>
-      <c r="I183" s="3"/>
-      <c r="J183" s="3"/>
-      <c r="K183" s="3"/>
-      <c r="L183" s="3"/>
-      <c r="M183" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="I183" s="2"/>
+      <c r="J183" s="2"/>
+      <c r="K183" s="2"/>
+      <c r="L183" s="2"/>
+      <c r="M183" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="N183" s="14"/>
+      <c r="O183" s="14"/>
+      <c r="P183" s="14"/>
+      <c r="Q183" s="14"/>
+      <c r="R183" s="14"/>
+    </row>
+    <row r="184" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A184" s="1" t="s">
         <v>62</v>
       </c>
@@ -9718,21 +10188,26 @@
       <c r="F184" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="G184" s="3" t="s">
+      <c r="G184" s="2" t="s">
         <v>703</v>
       </c>
-      <c r="H184" s="3" t="s">
+      <c r="H184" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="I184" s="3"/>
-      <c r="J184" s="3"/>
-      <c r="K184" s="3"/>
-      <c r="L184" s="3"/>
-      <c r="M184" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="I184" s="2"/>
+      <c r="J184" s="2"/>
+      <c r="K184" s="2"/>
+      <c r="L184" s="2"/>
+      <c r="M184" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="N184" s="14"/>
+      <c r="O184" s="14"/>
+      <c r="P184" s="14"/>
+      <c r="Q184" s="14"/>
+      <c r="R184" s="14"/>
+    </row>
+    <row r="185" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A185" s="4" t="s">
         <v>62</v>
       </c>
@@ -9765,7 +10240,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A186" s="4" t="s">
         <v>62</v>
       </c>
@@ -9798,7 +10273,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A187" s="4" t="s">
         <v>62</v>
       </c>
@@ -9831,7 +10306,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="188" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A188" s="4" t="s">
         <v>62</v>
       </c>
@@ -9864,7 +10339,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A189" s="4" t="s">
         <v>62</v>
       </c>
@@ -9897,7 +10372,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="190" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A190" s="4" t="s">
         <v>62</v>
       </c>
@@ -9930,7 +10405,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="191" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A191" s="4" t="s">
         <v>62</v>
       </c>
@@ -9963,7 +10438,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="192" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A192" s="1" t="s">
         <v>62</v>
       </c>
@@ -9982,21 +10457,26 @@
       <c r="F192" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="G192" s="3" t="s">
+      <c r="G192" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="H192" s="3" t="s">
+      <c r="H192" s="2" t="s">
         <v>720</v>
       </c>
-      <c r="I192" s="3"/>
-      <c r="J192" s="3"/>
-      <c r="K192" s="3"/>
-      <c r="L192" s="3"/>
-      <c r="M192" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I192" s="2"/>
+      <c r="J192" s="2"/>
+      <c r="K192" s="2"/>
+      <c r="L192" s="2"/>
+      <c r="M192" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="N192" s="14"/>
+      <c r="O192" s="14"/>
+      <c r="P192" s="14"/>
+      <c r="Q192" s="14"/>
+      <c r="R192" s="14"/>
+    </row>
+    <row r="193" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A193" s="1" t="s">
         <v>62</v>
       </c>
@@ -10015,21 +10495,26 @@
       <c r="F193" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="G193" s="3" t="s">
+      <c r="G193" s="2" t="s">
         <v>721</v>
       </c>
-      <c r="H193" s="3" t="s">
+      <c r="H193" s="2" t="s">
         <v>722</v>
       </c>
-      <c r="I193" s="3"/>
-      <c r="J193" s="3"/>
-      <c r="K193" s="3"/>
-      <c r="L193" s="3"/>
-      <c r="M193" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I193" s="2"/>
+      <c r="J193" s="2"/>
+      <c r="K193" s="2"/>
+      <c r="L193" s="2"/>
+      <c r="M193" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="N193" s="14"/>
+      <c r="O193" s="14"/>
+      <c r="P193" s="14"/>
+      <c r="Q193" s="14"/>
+      <c r="R193" s="14"/>
+    </row>
+    <row r="194" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A194" s="1" t="s">
         <v>62</v>
       </c>
@@ -10048,21 +10533,26 @@
       <c r="F194" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="G194" s="3" t="s">
+      <c r="G194" s="2" t="s">
         <v>723</v>
       </c>
-      <c r="H194" s="3" t="s">
+      <c r="H194" s="2" t="s">
         <v>724</v>
       </c>
-      <c r="I194" s="3"/>
-      <c r="J194" s="3"/>
-      <c r="K194" s="3"/>
-      <c r="L194" s="3"/>
-      <c r="M194" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I194" s="2"/>
+      <c r="J194" s="2"/>
+      <c r="K194" s="2"/>
+      <c r="L194" s="2"/>
+      <c r="M194" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="N194" s="14"/>
+      <c r="O194" s="14"/>
+      <c r="P194" s="14"/>
+      <c r="Q194" s="14"/>
+      <c r="R194" s="14"/>
+    </row>
+    <row r="195" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A195" s="1" t="s">
         <v>62</v>
       </c>
@@ -10081,21 +10571,26 @@
       <c r="F195" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="G195" s="3" t="s">
+      <c r="G195" s="2" t="s">
         <v>725</v>
       </c>
-      <c r="H195" s="3" t="s">
+      <c r="H195" s="2" t="s">
         <v>726</v>
       </c>
-      <c r="I195" s="3"/>
-      <c r="J195" s="3"/>
-      <c r="K195" s="3"/>
-      <c r="L195" s="3"/>
-      <c r="M195" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I195" s="2"/>
+      <c r="J195" s="2"/>
+      <c r="K195" s="2"/>
+      <c r="L195" s="2"/>
+      <c r="M195" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="N195" s="14"/>
+      <c r="O195" s="14"/>
+      <c r="P195" s="14"/>
+      <c r="Q195" s="14"/>
+      <c r="R195" s="14"/>
+    </row>
+    <row r="196" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A196" s="1" t="s">
         <v>62</v>
       </c>
@@ -10114,21 +10609,26 @@
       <c r="F196" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="G196" s="3" t="s">
+      <c r="G196" s="2" t="s">
         <v>727</v>
       </c>
-      <c r="H196" s="3" t="s">
+      <c r="H196" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="I196" s="3"/>
-      <c r="J196" s="3"/>
-      <c r="K196" s="3"/>
-      <c r="L196" s="3"/>
-      <c r="M196" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I196" s="2"/>
+      <c r="J196" s="2"/>
+      <c r="K196" s="2"/>
+      <c r="L196" s="2"/>
+      <c r="M196" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="N196" s="14"/>
+      <c r="O196" s="14"/>
+      <c r="P196" s="14"/>
+      <c r="Q196" s="14"/>
+      <c r="R196" s="14"/>
+    </row>
+    <row r="197" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A197" s="4" t="s">
         <v>62</v>
       </c>
@@ -10158,7 +10658,7 @@
       <c r="K197" s="3"/>
       <c r="L197" s="3"/>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A198" s="4" t="s">
         <v>62</v>
       </c>
@@ -10188,7 +10688,7 @@
       <c r="K198" s="3"/>
       <c r="L198" s="3"/>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A199" s="4" t="s">
         <v>62</v>
       </c>
@@ -10218,7 +10718,7 @@
       <c r="K199" s="3"/>
       <c r="L199" s="3"/>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A200" s="4" t="s">
         <v>62</v>
       </c>
@@ -10248,7 +10748,7 @@
       <c r="K200" s="3"/>
       <c r="L200" s="3"/>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A201" s="4" t="s">
         <v>62</v>
       </c>
@@ -10278,7 +10778,7 @@
       <c r="K201" s="3"/>
       <c r="L201" s="3"/>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A202" s="1" t="s">
         <v>62</v>
       </c>
@@ -10297,18 +10797,24 @@
       <c r="F202" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="G202" s="3" t="s">
+      <c r="G202" s="2" t="s">
         <v>739</v>
       </c>
-      <c r="H202" s="3" t="s">
+      <c r="H202" s="2" t="s">
         <v>740</v>
       </c>
-      <c r="I202" s="3"/>
-      <c r="J202" s="3"/>
-      <c r="K202" s="3"/>
-      <c r="L202" s="3"/>
-    </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I202" s="2"/>
+      <c r="J202" s="2"/>
+      <c r="K202" s="2"/>
+      <c r="L202" s="2"/>
+      <c r="M202" s="14"/>
+      <c r="N202" s="14"/>
+      <c r="O202" s="14"/>
+      <c r="P202" s="14"/>
+      <c r="Q202" s="14"/>
+      <c r="R202" s="14"/>
+    </row>
+    <row r="203" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A203" s="1" t="s">
         <v>62</v>
       </c>
@@ -10327,18 +10833,24 @@
       <c r="F203" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="G203" s="3" t="s">
+      <c r="G203" s="2" t="s">
         <v>741</v>
       </c>
-      <c r="H203" s="3" t="s">
+      <c r="H203" s="2" t="s">
         <v>742</v>
       </c>
-      <c r="I203" s="3"/>
-      <c r="J203" s="3"/>
-      <c r="K203" s="3"/>
-      <c r="L203" s="3"/>
-    </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I203" s="2"/>
+      <c r="J203" s="2"/>
+      <c r="K203" s="2"/>
+      <c r="L203" s="2"/>
+      <c r="M203" s="14"/>
+      <c r="N203" s="14"/>
+      <c r="O203" s="14"/>
+      <c r="P203" s="14"/>
+      <c r="Q203" s="14"/>
+      <c r="R203" s="14"/>
+    </row>
+    <row r="204" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A204" s="1" t="s">
         <v>62</v>
       </c>
@@ -10357,18 +10869,24 @@
       <c r="F204" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="G204" s="3" t="s">
+      <c r="G204" s="2" t="s">
         <v>743</v>
       </c>
-      <c r="H204" s="3" t="s">
+      <c r="H204" s="2" t="s">
         <v>744</v>
       </c>
-      <c r="I204" s="3"/>
-      <c r="J204" s="3"/>
-      <c r="K204" s="3"/>
-      <c r="L204" s="3"/>
-    </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I204" s="2"/>
+      <c r="J204" s="2"/>
+      <c r="K204" s="2"/>
+      <c r="L204" s="2"/>
+      <c r="M204" s="14"/>
+      <c r="N204" s="14"/>
+      <c r="O204" s="14"/>
+      <c r="P204" s="14"/>
+      <c r="Q204" s="14"/>
+      <c r="R204" s="14"/>
+    </row>
+    <row r="205" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A205" s="1" t="s">
         <v>62</v>
       </c>
@@ -10387,18 +10905,24 @@
       <c r="F205" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="G205" s="3" t="s">
+      <c r="G205" s="2" t="s">
         <v>745</v>
       </c>
-      <c r="H205" s="3" t="s">
+      <c r="H205" s="2" t="s">
         <v>746</v>
       </c>
-      <c r="I205" s="3"/>
-      <c r="J205" s="3"/>
-      <c r="K205" s="3"/>
-      <c r="L205" s="3"/>
-    </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I205" s="2"/>
+      <c r="J205" s="2"/>
+      <c r="K205" s="2"/>
+      <c r="L205" s="2"/>
+      <c r="M205" s="14"/>
+      <c r="N205" s="14"/>
+      <c r="O205" s="14"/>
+      <c r="P205" s="14"/>
+      <c r="Q205" s="14"/>
+      <c r="R205" s="14"/>
+    </row>
+    <row r="206" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A206" s="4" t="s">
         <v>62</v>
       </c>
@@ -10428,7 +10952,7 @@
       <c r="K206" s="3"/>
       <c r="L206" s="3"/>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A207" s="4" t="s">
         <v>62</v>
       </c>
@@ -10458,7 +10982,7 @@
       <c r="K207" s="3"/>
       <c r="L207" s="3"/>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A208" s="4" t="s">
         <v>62</v>
       </c>
@@ -10488,7 +11012,7 @@
       <c r="K208" s="3"/>
       <c r="L208" s="3"/>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A209" s="1" t="s">
         <v>62</v>
       </c>
@@ -10507,18 +11031,24 @@
       <c r="F209" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="G209" s="3" t="s">
+      <c r="G209" s="2" t="s">
         <v>753</v>
       </c>
-      <c r="H209" s="3" t="s">
+      <c r="H209" s="2" t="s">
         <v>754</v>
       </c>
-      <c r="I209" s="3"/>
-      <c r="J209" s="3"/>
-      <c r="K209" s="3"/>
-      <c r="L209" s="3"/>
-    </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I209" s="2"/>
+      <c r="J209" s="2"/>
+      <c r="K209" s="2"/>
+      <c r="L209" s="2"/>
+      <c r="M209" s="14"/>
+      <c r="N209" s="14"/>
+      <c r="O209" s="14"/>
+      <c r="P209" s="14"/>
+      <c r="Q209" s="14"/>
+      <c r="R209" s="14"/>
+    </row>
+    <row r="210" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A210" s="1" t="s">
         <v>62</v>
       </c>
@@ -10537,18 +11067,24 @@
       <c r="F210" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="G210" s="3" t="s">
+      <c r="G210" s="2" t="s">
         <v>755</v>
       </c>
-      <c r="H210" s="3" t="s">
+      <c r="H210" s="2" t="s">
         <v>756</v>
       </c>
-      <c r="I210" s="3"/>
-      <c r="J210" s="3"/>
-      <c r="K210" s="3"/>
-      <c r="L210" s="3"/>
-    </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I210" s="2"/>
+      <c r="J210" s="2"/>
+      <c r="K210" s="2"/>
+      <c r="L210" s="2"/>
+      <c r="M210" s="14"/>
+      <c r="N210" s="14"/>
+      <c r="O210" s="14"/>
+      <c r="P210" s="14"/>
+      <c r="Q210" s="14"/>
+      <c r="R210" s="14"/>
+    </row>
+    <row r="211" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A211" s="1" t="s">
         <v>62</v>
       </c>
@@ -10567,18 +11103,24 @@
       <c r="F211" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="G211" s="3" t="s">
+      <c r="G211" s="2" t="s">
         <v>757</v>
       </c>
-      <c r="H211" s="3" t="s">
+      <c r="H211" s="2" t="s">
         <v>758</v>
       </c>
-      <c r="I211" s="3"/>
-      <c r="J211" s="3"/>
-      <c r="K211" s="3"/>
-      <c r="L211" s="3"/>
-    </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I211" s="2"/>
+      <c r="J211" s="2"/>
+      <c r="K211" s="2"/>
+      <c r="L211" s="2"/>
+      <c r="M211" s="14"/>
+      <c r="N211" s="14"/>
+      <c r="O211" s="14"/>
+      <c r="P211" s="14"/>
+      <c r="Q211" s="14"/>
+      <c r="R211" s="14"/>
+    </row>
+    <row r="212" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A212" s="4" t="s">
         <v>62</v>
       </c>
@@ -10608,7 +11150,7 @@
       <c r="K212" s="3"/>
       <c r="L212" s="3"/>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A213" s="4" t="s">
         <v>62</v>
       </c>
@@ -10638,7 +11180,7 @@
       <c r="K213" s="3"/>
       <c r="L213" s="3"/>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A214" s="4" t="s">
         <v>62</v>
       </c>
@@ -10668,7 +11210,7 @@
       <c r="K214" s="3"/>
       <c r="L214" s="3"/>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A215" s="4" t="s">
         <v>62</v>
       </c>
@@ -10698,7 +11240,7 @@
       <c r="K215" s="3"/>
       <c r="L215" s="3"/>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A216" s="1" t="s">
         <v>62</v>
       </c>
@@ -10717,18 +11259,24 @@
       <c r="F216" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="G216" s="3" t="s">
+      <c r="G216" s="2" t="s">
         <v>767</v>
       </c>
-      <c r="H216" s="3" t="s">
+      <c r="H216" s="2" t="s">
         <v>768</v>
       </c>
-      <c r="I216" s="3"/>
-      <c r="J216" s="3"/>
-      <c r="K216" s="3"/>
-      <c r="L216" s="3"/>
-    </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I216" s="2"/>
+      <c r="J216" s="2"/>
+      <c r="K216" s="2"/>
+      <c r="L216" s="2"/>
+      <c r="M216" s="14"/>
+      <c r="N216" s="14"/>
+      <c r="O216" s="14"/>
+      <c r="P216" s="14"/>
+      <c r="Q216" s="14"/>
+      <c r="R216" s="14"/>
+    </row>
+    <row r="217" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A217" s="1" t="s">
         <v>62</v>
       </c>
@@ -10747,18 +11295,24 @@
       <c r="F217" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="G217" s="3" t="s">
+      <c r="G217" s="2" t="s">
         <v>769</v>
       </c>
-      <c r="H217" s="3" t="s">
+      <c r="H217" s="2" t="s">
         <v>770</v>
       </c>
-      <c r="I217" s="3"/>
-      <c r="J217" s="3"/>
-      <c r="K217" s="3"/>
-      <c r="L217" s="3"/>
-    </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I217" s="2"/>
+      <c r="J217" s="2"/>
+      <c r="K217" s="2"/>
+      <c r="L217" s="2"/>
+      <c r="M217" s="14"/>
+      <c r="N217" s="14"/>
+      <c r="O217" s="14"/>
+      <c r="P217" s="14"/>
+      <c r="Q217" s="14"/>
+      <c r="R217" s="14"/>
+    </row>
+    <row r="218" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A218" s="4" t="s">
         <v>62</v>
       </c>
@@ -10788,7 +11342,7 @@
       <c r="K218" s="3"/>
       <c r="L218" s="3"/>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A219" s="4" t="s">
         <v>62</v>
       </c>
@@ -10818,7 +11372,7 @@
       <c r="K219" s="3"/>
       <c r="L219" s="3"/>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A220" s="4" t="s">
         <v>62</v>
       </c>
@@ -10848,7 +11402,7 @@
       <c r="K220" s="3"/>
       <c r="L220" s="3"/>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A221" s="4" t="s">
         <v>62</v>
       </c>
@@ -10878,7 +11432,7 @@
       <c r="K221" s="3"/>
       <c r="L221" s="3"/>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A222" s="1" t="s">
         <v>62</v>
       </c>
@@ -10897,18 +11451,24 @@
       <c r="F222" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="G222" s="3" t="s">
+      <c r="G222" s="2" t="s">
         <v>779</v>
       </c>
-      <c r="H222" s="3" t="s">
+      <c r="H222" s="2" t="s">
         <v>780</v>
       </c>
-      <c r="I222" s="3"/>
-      <c r="J222" s="3"/>
-      <c r="K222" s="3"/>
-      <c r="L222" s="3"/>
-    </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I222" s="2"/>
+      <c r="J222" s="2"/>
+      <c r="K222" s="2"/>
+      <c r="L222" s="2"/>
+      <c r="M222" s="14"/>
+      <c r="N222" s="14"/>
+      <c r="O222" s="14"/>
+      <c r="P222" s="14"/>
+      <c r="Q222" s="14"/>
+      <c r="R222" s="14"/>
+    </row>
+    <row r="223" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A223" s="4" t="s">
         <v>62</v>
       </c>
@@ -10938,7 +11498,7 @@
       <c r="K223" s="3"/>
       <c r="L223" s="3"/>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A224" s="1" t="s">
         <v>62</v>
       </c>
@@ -10957,18 +11517,24 @@
       <c r="F224" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="G224" s="3" t="s">
+      <c r="G224" s="2" t="s">
         <v>783</v>
       </c>
-      <c r="H224" s="3" t="s">
+      <c r="H224" s="2" t="s">
         <v>784</v>
       </c>
-      <c r="I224" s="3"/>
-      <c r="J224" s="3"/>
-      <c r="K224" s="3"/>
-      <c r="L224" s="3"/>
-    </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I224" s="2"/>
+      <c r="J224" s="2"/>
+      <c r="K224" s="2"/>
+      <c r="L224" s="2"/>
+      <c r="M224" s="14"/>
+      <c r="N224" s="14"/>
+      <c r="O224" s="14"/>
+      <c r="P224" s="14"/>
+      <c r="Q224" s="14"/>
+      <c r="R224" s="14"/>
+    </row>
+    <row r="225" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A225" s="4" t="s">
         <v>62</v>
       </c>
@@ -10998,7 +11564,7 @@
       <c r="K225" s="3"/>
       <c r="L225" s="3"/>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A226" s="4" t="s">
         <v>62</v>
       </c>
@@ -11028,7 +11594,7 @@
       <c r="K226" s="3"/>
       <c r="L226" s="3"/>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A227" s="4" t="s">
         <v>62</v>
       </c>
@@ -11058,7 +11624,7 @@
       <c r="K227" s="3"/>
       <c r="L227" s="3"/>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A228" s="4" t="s">
         <v>62</v>
       </c>
@@ -11088,7 +11654,7 @@
       <c r="K228" s="3"/>
       <c r="L228" s="3"/>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A229" s="1" t="s">
         <v>62</v>
       </c>
@@ -11107,22 +11673,28 @@
       <c r="F229" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="G229" s="3" t="s">
+      <c r="G229" s="2" t="s">
         <v>793</v>
       </c>
-      <c r="H229" s="3" t="s">
+      <c r="H229" s="2" t="s">
         <v>794</v>
       </c>
-      <c r="I229" s="3"/>
-      <c r="J229" s="3"/>
-      <c r="K229" s="3" t="s">
+      <c r="I229" s="2"/>
+      <c r="J229" s="2"/>
+      <c r="K229" s="2" t="s">
         <v>803</v>
       </c>
-      <c r="L229" s="3" t="s">
+      <c r="L229" s="2" t="s">
         <v>804</v>
       </c>
-    </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M229" s="14"/>
+      <c r="N229" s="14"/>
+      <c r="O229" s="14"/>
+      <c r="P229" s="14"/>
+      <c r="Q229" s="14"/>
+      <c r="R229" s="14"/>
+    </row>
+    <row r="230" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A230" s="1" t="s">
         <v>62</v>
       </c>
@@ -11141,18 +11713,24 @@
       <c r="F230" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="G230" s="3" t="s">
+      <c r="G230" s="2" t="s">
         <v>795</v>
       </c>
-      <c r="H230" s="3" t="s">
+      <c r="H230" s="2" t="s">
         <v>796</v>
       </c>
-      <c r="I230" s="3"/>
-      <c r="J230" s="3"/>
-      <c r="K230" s="3"/>
-      <c r="L230" s="3"/>
-    </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I230" s="2"/>
+      <c r="J230" s="2"/>
+      <c r="K230" s="2"/>
+      <c r="L230" s="2"/>
+      <c r="M230" s="14"/>
+      <c r="N230" s="14"/>
+      <c r="O230" s="14"/>
+      <c r="P230" s="14"/>
+      <c r="Q230" s="14"/>
+      <c r="R230" s="14"/>
+    </row>
+    <row r="231" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A231" s="1" t="s">
         <v>62</v>
       </c>
@@ -11171,18 +11749,24 @@
       <c r="F231" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="G231" s="3" t="s">
+      <c r="G231" s="2" t="s">
         <v>797</v>
       </c>
-      <c r="H231" s="3" t="s">
+      <c r="H231" s="2" t="s">
         <v>798</v>
       </c>
-      <c r="I231" s="3"/>
-      <c r="J231" s="3"/>
-      <c r="K231" s="3"/>
-      <c r="L231" s="3"/>
-    </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I231" s="2"/>
+      <c r="J231" s="2"/>
+      <c r="K231" s="2"/>
+      <c r="L231" s="2"/>
+      <c r="M231" s="14"/>
+      <c r="N231" s="14"/>
+      <c r="O231" s="14"/>
+      <c r="P231" s="14"/>
+      <c r="Q231" s="14"/>
+      <c r="R231" s="14"/>
+    </row>
+    <row r="232" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A232" s="1" t="s">
         <v>62</v>
       </c>
@@ -11201,18 +11785,24 @@
       <c r="F232" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="G232" s="3" t="s">
+      <c r="G232" s="2" t="s">
         <v>799</v>
       </c>
-      <c r="H232" s="3" t="s">
+      <c r="H232" s="2" t="s">
         <v>800</v>
       </c>
-      <c r="I232" s="3"/>
-      <c r="J232" s="3"/>
-      <c r="K232" s="3"/>
-      <c r="L232" s="3"/>
-    </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I232" s="2"/>
+      <c r="J232" s="2"/>
+      <c r="K232" s="2"/>
+      <c r="L232" s="2"/>
+      <c r="M232" s="14"/>
+      <c r="N232" s="14"/>
+      <c r="O232" s="14"/>
+      <c r="P232" s="14"/>
+      <c r="Q232" s="14"/>
+      <c r="R232" s="14"/>
+    </row>
+    <row r="233" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A233" s="1" t="s">
         <v>62</v>
       </c>
@@ -11231,18 +11821,24 @@
       <c r="F233" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="G233" s="3" t="s">
+      <c r="G233" s="2" t="s">
         <v>801</v>
       </c>
-      <c r="H233" s="3" t="s">
+      <c r="H233" s="2" t="s">
         <v>802</v>
       </c>
-      <c r="I233" s="3"/>
-      <c r="J233" s="3"/>
-      <c r="K233" s="3"/>
-      <c r="L233" s="3"/>
-    </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I233" s="2"/>
+      <c r="J233" s="2"/>
+      <c r="K233" s="2"/>
+      <c r="L233" s="2"/>
+      <c r="M233" s="14"/>
+      <c r="N233" s="14"/>
+      <c r="O233" s="14"/>
+      <c r="P233" s="14"/>
+      <c r="Q233" s="14"/>
+      <c r="R233" s="14"/>
+    </row>
+    <row r="234" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A234" s="1" t="s">
         <v>62</v>
       </c>
@@ -11261,18 +11857,24 @@
       <c r="F234" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="G234" s="3" t="s">
+      <c r="G234" s="2" t="s">
         <v>805</v>
       </c>
-      <c r="H234" s="3" t="s">
+      <c r="H234" s="2" t="s">
         <v>806</v>
       </c>
-      <c r="I234" s="3"/>
-      <c r="J234" s="3"/>
-      <c r="K234" s="3"/>
-      <c r="L234" s="3"/>
-    </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I234" s="2"/>
+      <c r="J234" s="2"/>
+      <c r="K234" s="2"/>
+      <c r="L234" s="2"/>
+      <c r="M234" s="14"/>
+      <c r="N234" s="14"/>
+      <c r="O234" s="14"/>
+      <c r="P234" s="14"/>
+      <c r="Q234" s="14"/>
+      <c r="R234" s="14"/>
+    </row>
+    <row r="235" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A235" s="4" t="s">
         <v>62</v>
       </c>
@@ -11302,7 +11904,7 @@
       <c r="K235" s="3"/>
       <c r="L235" s="3"/>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A236" s="4" t="s">
         <v>62</v>
       </c>
@@ -11332,7 +11934,7 @@
       <c r="K236" s="3"/>
       <c r="L236" s="3"/>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A237" s="4" t="s">
         <v>62</v>
       </c>
@@ -11362,7 +11964,7 @@
       <c r="K237" s="3"/>
       <c r="L237" s="3"/>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A238" s="4" t="s">
         <v>62</v>
       </c>
@@ -11392,7 +11994,7 @@
       <c r="K238" s="3"/>
       <c r="L238" s="3"/>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A239" s="4" t="s">
         <v>62</v>
       </c>
@@ -11422,7 +12024,7 @@
       <c r="K239" s="3"/>
       <c r="L239" s="3"/>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A240" s="4" t="s">
         <v>62</v>
       </c>
@@ -11452,7 +12054,7 @@
       <c r="K240" s="3"/>
       <c r="L240" s="3"/>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A241" s="4" t="s">
         <v>62</v>
       </c>
@@ -11482,7 +12084,7 @@
       <c r="K241" s="3"/>
       <c r="L241" s="3"/>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A242" s="1" t="s">
         <v>62</v>
       </c>
@@ -11501,18 +12103,24 @@
       <c r="F242" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="G242" s="3" t="s">
+      <c r="G242" s="2" t="s">
         <v>821</v>
       </c>
-      <c r="H242" s="3" t="s">
+      <c r="H242" s="2" t="s">
         <v>822</v>
       </c>
-      <c r="I242" s="3"/>
-      <c r="J242" s="3"/>
-      <c r="K242" s="3"/>
-      <c r="L242" s="3"/>
-    </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I242" s="2"/>
+      <c r="J242" s="2"/>
+      <c r="K242" s="2"/>
+      <c r="L242" s="2"/>
+      <c r="M242" s="14"/>
+      <c r="N242" s="14"/>
+      <c r="O242" s="14"/>
+      <c r="P242" s="14"/>
+      <c r="Q242" s="14"/>
+      <c r="R242" s="14"/>
+    </row>
+    <row r="243" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A243" s="1" t="s">
         <v>62</v>
       </c>
@@ -11531,18 +12139,24 @@
       <c r="F243" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="G243" s="3" t="s">
+      <c r="G243" s="2" t="s">
         <v>823</v>
       </c>
-      <c r="H243" s="3" t="s">
+      <c r="H243" s="2" t="s">
         <v>824</v>
       </c>
-      <c r="I243" s="3"/>
-      <c r="J243" s="3"/>
-      <c r="K243" s="3"/>
-      <c r="L243" s="3"/>
-    </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I243" s="2"/>
+      <c r="J243" s="2"/>
+      <c r="K243" s="2"/>
+      <c r="L243" s="2"/>
+      <c r="M243" s="14"/>
+      <c r="N243" s="14"/>
+      <c r="O243" s="14"/>
+      <c r="P243" s="14"/>
+      <c r="Q243" s="14"/>
+      <c r="R243" s="14"/>
+    </row>
+    <row r="244" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A244" s="1" t="s">
         <v>62</v>
       </c>
@@ -11561,18 +12175,24 @@
       <c r="F244" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="G244" s="3" t="s">
+      <c r="G244" s="2" t="s">
         <v>825</v>
       </c>
-      <c r="H244" s="3" t="s">
+      <c r="H244" s="2" t="s">
         <v>826</v>
       </c>
-      <c r="I244" s="3"/>
-      <c r="J244" s="3"/>
-      <c r="K244" s="3"/>
-      <c r="L244" s="3"/>
-    </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I244" s="2"/>
+      <c r="J244" s="2"/>
+      <c r="K244" s="2"/>
+      <c r="L244" s="2"/>
+      <c r="M244" s="14"/>
+      <c r="N244" s="14"/>
+      <c r="O244" s="14"/>
+      <c r="P244" s="14"/>
+      <c r="Q244" s="14"/>
+      <c r="R244" s="14"/>
+    </row>
+    <row r="245" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A245" s="1" t="s">
         <v>62</v>
       </c>
@@ -11591,18 +12211,24 @@
       <c r="F245" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="G245" s="3" t="s">
+      <c r="G245" s="2" t="s">
         <v>827</v>
       </c>
-      <c r="H245" s="3" t="s">
+      <c r="H245" s="2" t="s">
         <v>828</v>
       </c>
-      <c r="I245" s="3"/>
-      <c r="J245" s="3"/>
-      <c r="K245" s="3"/>
-      <c r="L245" s="3"/>
-    </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I245" s="2"/>
+      <c r="J245" s="2"/>
+      <c r="K245" s="2"/>
+      <c r="L245" s="2"/>
+      <c r="M245" s="14"/>
+      <c r="N245" s="14"/>
+      <c r="O245" s="14"/>
+      <c r="P245" s="14"/>
+      <c r="Q245" s="14"/>
+      <c r="R245" s="14"/>
+    </row>
+    <row r="246" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A246" s="1" t="s">
         <v>62</v>
       </c>
@@ -11621,18 +12247,24 @@
       <c r="F246" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="G246" s="3" t="s">
+      <c r="G246" s="2" t="s">
         <v>829</v>
       </c>
-      <c r="H246" s="3" t="s">
+      <c r="H246" s="2" t="s">
         <v>830</v>
       </c>
-      <c r="I246" s="3"/>
-      <c r="J246" s="3"/>
-      <c r="K246" s="3"/>
-      <c r="L246" s="3"/>
-    </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I246" s="2"/>
+      <c r="J246" s="2"/>
+      <c r="K246" s="2"/>
+      <c r="L246" s="2"/>
+      <c r="M246" s="14"/>
+      <c r="N246" s="14"/>
+      <c r="O246" s="14"/>
+      <c r="P246" s="14"/>
+      <c r="Q246" s="14"/>
+      <c r="R246" s="14"/>
+    </row>
+    <row r="247" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A247" s="1" t="s">
         <v>62</v>
       </c>
@@ -11651,18 +12283,24 @@
       <c r="F247" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="G247" s="3" t="s">
+      <c r="G247" s="2" t="s">
         <v>831</v>
       </c>
-      <c r="H247" s="3" t="s">
+      <c r="H247" s="2" t="s">
         <v>832</v>
       </c>
-      <c r="I247" s="3"/>
-      <c r="J247" s="3"/>
-      <c r="K247" s="3"/>
-      <c r="L247" s="3"/>
-    </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I247" s="2"/>
+      <c r="J247" s="2"/>
+      <c r="K247" s="2"/>
+      <c r="L247" s="2"/>
+      <c r="M247" s="14"/>
+      <c r="N247" s="14"/>
+      <c r="O247" s="14"/>
+      <c r="P247" s="14"/>
+      <c r="Q247" s="14"/>
+      <c r="R247" s="14"/>
+    </row>
+    <row r="248" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A248" s="1" t="s">
         <v>62</v>
       </c>
@@ -11681,18 +12319,24 @@
       <c r="F248" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="G248" s="3" t="s">
+      <c r="G248" s="2" t="s">
         <v>833</v>
       </c>
-      <c r="H248" s="3" t="s">
+      <c r="H248" s="2" t="s">
         <v>834</v>
       </c>
-      <c r="I248" s="3"/>
-      <c r="J248" s="3"/>
-      <c r="K248" s="3"/>
-      <c r="L248" s="3"/>
-    </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I248" s="2"/>
+      <c r="J248" s="2"/>
+      <c r="K248" s="2"/>
+      <c r="L248" s="2"/>
+      <c r="M248" s="14"/>
+      <c r="N248" s="14"/>
+      <c r="O248" s="14"/>
+      <c r="P248" s="14"/>
+      <c r="Q248" s="14"/>
+      <c r="R248" s="14"/>
+    </row>
+    <row r="249" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A249" s="4" t="s">
         <v>62</v>
       </c>
@@ -11722,7 +12366,7 @@
       <c r="K249" s="3"/>
       <c r="L249" s="3"/>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A250" s="4" t="s">
         <v>62</v>
       </c>
@@ -11752,7 +12396,7 @@
       <c r="K250" s="3"/>
       <c r="L250" s="3"/>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A251" s="4" t="s">
         <v>62</v>
       </c>
@@ -11782,7 +12426,7 @@
       <c r="K251" s="3"/>
       <c r="L251" s="3"/>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A252" s="4" t="s">
         <v>62</v>
       </c>
@@ -11812,7 +12456,7 @@
       <c r="K252" s="3"/>
       <c r="L252" s="3"/>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A253" s="4" t="s">
         <v>62</v>
       </c>
@@ -11842,7 +12486,7 @@
       <c r="K253" s="3"/>
       <c r="L253" s="3"/>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A254" s="4" t="s">
         <v>62</v>
       </c>
@@ -11872,7 +12516,7 @@
       <c r="K254" s="3"/>
       <c r="L254" s="3"/>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A255" s="4" t="s">
         <v>62</v>
       </c>
@@ -11902,7 +12546,7 @@
       <c r="K255" s="3"/>
       <c r="L255" s="3"/>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A256" s="1" t="s">
         <v>62</v>
       </c>
@@ -11921,18 +12565,24 @@
       <c r="F256" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="G256" s="3" t="s">
+      <c r="G256" s="2" t="s">
         <v>849</v>
       </c>
-      <c r="H256" s="3" t="s">
+      <c r="H256" s="2" t="s">
         <v>850</v>
       </c>
-      <c r="I256" s="3"/>
-      <c r="J256" s="3"/>
-      <c r="K256" s="3"/>
-      <c r="L256" s="3"/>
-    </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I256" s="2"/>
+      <c r="J256" s="2"/>
+      <c r="K256" s="2"/>
+      <c r="L256" s="2"/>
+      <c r="M256" s="14"/>
+      <c r="N256" s="14"/>
+      <c r="O256" s="14"/>
+      <c r="P256" s="14"/>
+      <c r="Q256" s="14"/>
+      <c r="R256" s="14"/>
+    </row>
+    <row r="257" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A257" s="1" t="s">
         <v>62</v>
       </c>
@@ -11951,18 +12601,24 @@
       <c r="F257" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="G257" s="3" t="s">
+      <c r="G257" s="2" t="s">
         <v>851</v>
       </c>
-      <c r="H257" s="3" t="s">
+      <c r="H257" s="2" t="s">
         <v>852</v>
       </c>
-      <c r="I257" s="3"/>
-      <c r="J257" s="3"/>
-      <c r="K257" s="3"/>
-      <c r="L257" s="3"/>
-    </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I257" s="2"/>
+      <c r="J257" s="2"/>
+      <c r="K257" s="2"/>
+      <c r="L257" s="2"/>
+      <c r="M257" s="14"/>
+      <c r="N257" s="14"/>
+      <c r="O257" s="14"/>
+      <c r="P257" s="14"/>
+      <c r="Q257" s="14"/>
+      <c r="R257" s="14"/>
+    </row>
+    <row r="258" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A258" s="1" t="s">
         <v>62</v>
       </c>
@@ -11981,18 +12637,24 @@
       <c r="F258" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="G258" s="3" t="s">
+      <c r="G258" s="2" t="s">
         <v>853</v>
       </c>
-      <c r="H258" s="3" t="s">
+      <c r="H258" s="2" t="s">
         <v>854</v>
       </c>
-      <c r="I258" s="3"/>
-      <c r="J258" s="3"/>
-      <c r="K258" s="3"/>
-      <c r="L258" s="3"/>
-    </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I258" s="2"/>
+      <c r="J258" s="2"/>
+      <c r="K258" s="2"/>
+      <c r="L258" s="2"/>
+      <c r="M258" s="14"/>
+      <c r="N258" s="14"/>
+      <c r="O258" s="14"/>
+      <c r="P258" s="14"/>
+      <c r="Q258" s="14"/>
+      <c r="R258" s="14"/>
+    </row>
+    <row r="259" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A259" s="1" t="s">
         <v>62</v>
       </c>
@@ -12011,18 +12673,24 @@
       <c r="F259" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="G259" s="3" t="s">
+      <c r="G259" s="2" t="s">
         <v>855</v>
       </c>
-      <c r="H259" s="3" t="s">
+      <c r="H259" s="2" t="s">
         <v>856</v>
       </c>
-      <c r="I259" s="3"/>
-      <c r="J259" s="3"/>
-      <c r="K259" s="3"/>
-      <c r="L259" s="3"/>
-    </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I259" s="2"/>
+      <c r="J259" s="2"/>
+      <c r="K259" s="2"/>
+      <c r="L259" s="2"/>
+      <c r="M259" s="14"/>
+      <c r="N259" s="14"/>
+      <c r="O259" s="14"/>
+      <c r="P259" s="14"/>
+      <c r="Q259" s="14"/>
+      <c r="R259" s="14"/>
+    </row>
+    <row r="260" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A260" s="1" t="s">
         <v>62</v>
       </c>
@@ -12041,18 +12709,24 @@
       <c r="F260" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="G260" s="3" t="s">
+      <c r="G260" s="2" t="s">
         <v>857</v>
       </c>
-      <c r="H260" s="3" t="s">
+      <c r="H260" s="2" t="s">
         <v>858</v>
       </c>
-      <c r="I260" s="3"/>
-      <c r="J260" s="3"/>
-      <c r="K260" s="3"/>
-      <c r="L260" s="3"/>
-    </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I260" s="2"/>
+      <c r="J260" s="2"/>
+      <c r="K260" s="2"/>
+      <c r="L260" s="2"/>
+      <c r="M260" s="14"/>
+      <c r="N260" s="14"/>
+      <c r="O260" s="14"/>
+      <c r="P260" s="14"/>
+      <c r="Q260" s="14"/>
+      <c r="R260" s="14"/>
+    </row>
+    <row r="261" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A261" s="1" t="s">
         <v>62</v>
       </c>
@@ -12071,18 +12745,24 @@
       <c r="F261" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="G261" s="3" t="s">
+      <c r="G261" s="2" t="s">
         <v>859</v>
       </c>
-      <c r="H261" s="3" t="s">
+      <c r="H261" s="2" t="s">
         <v>860</v>
       </c>
-      <c r="I261" s="3"/>
-      <c r="J261" s="3"/>
-      <c r="K261" s="3"/>
-      <c r="L261" s="3"/>
-    </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I261" s="2"/>
+      <c r="J261" s="2"/>
+      <c r="K261" s="2"/>
+      <c r="L261" s="2"/>
+      <c r="M261" s="14"/>
+      <c r="N261" s="14"/>
+      <c r="O261" s="14"/>
+      <c r="P261" s="14"/>
+      <c r="Q261" s="14"/>
+      <c r="R261" s="14"/>
+    </row>
+    <row r="262" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A262" s="4" t="s">
         <v>62</v>
       </c>
@@ -12112,7 +12792,7 @@
       <c r="K262" s="3"/>
       <c r="L262" s="3"/>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A263" s="4" t="s">
         <v>62</v>
       </c>
@@ -12142,7 +12822,7 @@
       <c r="K263" s="3"/>
       <c r="L263" s="3"/>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A264" s="4" t="s">
         <v>62</v>
       </c>
@@ -12172,7 +12852,7 @@
       <c r="K264" s="3"/>
       <c r="L264" s="3"/>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A265" s="4" t="s">
         <v>62</v>
       </c>
@@ -12202,7 +12882,7 @@
       <c r="K265" s="3"/>
       <c r="L265" s="3"/>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A266" s="4" t="s">
         <v>62</v>
       </c>
@@ -12232,7 +12912,7 @@
       <c r="K266" s="3"/>
       <c r="L266" s="3"/>
     </row>
-    <row r="267" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A267" s="7" t="s">
         <v>62</v>
       </c>
